--- a/timesteps_LF_results.xlsx
+++ b/timesteps_LF_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>node 0 : v_pu</t>
   </si>
@@ -34,48 +34,54 @@
     <t>node 8 : v_pu</t>
   </si>
   <si>
+    <t>node 11 : v_pu</t>
+  </si>
+  <si>
+    <t>node 19 : v_pu</t>
+  </si>
+  <si>
+    <t>node 21 : v_pu</t>
+  </si>
+  <si>
+    <t>node 3 : v_pu</t>
+  </si>
+  <si>
+    <t>node 5 : v_pu</t>
+  </si>
+  <si>
+    <t>node 7 : v_pu</t>
+  </si>
+  <si>
+    <t>node 9 : v_pu</t>
+  </si>
+  <si>
     <t>node 10 : v_pu</t>
   </si>
   <si>
+    <t>node 12 : v_pu</t>
+  </si>
+  <si>
+    <t>node 17 : v_pu</t>
+  </si>
+  <si>
     <t>node 18 : v_pu</t>
   </si>
   <si>
-    <t>node 19 : v_pu</t>
-  </si>
-  <si>
-    <t>node 3 : v_pu</t>
-  </si>
-  <si>
-    <t>node 5 : v_pu</t>
-  </si>
-  <si>
-    <t>node 7 : v_pu</t>
-  </si>
-  <si>
-    <t>node 9 : v_pu</t>
-  </si>
-  <si>
-    <t>node 11 : v_pu</t>
+    <t>node 20 : v_pu</t>
+  </si>
+  <si>
+    <t>node 13 : v_pu</t>
+  </si>
+  <si>
+    <t>node 15 : v_pu</t>
+  </si>
+  <si>
+    <t>node 14 : v_pu</t>
   </si>
   <si>
     <t>node 16 : v_pu</t>
   </si>
   <si>
-    <t>node 17 : v_pu</t>
-  </si>
-  <si>
-    <t>node 12 : v_pu</t>
-  </si>
-  <si>
-    <t>node 14 : v_pu</t>
-  </si>
-  <si>
-    <t>node 13 : v_pu</t>
-  </si>
-  <si>
-    <t>node 15 : v_pu</t>
-  </si>
-  <si>
     <t>line 1 - 2 : i_ka</t>
   </si>
   <si>
@@ -112,22 +118,13 @@
     <t>line 2 - 8 : pl_mw</t>
   </si>
   <si>
-    <t>line 2 - 10 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 10 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 10 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 18 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 18 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 18 : pl_mw</t>
+    <t>line 2 - 11 : i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 11 : loading</t>
+  </si>
+  <si>
+    <t>line 2 - 11 : pl_mw</t>
   </si>
   <si>
     <t>line 2 - 19 : i_ka</t>
@@ -139,48 +136,72 @@
     <t>line 2 - 19 : pl_mw</t>
   </si>
   <si>
-    <t>line 12 - 17 : i_ka</t>
-  </si>
-  <si>
-    <t>line 12 - 17 : loading</t>
-  </si>
-  <si>
-    <t>line 12 - 17 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 14 - 17 : i_ka</t>
-  </si>
-  <si>
-    <t>line 14 - 17 : loading</t>
-  </si>
-  <si>
-    <t>line 14 - 17 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 16 - 17 : i_ka</t>
-  </si>
-  <si>
-    <t>line 16 - 17 : loading</t>
-  </si>
-  <si>
-    <t>line 16 - 17 : pl_mw</t>
-  </si>
-  <si>
-    <t>load load 19 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 11 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 13 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 15 : p_mw</t>
+    <t>line 2 - 21 : i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 21 : loading</t>
+  </si>
+  <si>
+    <t>line 2 - 21 : pl_mw</t>
+  </si>
+  <si>
+    <t>line 13 - 18 : i_ka</t>
+  </si>
+  <si>
+    <t>line 13 - 18 : loading</t>
+  </si>
+  <si>
+    <t>line 13 - 18 : pl_mw</t>
+  </si>
+  <si>
+    <t>line 15 - 18 : i_ka</t>
+  </si>
+  <si>
+    <t>line 15 - 18 : loading</t>
+  </si>
+  <si>
+    <t>line 15 - 18 : pl_mw</t>
+  </si>
+  <si>
+    <t>line 17 - 18 : i_ka</t>
+  </si>
+  <si>
+    <t>line 17 - 18 : loading</t>
+  </si>
+  <si>
+    <t>line 17 - 18 : pl_mw</t>
+  </si>
+  <si>
+    <t>line 20 - 18 : i_ka</t>
+  </si>
+  <si>
+    <t>line 20 - 18 : loading</t>
+  </si>
+  <si>
+    <t>line 20 - 18 : pl_mw</t>
+  </si>
+  <si>
+    <t>load load 21 : p_mw</t>
+  </si>
+  <si>
+    <t>load load 12 : p_mw</t>
+  </si>
+  <si>
+    <t>load load 20 : p_mw</t>
+  </si>
+  <si>
+    <t>load load 14 : p_mw</t>
+  </si>
+  <si>
+    <t>load load 16 : p_mw</t>
   </si>
   <si>
     <t>sgen PV 9 : p_mw</t>
   </si>
   <si>
+    <t>sgen PV 10 : p_mw</t>
+  </si>
+  <si>
     <t>storage Battery 3 : p_mw</t>
   </si>
   <si>
@@ -272,6 +293,15 @@
   </si>
   <si>
     <t>Conv_9 : pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_10 : p_mw</t>
+  </si>
+  <si>
+    <t>Conv_10 : loading</t>
+  </si>
+  <si>
+    <t>Conv_10 : pl_mw</t>
   </si>
 </sst>
 </file>
@@ -629,13 +659,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CI25"/>
+  <dimension ref="A1:CS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:87">
+    <row r="1" spans="1:97">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,8 +924,38 @@
       <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:87">
+    <row r="2" spans="1:97">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -906,25 +966,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9907232676990397</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E2">
-        <v>0.991160576970934</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F2">
-        <v>0.9875761477176707</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G2">
-        <v>0.9875761477176707</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H2">
-        <v>0.990685827134414</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I2">
-        <v>0.9858651079148356</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J2">
-        <v>0.9884811140563493</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -939,489 +999,549 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9835116220713698</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q2">
-        <v>0.9858651079148356</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R2">
-        <v>0.9753200705609458</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S2">
-        <v>0.979339842523228</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T2">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U2">
-        <v>0.9835116220714547</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V2">
-        <v>0.01217255429808983</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W2">
-        <v>18.05481575391671</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X2">
-        <v>0.0001369100762013097</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y2">
-        <v>0.000573819604198318</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z2">
-        <v>0.8511120161042796</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA2">
-        <v>3.042444988620363E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB2">
-        <v>0.001405407069492689</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC2">
-        <v>5.053327013020978</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD2">
-        <v>5.362583919110622E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE2">
-        <v>0.001405407069492689</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF2">
-        <v>5.053327013020978</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG2">
-        <v>5.362583919110622E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH2">
-        <v>0.0004162702626045942</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI2">
-        <v>0.2999705190532524</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ2">
-        <v>1.889628558325324E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK2">
-        <v>0.008518012587520414</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL2">
-        <v>15.4569827543072</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM2">
-        <v>5.017284633206109E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN2">
-        <v>0.001001276913171622</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO2">
-        <v>3.600223581250984</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP2">
-        <v>2.72193806534894E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.009244525180950347</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>16.77532931837378</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>5.909645148537666E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT2">
-        <v>0.003558913105620638</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU2">
-        <v>8.1877103495677</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV2">
-        <v>1.407810616136772E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW2">
-        <v>0.002642083276892381</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX2">
-        <v>13.39780753687594</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY2">
-        <v>3.769526182698579E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ2">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA2">
-        <v>0.00468933238050115</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB2">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC2">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE2">
-        <v>-0.001279107031211729</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>49.41858771308558</v>
+        <v>0.00015</v>
       </c>
       <c r="BG2">
+        <v>0.0001</v>
+      </c>
+      <c r="BH2">
+        <v>5E-05</v>
+      </c>
+      <c r="BI2">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>50</v>
+      </c>
+      <c r="BN2">
         <v>0.0011</v>
       </c>
-      <c r="BH2">
+      <c r="BO2">
+        <v>0.0022</v>
+      </c>
+      <c r="BP2">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ2">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR2">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS2">
+        <v>0.0005</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV2">
+        <v>0.001682795698924731</v>
+      </c>
+      <c r="BW2">
+        <v>7.857142857142857</v>
+      </c>
+      <c r="BX2">
+        <v>-0.0005827956989247311</v>
+      </c>
+      <c r="BY2">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ2">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA2">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB2">
+        <v>0.0005</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>-0.0005</v>
+      </c>
+      <c r="CE2">
+        <v>0.0005</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>-0.0005</v>
+      </c>
+      <c r="CH2">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CI2">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ2">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK2">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL2">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM2">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN2">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO2">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP2">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ2">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR2">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS2">
+        <v>-0.0006257038609880109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.9968219539084716</v>
+      </c>
+      <c r="E3">
+        <v>0.9965741662729634</v>
+      </c>
+      <c r="F3">
+        <v>0.9905814841963414</v>
+      </c>
+      <c r="G3">
+        <v>0.9914839260591521</v>
+      </c>
+      <c r="H3">
+        <v>0.9958772428679039</v>
+      </c>
+      <c r="I3">
+        <v>0.994978831600882</v>
+      </c>
+      <c r="J3">
+        <v>0.9968219539084716</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.994001275610338</v>
+      </c>
+      <c r="Q3">
+        <v>0.9941603587945871</v>
+      </c>
+      <c r="R3">
+        <v>0.994978831600882</v>
+      </c>
+      <c r="S3">
+        <v>0.994831129371658</v>
+      </c>
+      <c r="T3">
+        <v>0.9940012756102738</v>
+      </c>
+      <c r="U3">
+        <v>0.9941603587945871</v>
+      </c>
+      <c r="V3">
+        <v>0.9941603587946513</v>
+      </c>
+      <c r="W3">
+        <v>0.9941603587946513</v>
+      </c>
+      <c r="X3">
+        <v>0.007096088599495425</v>
+      </c>
+      <c r="Y3">
+        <v>25.51492516653159</v>
+      </c>
+      <c r="Z3">
+        <v>2.734247906265551E-05</v>
+      </c>
+      <c r="AA3">
+        <v>0.0004138106638169896</v>
+      </c>
+      <c r="AB3">
+        <v>1.216551071211667</v>
+      </c>
+      <c r="AC3">
+        <v>1.243197067449112E-07</v>
+      </c>
+      <c r="AD3">
+        <v>0.001401142115398712</v>
+      </c>
+      <c r="AE3">
+        <v>7.105087321851213</v>
+      </c>
+      <c r="AF3">
+        <v>1.060127582873729E-05</v>
+      </c>
+      <c r="AG3">
+        <v>0.002383799194499916</v>
+      </c>
+      <c r="AH3">
+        <v>8.571265311432057</v>
+      </c>
+      <c r="AI3">
+        <v>1.542798369818122E-05</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0008282004804874462</v>
+      </c>
+      <c r="AK3">
+        <v>1.50287175705265</v>
+      </c>
+      <c r="AL3">
+        <v>9.486218776216283E-07</v>
+      </c>
+      <c r="AM3">
+        <v>0.002069136145292728</v>
+      </c>
+      <c r="AN3">
+        <v>10.49243530084027</v>
+      </c>
+      <c r="AO3">
+        <v>4.623830338777377E-06</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0.001097429305632986</v>
+      </c>
+      <c r="AT3">
+        <v>5.564982281516875</v>
+      </c>
+      <c r="AU3">
+        <v>6.503495836655522E-07</v>
+      </c>
+      <c r="AV3">
+        <v>0.00091883846257539</v>
+      </c>
+      <c r="AW3">
+        <v>4.659361416322798</v>
+      </c>
+      <c r="AX3">
+        <v>4.55902624966315E-07</v>
+      </c>
+      <c r="AY3">
+        <v>0.00091883846257539</v>
+      </c>
+      <c r="AZ3">
+        <v>4.659361416322798</v>
+      </c>
+      <c r="BA3">
+        <v>4.55902624966315E-07</v>
+      </c>
+      <c r="BB3">
+        <v>0.0001658142923936932</v>
+      </c>
+      <c r="BC3">
+        <v>0.8408319282679688</v>
+      </c>
+      <c r="BD3">
+        <v>1.484696496347197E-08</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.00015</v>
+      </c>
+      <c r="BG3">
+        <v>0.0001</v>
+      </c>
+      <c r="BH3">
+        <v>5E-05</v>
+      </c>
+      <c r="BI3">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>50</v>
+      </c>
+      <c r="BN3">
         <v>0.0011</v>
       </c>
-      <c r="BI2">
-        <v>0.01659842035975611</v>
-      </c>
-      <c r="BJ2">
-        <v>14.75843775152326</v>
-      </c>
-      <c r="BK2">
-        <v>-0.001839982608232846</v>
-      </c>
-      <c r="BL2">
-        <v>-0.0006895695390269083</v>
-      </c>
-      <c r="BM2">
-        <v>-2.558214062423458</v>
-      </c>
-      <c r="BN2">
-        <v>-0.0005895374921848209</v>
-      </c>
-      <c r="BO2">
+      <c r="BO3">
+        <v>0.0022</v>
+      </c>
+      <c r="BP3">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ3">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR3">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS3">
+        <v>0.0005</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV3">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP2">
+      <c r="BW3">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ2">
+      <c r="BX3">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR2">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS2">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT2">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU2">
+      <c r="BY3">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ3">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA3">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB3">
         <v>0.0005</v>
       </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
         <v>-0.0005</v>
       </c>
-      <c r="BX2">
-        <v>0.005465891165569893</v>
-      </c>
-      <c r="BY2">
-        <v>19.53888491875479</v>
-      </c>
-      <c r="BZ2">
-        <v>-0.0007765587850687436</v>
-      </c>
-      <c r="CA2">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB2">
-        <v>6.25</v>
-      </c>
-      <c r="CC2">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD2">
-        <v>0.001575268817204301</v>
-      </c>
-      <c r="CE2">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="CF2">
-        <v>-0.0005752688172043011</v>
-      </c>
-      <c r="CG2">
-        <v>0.01018156272347932</v>
-      </c>
-      <c r="CH2">
-        <v>25.64168692336136</v>
-      </c>
-      <c r="CI2">
-        <v>-0.0009505554310692294</v>
+      <c r="CE3">
+        <v>0.0005</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>-0.0005</v>
+      </c>
+      <c r="CH3">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CI3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ3">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK3">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL3">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM3">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN3">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO3">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP3">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ3">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR3">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS3">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="3" spans="1:87">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.9906576633774637</v>
-      </c>
-      <c r="E3">
-        <v>0.9910739246284228</v>
-      </c>
-      <c r="F3">
-        <v>0.987510333651695</v>
-      </c>
-      <c r="G3">
-        <v>0.987510333651695</v>
-      </c>
-      <c r="H3">
-        <v>0.9906202203332241</v>
-      </c>
-      <c r="I3">
-        <v>0.9857663192549547</v>
-      </c>
-      <c r="J3">
-        <v>0.9884153605774371</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0.98</v>
-      </c>
-      <c r="P3">
-        <v>0.9834125964250601</v>
-      </c>
-      <c r="Q3">
-        <v>0.9857663192549532</v>
-      </c>
-      <c r="R3">
-        <v>0.9750902487736246</v>
-      </c>
-      <c r="S3">
-        <v>0.9792403911604899</v>
-      </c>
-      <c r="T3">
-        <v>0.98</v>
-      </c>
-      <c r="U3">
-        <v>0.98341259642515</v>
-      </c>
-      <c r="V3">
-        <v>0.01225863764518506</v>
-      </c>
-      <c r="W3">
-        <v>18.18249799161508</v>
-      </c>
-      <c r="X3">
-        <v>0.0001388533579503356</v>
-      </c>
-      <c r="Y3">
-        <v>0.0005462012393055087</v>
-      </c>
-      <c r="Z3">
-        <v>0.810147360917458</v>
-      </c>
-      <c r="AA3">
-        <v>2.75662273488647E-07</v>
-      </c>
-      <c r="AB3">
-        <v>0.001405500734895836</v>
-      </c>
-      <c r="AC3">
-        <v>5.053663799367214</v>
-      </c>
-      <c r="AD3">
-        <v>5.363298737377483E-06</v>
-      </c>
-      <c r="AE3">
-        <v>0.001405500734895836</v>
-      </c>
-      <c r="AF3">
-        <v>5.053663799367214</v>
-      </c>
-      <c r="AG3">
-        <v>5.363298737377483E-06</v>
-      </c>
-      <c r="AH3">
-        <v>0.0004162978313536415</v>
-      </c>
-      <c r="AI3">
-        <v>0.2999903855022983</v>
-      </c>
-      <c r="AJ3">
-        <v>1.889878859277164E-08</v>
-      </c>
-      <c r="AK3">
-        <v>0.008576196061087706</v>
-      </c>
-      <c r="AL3">
-        <v>15.5625638318502</v>
-      </c>
-      <c r="AM3">
-        <v>5.086061253428871E-05</v>
-      </c>
-      <c r="AN3">
-        <v>0.001001343522254163</v>
-      </c>
-      <c r="AO3">
-        <v>3.600463083017712</v>
-      </c>
-      <c r="AP3">
-        <v>2.722300226556647E-06</v>
-      </c>
-      <c r="AQ3">
-        <v>0.009359398083292161</v>
-      </c>
-      <c r="AR3">
-        <v>16.98378034520556</v>
-      </c>
-      <c r="AS3">
-        <v>6.057424691098025E-05</v>
-      </c>
-      <c r="AT3">
-        <v>0.003559274547146242</v>
-      </c>
-      <c r="AU3">
-        <v>8.188541889544128</v>
-      </c>
-      <c r="AV3">
-        <v>1.408096583813178E-05</v>
-      </c>
-      <c r="AW3">
-        <v>0.002642349323904281</v>
-      </c>
-      <c r="AX3">
-        <v>13.39915664146033</v>
-      </c>
-      <c r="AY3">
-        <v>3.770285372750332E-06</v>
-      </c>
-      <c r="AZ3">
-        <v>0.0012</v>
-      </c>
-      <c r="BA3">
-        <v>0.004754280988166077</v>
-      </c>
-      <c r="BB3">
-        <v>0.0015</v>
-      </c>
-      <c r="BC3">
-        <v>0.001</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>-0.001243357698341267</v>
-      </c>
-      <c r="BF3">
-        <v>48.85342512293046</v>
-      </c>
-      <c r="BG3">
-        <v>0.0011</v>
-      </c>
-      <c r="BH3">
-        <v>0.0011</v>
-      </c>
-      <c r="BI3">
-        <v>0.01670714289769468</v>
-      </c>
-      <c r="BJ3">
-        <v>14.86280826312474</v>
-      </c>
-      <c r="BK3">
-        <v>-0.00184433463456994</v>
-      </c>
-      <c r="BL3">
-        <v>-0.0006563226594573787</v>
-      </c>
-      <c r="BM3">
-        <v>-2.486715396682535</v>
-      </c>
-      <c r="BN3">
-        <v>-0.0005870350388838886</v>
-      </c>
-      <c r="BO3">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BP3">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BQ3">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BR3">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS3">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT3">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU3">
-        <v>0.0005</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>-0.0005</v>
-      </c>
-      <c r="BX3">
-        <v>0.00553250687399404</v>
-      </c>
-      <c r="BY3">
-        <v>19.80950411735865</v>
-      </c>
-      <c r="BZ3">
-        <v>-0.0007782258858279626</v>
-      </c>
-      <c r="CA3">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB3">
-        <v>6.25</v>
-      </c>
-      <c r="CC3">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD3">
-        <v>0.001575268817204301</v>
-      </c>
-      <c r="CE3">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="CF3">
-        <v>-0.0005752688172043011</v>
-      </c>
-      <c r="CG3">
-        <v>0.01025008209548465</v>
-      </c>
-      <c r="CH3">
-        <v>25.83084559757404</v>
-      </c>
-      <c r="CI3">
-        <v>-0.0009509776803579926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:87">
+    <row r="4" spans="1:97">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1432,25 +1552,25 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9906594843929892</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E4">
-        <v>0.9910763300470108</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F4">
-        <v>0.9875121604895907</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G4">
-        <v>0.9875121604895907</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H4">
-        <v>0.990622041417582</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I4">
-        <v>0.9857690612654223</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J4">
-        <v>0.9884171857334738</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1465,226 +1585,256 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9834153450140493</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q4">
-        <v>0.9857690612654236</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R4">
-        <v>0.9750966285036898</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S4">
-        <v>0.9792431515669867</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T4">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U4">
-        <v>0.9834153450141357</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V4">
-        <v>0.01225624818199449</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W4">
-        <v>18.1789538449553</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X4">
-        <v>0.0001387992324167458</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y4">
-        <v>0.0005469680694542093</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z4">
-        <v>0.8112847538351885</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA4">
-        <v>2.764368397582774E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB4">
-        <v>0.001405498134804328</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC4">
-        <v>5.053654450394278</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD4">
-        <v>5.363278893837694E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE4">
-        <v>0.001405498134804328</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF4">
-        <v>5.053654450394278</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG4">
-        <v>5.363278893837694E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH4">
-        <v>0.0004162970660643062</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI4">
-        <v>0.2999898340234641</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ4">
-        <v>1.889871910874807E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK4">
-        <v>0.008574581242543873</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL4">
-        <v>15.55963354475249</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM4">
-        <v>5.084146116986731E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN4">
-        <v>0.001001341673229117</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO4">
-        <v>3.600456434603588</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP4">
-        <v>2.722290172870465E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.009356209001142339</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>16.97799336293882</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>6.053297431271934E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT4">
-        <v>0.00355926451385941</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU4">
-        <v>8.188518806753398</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV4">
-        <v>1.408088645219645E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW4">
-        <v>0.002642341938691363</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX4">
-        <v>13.39911919159561</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY4">
-        <v>3.770264297322254E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ4">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA4">
-        <v>0.00475247756046084</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB4">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC4">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE4">
-        <v>-0.0012443502020738</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>48.2878113947151</v>
+        <v>0.00015</v>
       </c>
       <c r="BG4">
+        <v>0.0001</v>
+      </c>
+      <c r="BH4">
+        <v>5E-05</v>
+      </c>
+      <c r="BI4">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>50</v>
+      </c>
+      <c r="BN4">
         <v>0.0011</v>
       </c>
-      <c r="BH4">
-        <v>0.0011</v>
-      </c>
-      <c r="BI4">
-        <v>0.01670412551601639</v>
-      </c>
-      <c r="BJ4">
-        <v>14.85991119297031</v>
-      </c>
-      <c r="BK4">
-        <v>-0.00184421432304608</v>
-      </c>
-      <c r="BL4">
-        <v>-0.0006572456879286343</v>
-      </c>
-      <c r="BM4">
-        <v>-2.488700404147601</v>
-      </c>
-      <c r="BN4">
-        <v>-0.0005871045141451661</v>
-      </c>
       <c r="BO4">
+        <v>0.0022</v>
+      </c>
+      <c r="BP4">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ4">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR4">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS4">
+        <v>0.0005</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV4">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP4">
+      <c r="BW4">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ4">
+      <c r="BX4">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR4">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS4">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT4">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU4">
+      <c r="BY4">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ4">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA4">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB4">
         <v>0.0005</v>
       </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
         <v>-0.0005</v>
       </c>
-      <c r="BX4">
-        <v>0.005530657928644118</v>
-      </c>
-      <c r="BY4">
-        <v>19.8019898352535</v>
-      </c>
-      <c r="BZ4">
-        <v>-0.000778180368183278</v>
-      </c>
-      <c r="CA4">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB4">
-        <v>6.25</v>
-      </c>
-      <c r="CC4">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD4">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE4">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF4">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01024818060594346</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH4">
-        <v>25.82559471310308</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI4">
-        <v>-0.0009509665092263531</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ4">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK4">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL4">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM4">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN4">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO4">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP4">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ4">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR4">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS4">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="5" spans="1:87">
+    <row r="5" spans="1:97">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1695,25 +1845,25 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9906594338342974</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E5">
-        <v>0.9910762632631044</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F5">
-        <v>0.9875121097692467</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G5">
-        <v>0.9875121097692467</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H5">
-        <v>0.9906219908569791</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I5">
-        <v>0.9857689851361022</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J5">
-        <v>0.9884171350598251</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1728,226 +1878,256 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.983415268702082</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q5">
-        <v>0.9857689851361023</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R5">
-        <v>0.9750964513770304</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S5">
-        <v>0.9792430749269186</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T5">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U5">
-        <v>0.9834152687021706</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V5">
-        <v>0.01225631452307244</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W5">
-        <v>18.17905224467569</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X5">
-        <v>0.0001388007350161518</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y5">
-        <v>0.0005469467793814346</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z5">
-        <v>0.811253175554088</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA5">
-        <v>2.764153202355684E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB5">
-        <v>0.00140549820699308</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC5">
-        <v>5.053654709958485</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD5">
-        <v>5.363279444772209E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE5">
-        <v>0.00140549820699308</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF5">
-        <v>5.053654709958485</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG5">
-        <v>5.363279444772209E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH5">
-        <v>0.0004162970873113956</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI5">
-        <v>0.2999898493344316</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ5">
-        <v>1.8898721037869E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK5">
-        <v>0.008574626076584832</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL5">
-        <v>15.55971490164071</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM5">
-        <v>5.084199284226959E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN5">
-        <v>0.001001341724565262</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO5">
-        <v>3.600456619189484</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP5">
-        <v>2.722290452000049E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.009356297542548511</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>16.97815403222337</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>6.053412001180009E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT5">
-        <v>0.003559264792423265</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU5">
-        <v>8.188519447623262</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV5">
-        <v>1.408088865626194E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW5">
-        <v>0.00264234214373431</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX5">
-        <v>13.39912023135313</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY5">
-        <v>3.770264882459662E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ5">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA5">
-        <v>0.004752527630416377</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB5">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC5">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE5">
-        <v>-0.00124432264639298</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>47.7222101918092</v>
+        <v>0.00015</v>
       </c>
       <c r="BG5">
+        <v>0.0001</v>
+      </c>
+      <c r="BH5">
+        <v>5E-05</v>
+      </c>
+      <c r="BI5">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>50</v>
+      </c>
+      <c r="BN5">
         <v>0.0011</v>
       </c>
-      <c r="BH5">
-        <v>0.0011</v>
-      </c>
-      <c r="BI5">
-        <v>0.01670420929100233</v>
-      </c>
-      <c r="BJ5">
-        <v>14.85999162724855</v>
-      </c>
-      <c r="BK5">
-        <v>-0.001844217663753787</v>
-      </c>
-      <c r="BL5">
-        <v>-0.0006572200611454713</v>
-      </c>
-      <c r="BM5">
-        <v>-2.48864529278596</v>
-      </c>
-      <c r="BN5">
-        <v>-0.0005871025852475086</v>
-      </c>
       <c r="BO5">
+        <v>0.0022</v>
+      </c>
+      <c r="BP5">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ5">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR5">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS5">
+        <v>0.0005</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV5">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP5">
+      <c r="BW5">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ5">
+      <c r="BX5">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR5">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS5">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT5">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU5">
+      <c r="BY5">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ5">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA5">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB5">
         <v>0.0005</v>
       </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
         <v>-0.0005</v>
       </c>
-      <c r="BX5">
-        <v>0.005530709262936627</v>
-      </c>
-      <c r="BY5">
-        <v>19.80219846006824</v>
-      </c>
-      <c r="BZ5">
-        <v>-0.0007781816325202508</v>
-      </c>
-      <c r="CA5">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB5">
-        <v>6.25</v>
-      </c>
-      <c r="CC5">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD5">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE5">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF5">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01024823339930332</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH5">
-        <v>25.82574049860528</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI5">
-        <v>-0.0009509668198054155</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ5">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK5">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL5">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM5">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN5">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO5">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP5">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ5">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR5">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS5">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="6" spans="1:87">
+    <row r="6" spans="1:97">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1958,25 +2138,25 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9906594352380024</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E6">
-        <v>0.9910762651172831</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F6">
-        <v>0.9875121111774398</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G6">
-        <v>0.9875121111774398</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H6">
-        <v>0.9906219922607371</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I6">
-        <v>0.9857689872497446</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J6">
-        <v>0.9884171364667215</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1991,226 +2171,256 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9834152708207954</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q6">
-        <v>0.9857689872497446</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R6">
-        <v>0.9750964562947408</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S6">
-        <v>0.9792430770547411</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T6">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U6">
-        <v>0.9834152708208785</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V6">
-        <v>0.01225631268118735</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W6">
-        <v>18.17904951271861</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X6">
-        <v>0.0001388006932980679</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y6">
-        <v>0.0005469473704748911</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z6">
-        <v>0.8112540522873677</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA6">
-        <v>2.764159176881029E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB6">
-        <v>0.001405498204988895</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC6">
-        <v>5.053654702752172</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD6">
-        <v>5.363279429476502E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE6">
-        <v>0.001405498204988895</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF6">
-        <v>5.053654702752172</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG6">
-        <v>5.363279429476502E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH6">
-        <v>0.0004162970867224196</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI6">
-        <v>0.2999898489100067</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ6">
-        <v>1.889872098430941E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK6">
-        <v>0.008574624831822149</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL6">
-        <v>15.55971264286554</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM6">
-        <v>5.084197808099405E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN6">
-        <v>0.001001341723140072</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO6">
-        <v>3.600456614065025</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP6">
-        <v>2.722290444250822E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.009356295084304071</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>16.97814957143612</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>6.05340882027126E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT6">
-        <v>0.003559264784689291</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU6">
-        <v>8.188519429830322</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV6">
-        <v>1.40808885950687E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW6">
-        <v>0.002642342138041424</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX6">
-        <v>13.39912020248493</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY6">
-        <v>3.770264866213542E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ6">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA6">
-        <v>0.004752526240284767</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB6">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC6">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE6">
-        <v>-0.001244323411443586</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>47.15660864115302</v>
+        <v>0.00015</v>
       </c>
       <c r="BG6">
+        <v>0.0001</v>
+      </c>
+      <c r="BH6">
+        <v>5E-05</v>
+      </c>
+      <c r="BI6">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>50</v>
+      </c>
+      <c r="BN6">
         <v>0.0011</v>
       </c>
-      <c r="BH6">
-        <v>0.0011</v>
-      </c>
-      <c r="BI6">
-        <v>0.01670420696509158</v>
-      </c>
-      <c r="BJ6">
-        <v>14.8599893940882</v>
-      </c>
-      <c r="BK6">
-        <v>-0.001844217571003373</v>
-      </c>
-      <c r="BL6">
-        <v>-0.000657220772642535</v>
-      </c>
-      <c r="BM6">
-        <v>-2.488646822887172</v>
-      </c>
-      <c r="BN6">
-        <v>-0.0005871026388010511</v>
-      </c>
       <c r="BO6">
+        <v>0.0022</v>
+      </c>
+      <c r="BP6">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ6">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR6">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS6">
+        <v>0.0005</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV6">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP6">
+      <c r="BW6">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ6">
+      <c r="BX6">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR6">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS6">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT6">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU6">
+      <c r="BY6">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ6">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA6">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB6">
         <v>0.0005</v>
       </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
         <v>-0.0005</v>
       </c>
-      <c r="BX6">
-        <v>0.005530707837702695</v>
-      </c>
-      <c r="BY6">
-        <v>19.80219266785319</v>
-      </c>
-      <c r="BZ6">
-        <v>-0.0007781815974179278</v>
-      </c>
-      <c r="CA6">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB6">
-        <v>6.25</v>
-      </c>
-      <c r="CC6">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD6">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE6">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF6">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01024823193356033</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH6">
-        <v>25.82573645104845</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI6">
-        <v>-0.0009509668111828927</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ6">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK6">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL6">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM6">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN6">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO6">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP6">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ6">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR6">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS6">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="7" spans="1:87">
+    <row r="7" spans="1:97">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2221,25 +2431,25 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.990659435199027</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E7">
-        <v>0.9910762650658003</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F7">
-        <v>0.9875121111383399</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G7">
-        <v>0.9875121111383399</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H7">
-        <v>0.9906219922217603</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I7">
-        <v>0.985768987191058</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J7">
-        <v>0.9884171364276577</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2254,226 +2464,256 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.9834152707619681</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q7">
-        <v>0.9857689871910581</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R7">
-        <v>0.9750964561582007</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S7">
-        <v>0.9792430769956609</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T7">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U7">
-        <v>0.9834152707620545</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V7">
-        <v>0.01225631273232937</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W7">
-        <v>18.17904958857448</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X7">
-        <v>0.0001388006944564174</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y7">
-        <v>0.0005469473540632288</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z7">
-        <v>0.8112540279449387</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA7">
-        <v>2.764159010998097E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB7">
-        <v>0.001405498205044478</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC7">
-        <v>5.053654702952027</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD7">
-        <v>5.363279429900641E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE7">
-        <v>0.001405498205044478</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF7">
-        <v>5.053654702952027</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG7">
-        <v>5.363279429900641E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH7">
-        <v>0.0004162970867385359</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI7">
-        <v>0.2999898489216203</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ7">
-        <v>1.889872098571888E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK7">
-        <v>0.008574624866382366</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL7">
-        <v>15.55971270557931</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM7">
-        <v>5.084197849083462E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN7">
-        <v>0.00100134172317963</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO7">
-        <v>3.600456614207262</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP7">
-        <v>2.722290444465711E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0.009356295152556244</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>16.9781496952881</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>6.053408908587767E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT7">
-        <v>0.003559264784904022</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU7">
-        <v>8.188519430324336</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV7">
-        <v>1.408088859676786E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW7">
-        <v>0.002642342138199474</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX7">
-        <v>13.39912020328639</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY7">
-        <v>3.770264866664354E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ7">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA7">
-        <v>0.004752526278881204</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB7">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC7">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE7">
-        <v>-0.001244323390202057</v>
+        <v>0</v>
       </c>
       <c r="BF7">
-        <v>46.59100710015208</v>
+        <v>0.00015</v>
       </c>
       <c r="BG7">
+        <v>0.0001</v>
+      </c>
+      <c r="BH7">
+        <v>5E-05</v>
+      </c>
+      <c r="BI7">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>50</v>
+      </c>
+      <c r="BN7">
         <v>0.0011</v>
       </c>
-      <c r="BH7">
-        <v>0.0011</v>
-      </c>
-      <c r="BI7">
-        <v>0.01670420702966981</v>
-      </c>
-      <c r="BJ7">
-        <v>14.85998945609125</v>
-      </c>
-      <c r="BK7">
-        <v>-0.001844217573578564</v>
-      </c>
-      <c r="BL7">
-        <v>-0.0006572207528879128</v>
-      </c>
-      <c r="BM7">
-        <v>-2.488646780404113</v>
-      </c>
-      <c r="BN7">
-        <v>-0.0005871026373141439</v>
-      </c>
       <c r="BO7">
+        <v>0.0022</v>
+      </c>
+      <c r="BP7">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ7">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR7">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS7">
+        <v>0.0005</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV7">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP7">
+      <c r="BW7">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ7">
+      <c r="BX7">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR7">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS7">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT7">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU7">
+      <c r="BY7">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ7">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA7">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB7">
         <v>0.0005</v>
       </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
         <v>-0.0005</v>
       </c>
-      <c r="BX7">
-        <v>0.005530707877273734</v>
-      </c>
-      <c r="BY7">
-        <v>19.80219282867168</v>
-      </c>
-      <c r="BZ7">
-        <v>-0.0007781815983925302</v>
-      </c>
-      <c r="CA7">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB7">
-        <v>6.25</v>
-      </c>
-      <c r="CC7">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD7">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE7">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF7">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG7">
-        <v>0.01024823197425609</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH7">
-        <v>25.82573656342721</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI7">
-        <v>-0.0009509668114222949</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ7">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK7">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL7">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM7">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN7">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO7">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP7">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ7">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR7">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS7">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="8" spans="1:87">
+    <row r="8" spans="1:97">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2484,25 +2724,25 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9907784485654635</v>
+        <v>0.9957807175646518</v>
       </c>
       <c r="E8">
-        <v>0.9917721714734755</v>
+        <v>0.9956080293479843</v>
       </c>
       <c r="F8">
-        <v>0.9856975138695513</v>
+        <v>0.9857920468698333</v>
       </c>
       <c r="G8">
-        <v>0.9861300544278643</v>
+        <v>0.986846986244279</v>
       </c>
       <c r="H8">
-        <v>0.9907410100862272</v>
+        <v>0.9948350167090036</v>
       </c>
       <c r="I8">
-        <v>0.9864200365704227</v>
+        <v>0.9939356580361506</v>
       </c>
       <c r="J8">
-        <v>0.9885364203660458</v>
+        <v>0.9957807175646518</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -2517,226 +2757,256 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.984067881069707</v>
+        <v>0.9929570740399594</v>
       </c>
       <c r="Q8">
-        <v>0.9864200365704227</v>
+        <v>0.9931163247934549</v>
       </c>
       <c r="R8">
-        <v>0.9775675947020745</v>
+        <v>0.9939356580361506</v>
       </c>
       <c r="S8">
-        <v>0.9803479347807812</v>
+        <v>0.9937878007416657</v>
       </c>
       <c r="T8">
-        <v>0.9803479347808141</v>
+        <v>0.9929570740398799</v>
       </c>
       <c r="U8">
-        <v>0.9840678810697397</v>
+        <v>0.9931163247934549</v>
       </c>
       <c r="V8">
-        <v>0.01210014818880832</v>
+        <v>0.9931163247935345</v>
       </c>
       <c r="W8">
-        <v>17.94742013829471</v>
+        <v>0.9931163247935345</v>
       </c>
       <c r="X8">
-        <v>0.0001352861536405951</v>
+        <v>0.009421009364003991</v>
       </c>
       <c r="Y8">
-        <v>0.001303923155547036</v>
+        <v>33.87448529501837</v>
       </c>
       <c r="Z8">
-        <v>1.934030586691387</v>
+        <v>4.81941916681012E-05</v>
       </c>
       <c r="AA8">
-        <v>1.570999210308245E-06</v>
+        <v>0.0002883930242365102</v>
       </c>
       <c r="AB8">
-        <v>0.002268989292921391</v>
+        <v>0.8478390559796257</v>
       </c>
       <c r="AC8">
-        <v>8.158451124280957</v>
+        <v>6.038180944692917E-08</v>
       </c>
       <c r="AD8">
-        <v>1.397766819692886E-05</v>
+        <v>0.002242707333416664</v>
       </c>
       <c r="AE8">
-        <v>0.002075829971988569</v>
+        <v>11.37260186968763</v>
       </c>
       <c r="AF8">
-        <v>7.463921236481998</v>
+        <v>2.716057539014832E-05</v>
       </c>
       <c r="AG8">
-        <v>1.16991252471256E-05</v>
+        <v>0.00398952986506022</v>
       </c>
       <c r="AH8">
-        <v>0.0004162470769079851</v>
+        <v>14.34488232910345</v>
       </c>
       <c r="AI8">
-        <v>0.2999538110967366</v>
+        <v>4.321288629752316E-05</v>
       </c>
       <c r="AJ8">
-        <v>1.889418064626031E-08</v>
+        <v>0.0008290682223578069</v>
       </c>
       <c r="AK8">
-        <v>0.007641784108473962</v>
+        <v>1.504446381530783</v>
       </c>
       <c r="AL8">
-        <v>13.86695827966664</v>
+        <v>9.506107442583313E-07</v>
       </c>
       <c r="AM8">
-        <v>4.038143170530424E-05</v>
+        <v>0.002071310918932698</v>
       </c>
       <c r="AN8">
-        <v>0.001001220894060975</v>
+        <v>10.50346341600962</v>
       </c>
       <c r="AO8">
-        <v>3.600022157128944</v>
+        <v>4.633555236720731E-06</v>
       </c>
       <c r="AP8">
-        <v>2.721633501681902E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0.007760676327491252</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>14.08270285154764</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>4.164772911704681E-05</v>
+        <v>0.001098583371028086</v>
       </c>
       <c r="AT8">
-        <v>0.003311755360266421</v>
+        <v>5.570834461190298</v>
       </c>
       <c r="AU8">
-        <v>7.619094041848204</v>
+        <v>6.517181284736292E-07</v>
       </c>
       <c r="AV8">
-        <v>1.219062474389033E-05</v>
+        <v>0.0009198044104400541</v>
       </c>
       <c r="AW8">
-        <v>0.002640589800166235</v>
+        <v>4.664259666008799</v>
       </c>
       <c r="AX8">
-        <v>13.3902342276193</v>
+        <v>4.568616828711305E-07</v>
       </c>
       <c r="AY8">
-        <v>3.765265826080524E-06</v>
+        <v>0.0009198044104400541</v>
       </c>
       <c r="AZ8">
-        <v>0.0012</v>
+        <v>4.664259666008799</v>
       </c>
       <c r="BA8">
-        <v>0.003849318528373909</v>
+        <v>4.568616828711305E-07</v>
       </c>
       <c r="BB8">
-        <v>0.001365417706978621</v>
+        <v>0.0001659883726131667</v>
       </c>
       <c r="BC8">
-        <v>0.001</v>
+        <v>0.8417146760968809</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.487815551509187E-08</v>
       </c>
       <c r="BE8">
-        <v>-0.002223564781098329</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>45.58029583601648</v>
+        <v>0.00015</v>
       </c>
       <c r="BG8">
-        <v>0.002072783630699071</v>
+        <v>0.0001</v>
       </c>
       <c r="BH8">
-        <v>0.001852783630699071</v>
+        <v>5E-05</v>
       </c>
       <c r="BI8">
-        <v>0.01650694392638849</v>
+        <v>5E-05</v>
       </c>
       <c r="BJ8">
-        <v>14.67065000948883</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>-0.001836293916899665</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>-0.001567915246421446</v>
+        <v>-0.0001633093850831914</v>
       </c>
       <c r="BM8">
-        <v>-4.447129562196658</v>
+        <v>49.86390884576401</v>
       </c>
       <c r="BN8">
-        <v>-0.000655649534676883</v>
+        <v>0.002042888939731316</v>
       </c>
       <c r="BO8">
-        <v>0.00271165712924697</v>
+        <v>0.003981071649698356</v>
       </c>
       <c r="BP8">
-        <v>14.80559736213622</v>
+        <v>0.01310400245621441</v>
       </c>
       <c r="BQ8">
-        <v>-0.0006388734985478994</v>
+        <v>11.42236681392665</v>
       </c>
       <c r="BR8">
-        <v>0.002481902066649223</v>
+        <v>-0.001681635642287765</v>
       </c>
       <c r="BS8">
-        <v>13.23416879070765</v>
+        <v>0.000348122271872632</v>
       </c>
       <c r="BT8">
-        <v>-0.0006291184359501518</v>
+        <v>-0.4082734627079785</v>
       </c>
       <c r="BU8">
+        <v>-0.0005114316569558234</v>
+      </c>
+      <c r="BV8">
+        <v>0.002680504746433286</v>
+      </c>
+      <c r="BW8">
+        <v>14.59206385522368</v>
+      </c>
+      <c r="BX8">
+        <v>-0.0006376158067019698</v>
+      </c>
+      <c r="BY8">
+        <v>0.004773426139689471</v>
+      </c>
+      <c r="BZ8">
+        <v>11.05853236027321</v>
+      </c>
+      <c r="CA8">
+        <v>-0.0007923544899911148</v>
+      </c>
+      <c r="CB8">
         <v>0.0005</v>
       </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
         <v>-0.0005</v>
       </c>
-      <c r="BX8">
-        <v>0.004599126509006544</v>
-      </c>
-      <c r="BY8">
-        <v>16.03882720155796</v>
-      </c>
-      <c r="BZ8">
-        <v>-0.0007498079806326345</v>
-      </c>
-      <c r="CA8">
-        <v>0.001968191082772711</v>
-      </c>
-      <c r="CB8">
-        <v>5.689240445744254</v>
-      </c>
-      <c r="CC8">
-        <v>-0.0006027733757940899</v>
-      </c>
-      <c r="CD8">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE8">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF8">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG8">
-        <v>0.009139350154331488</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH8">
-        <v>22.77830563519604</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI8">
-        <v>-0.0009391601256609153</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ8">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK8">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL8">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM8">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN8">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO8">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP8">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ8">
+        <v>0.002496101454785061</v>
+      </c>
+      <c r="CR8">
+        <v>20.78219471056451</v>
+      </c>
+      <c r="CS8">
+        <v>-0.0006257039308342548</v>
       </c>
     </row>
-    <row r="9" spans="1:87">
+    <row r="9" spans="1:97">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2747,25 +3017,25 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9937461363042119</v>
+        <v>0.9970715690129974</v>
       </c>
       <c r="E9">
-        <v>0.9941278422124922</v>
+        <v>0.9968238434222225</v>
       </c>
       <c r="F9">
-        <v>0.9869415995929917</v>
+        <v>0.9854877128809667</v>
       </c>
       <c r="G9">
-        <v>0.9873656082538174</v>
+        <v>0.9865169606192339</v>
       </c>
       <c r="H9">
-        <v>0.9947826974184135</v>
+        <v>1.001374592882523</v>
       </c>
       <c r="I9">
-        <v>0.9872812071925862</v>
+        <v>0.9949179854666524</v>
       </c>
       <c r="J9">
-        <v>0.9870096473451427</v>
+        <v>0.9969241768853742</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2780,226 +3050,256 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.9817924070472502</v>
+        <v>0.9939403695741107</v>
       </c>
       <c r="Q9">
-        <v>0.9872812071925881</v>
+        <v>0.9939403695739998</v>
       </c>
       <c r="R9">
-        <v>0.9777533245319971</v>
+        <v>0.9949179854666524</v>
       </c>
       <c r="S9">
-        <v>0.9753618853066447</v>
+        <v>0.9944747199741893</v>
       </c>
       <c r="T9">
-        <v>0.98</v>
+        <v>0.9939403695739998</v>
       </c>
       <c r="U9">
-        <v>0.9817924070475125</v>
+        <v>0.9939403695739998</v>
       </c>
       <c r="V9">
-        <v>0.008206067927814774</v>
+        <v>0.9939403695741107</v>
       </c>
       <c r="W9">
-        <v>12.17156571025283</v>
+        <v>0.9939403695741107</v>
       </c>
       <c r="X9">
-        <v>6.222174497238012E-05</v>
+        <v>0.006538736425715207</v>
       </c>
       <c r="Y9">
-        <v>0.0005008591111292587</v>
+        <v>23.51089170415104</v>
       </c>
       <c r="Z9">
-        <v>0.7428941164409772</v>
+        <v>2.321600520642161E-05</v>
       </c>
       <c r="AA9">
-        <v>2.317945006619342E-07</v>
+        <v>0.000413707047782357</v>
       </c>
       <c r="AB9">
-        <v>0.003038696984921109</v>
+        <v>1.21624645316059</v>
       </c>
       <c r="AC9">
-        <v>10.92603694090577</v>
+        <v>1.242574565252837E-07</v>
       </c>
       <c r="AD9">
-        <v>2.506943947914791E-05</v>
+        <v>0.002600866510698453</v>
       </c>
       <c r="AE9">
-        <v>0.002849347747212293</v>
+        <v>13.18880038498625</v>
       </c>
       <c r="AF9">
-        <v>10.24520671130241</v>
+        <v>3.652833567495319E-05</v>
       </c>
       <c r="AG9">
-        <v>2.204249471703633E-05</v>
+        <v>0.004713363754841259</v>
       </c>
       <c r="AH9">
-        <v>0.01152465438297231</v>
+        <v>16.9475228220753</v>
       </c>
       <c r="AI9">
-        <v>8.304836707620701</v>
+        <v>6.031589125899978E-05</v>
       </c>
       <c r="AJ9">
-        <v>1.448376567545276E-05</v>
+        <v>0.003772334907982809</v>
       </c>
       <c r="AK9">
-        <v>0.01133522773979293</v>
+        <v>6.845366218592895</v>
       </c>
       <c r="AL9">
-        <v>20.56916656202393</v>
+        <v>1.96807962399943E-05</v>
       </c>
       <c r="AM9">
-        <v>8.884902874182164E-05</v>
+        <v>0.002417667855953304</v>
       </c>
       <c r="AN9">
-        <v>0.003008308949986801</v>
+        <v>12.25981364987583</v>
       </c>
       <c r="AO9">
-        <v>10.81677274184236</v>
+        <v>6.312727290647049E-06</v>
       </c>
       <c r="AP9">
-        <v>2.457054023521964E-05</v>
+        <v>0.0001654661644216822</v>
       </c>
       <c r="AQ9">
-        <v>0.008352815473382949</v>
+        <v>0.8390665972475577</v>
       </c>
       <c r="AR9">
-        <v>15.15721224821225</v>
+        <v>2.956937569388693E-08</v>
       </c>
       <c r="AS9">
-        <v>4.824562745884414E-05</v>
+        <v>0.001097496553197193</v>
       </c>
       <c r="AT9">
-        <v>0.006500859095256458</v>
+        <v>5.565323288906936</v>
       </c>
       <c r="AU9">
-        <v>14.95601317471064</v>
+        <v>6.504292895108833E-07</v>
       </c>
       <c r="AV9">
-        <v>4.697328931724471E-05</v>
+        <v>0.001097496553197193</v>
       </c>
       <c r="AW9">
-        <v>0.006161867136131113</v>
+        <v>5.565323288906936</v>
       </c>
       <c r="AX9">
-        <v>31.24636936303817</v>
+        <v>6.504292895108833E-07</v>
       </c>
       <c r="AY9">
-        <v>2.050304756579966E-05</v>
+        <v>0.001097496553197193</v>
       </c>
       <c r="AZ9">
-        <v>0.0036</v>
+        <v>5.565323288906936</v>
       </c>
       <c r="BA9">
-        <v>0.004189184949369037</v>
+        <v>6.504292895108833E-07</v>
       </c>
       <c r="BB9">
-        <v>0.003124927046240316</v>
+        <v>0.0004976211554923675</v>
       </c>
       <c r="BC9">
+        <v>2.523399820843771</v>
+      </c>
+      <c r="BD9">
+        <v>1.3371847977251E-07</v>
+      </c>
+      <c r="BE9">
+        <v>0.0002</v>
+      </c>
+      <c r="BF9">
+        <v>0.00015</v>
+      </c>
+      <c r="BG9">
+        <v>0.0003</v>
+      </c>
+      <c r="BH9">
+        <v>0.00015</v>
+      </c>
+      <c r="BI9">
+        <v>0.00015</v>
+      </c>
+      <c r="BJ9">
         <v>0.003</v>
       </c>
-      <c r="BD9">
-        <v>0.015</v>
-      </c>
-      <c r="BE9">
-        <v>-0.001186767179059002</v>
-      </c>
-      <c r="BF9">
-        <v>45.04085620917148</v>
-      </c>
-      <c r="BG9">
-        <v>0.00296931720374876</v>
-      </c>
-      <c r="BH9">
-        <v>0.002749317203748759</v>
-      </c>
-      <c r="BI9">
-        <v>0.01154820280315742</v>
-      </c>
-      <c r="BJ9">
-        <v>9.949328606936398</v>
-      </c>
       <c r="BK9">
-        <v>-0.001598874196221019</v>
+        <v>0.003</v>
       </c>
       <c r="BL9">
-        <v>-0.0006036934765248718</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>-2.373534358118004</v>
+        <v>49.86390884576401</v>
       </c>
       <c r="BN9">
-        <v>-0.0005830737025341302</v>
+        <v>0.002454549680234368</v>
       </c>
       <c r="BO9">
-        <v>0.00363611422062824</v>
+        <v>0.004803735018917492</v>
       </c>
       <c r="BP9">
-        <v>21.20940859820542</v>
+        <v>0.009374512467363498</v>
       </c>
       <c r="BQ9">
-        <v>-0.0006667970168794802</v>
+        <v>7.927796594648054</v>
       </c>
       <c r="BR9">
-        <v>0.003411003138270914</v>
+        <v>-0.001446715872715445</v>
       </c>
       <c r="BS9">
-        <v>19.63798002677685</v>
+        <v>0.0005</v>
       </c>
       <c r="BT9">
-        <v>-0.0006616859345221545</v>
+        <v>0</v>
       </c>
       <c r="BU9">
-        <v>-0.0139</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV9">
-        <v>-30</v>
+        <v>0.003107620257828062</v>
       </c>
       <c r="BW9">
-        <v>-0.0011</v>
+        <v>17.53249771595977</v>
       </c>
       <c r="BX9">
-        <v>0.004950980939463901</v>
+        <v>-0.0006530705775936937</v>
       </c>
       <c r="BY9">
-        <v>17.45493728903765</v>
+        <v>0.005637598999602245</v>
       </c>
       <c r="BZ9">
-        <v>-0.0007617959900948646</v>
+        <v>13.34370838588192</v>
       </c>
       <c r="CA9">
-        <v>0.003843845987925679</v>
+        <v>-0.0008338639806847537</v>
       </c>
       <c r="CB9">
-        <v>13.02052935933465</v>
+        <v>-0.00229</v>
       </c>
       <c r="CC9">
-        <v>-0.0007189189416853632</v>
+        <v>-7.5</v>
       </c>
       <c r="CD9">
-        <v>0.003667420814479638</v>
+        <v>-0.0007099999999999997</v>
       </c>
       <c r="CE9">
-        <v>21.42857142857143</v>
+        <v>-0.00229</v>
       </c>
       <c r="CF9">
-        <v>-0.000667420814479638</v>
+        <v>-7.5</v>
       </c>
       <c r="CG9">
-        <v>0.01356843591624039</v>
+        <v>-0.0007099999999999997</v>
       </c>
       <c r="CH9">
-        <v>34.93880473947529</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI9">
-        <v>-0.000990466210029288</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ9">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK9">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CL9">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CM9">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CN9">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CO9">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CP9">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CQ9">
+        <v>0.002916369754714513</v>
+      </c>
+      <c r="CR9">
+        <v>25.3995108232249</v>
+      </c>
+      <c r="CS9">
+        <v>-0.0006304137806242725</v>
       </c>
     </row>
-    <row r="10" spans="1:87">
+    <row r="10" spans="1:97">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3010,25 +3310,25 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.011000403851555</v>
+        <v>1.001973828427756</v>
       </c>
       <c r="E10">
-        <v>1.014258723658682</v>
+        <v>1.002110679932365</v>
       </c>
       <c r="F10">
-        <v>1.010086155712886</v>
+        <v>1.000137345967338</v>
       </c>
       <c r="G10">
-        <v>1.010086155712886</v>
+        <v>1.001051328890416</v>
       </c>
       <c r="H10">
-        <v>1.013105594685987</v>
+        <v>1.011507487315964</v>
       </c>
       <c r="I10">
-        <v>1.006733505945613</v>
+        <v>0.9992787967467386</v>
       </c>
       <c r="J10">
-        <v>0.9999178608882586</v>
+        <v>1.001680443892985</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -3043,226 +3343,256 @@
         <v>1</v>
       </c>
       <c r="O10">
-        <v>1.005798113017461</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.9993527965884792</v>
+        <v>0.9978299647822112</v>
       </c>
       <c r="Q10">
-        <v>1.006733505945598</v>
+        <v>0.9981470089698714</v>
       </c>
       <c r="R10">
-        <v>1.005798113133173</v>
+        <v>0.9992787967467386</v>
       </c>
       <c r="S10">
-        <v>0.998816106033723</v>
+        <v>0.9985430308813367</v>
       </c>
       <c r="T10">
-        <v>0.9988161059171945</v>
+        <v>0.9978299647821629</v>
       </c>
       <c r="U10">
-        <v>0.9993527964720144</v>
+        <v>0.9981470089698714</v>
       </c>
       <c r="V10">
-        <v>0.01443428664747639</v>
+        <v>0.9981470089699197</v>
       </c>
       <c r="W10">
-        <v>21.4095069594639</v>
+        <v>0.9981470089699197</v>
       </c>
       <c r="X10">
-        <v>0.0001925141350638815</v>
+        <v>0.004407255590438433</v>
       </c>
       <c r="Y10">
-        <v>0.004275435949433548</v>
+        <v>15.84687042771853</v>
       </c>
       <c r="Z10">
-        <v>6.341496323972698</v>
+        <v>1.054717869882101E-05</v>
       </c>
       <c r="AA10">
-        <v>1.689012176332282E-05</v>
+        <v>0.0002285449467664847</v>
       </c>
       <c r="AB10">
-        <v>0.0004082751229573777</v>
+        <v>0.671893269361816</v>
       </c>
       <c r="AC10">
-        <v>1.468007207569914</v>
+        <v>3.792100749475677E-08</v>
       </c>
       <c r="AD10">
-        <v>4.525594839101168E-07</v>
+        <v>0.0004123364166771419</v>
       </c>
       <c r="AE10">
-        <v>0.0004082751229573777</v>
+        <v>2.090927261605181</v>
       </c>
       <c r="AF10">
-        <v>1.468007207569914</v>
+        <v>9.181151307979417E-07</v>
       </c>
       <c r="AG10">
-        <v>4.525594839101168E-07</v>
+        <v>0.0004119599440302922</v>
       </c>
       <c r="AH10">
-        <v>0.02340585272266016</v>
+        <v>1.481256469132707</v>
       </c>
       <c r="AI10">
-        <v>16.86660427331438</v>
+        <v>4.607653527428576E-07</v>
       </c>
       <c r="AJ10">
-        <v>5.974129133964196E-05</v>
+        <v>0.008357879322838324</v>
       </c>
       <c r="AK10">
-        <v>0.007481328669067078</v>
+        <v>15.16640122661513</v>
       </c>
       <c r="AL10">
-        <v>13.57579212626359</v>
+        <v>9.660828499000185E-05</v>
       </c>
       <c r="AM10">
-        <v>3.870344768965896E-05</v>
+        <v>0.003025511351547152</v>
       </c>
       <c r="AN10">
-        <v>0.004949123109629993</v>
+        <v>15.342142748937</v>
       </c>
       <c r="AO10">
-        <v>17.79522676635413</v>
+        <v>9.88601645340783E-06</v>
       </c>
       <c r="AP10">
-        <v>6.650072008985292E-05</v>
+        <v>0.0003293609669115135</v>
       </c>
       <c r="AQ10">
-        <v>0.000820031462985108</v>
+        <v>1.670164935160582</v>
       </c>
       <c r="AR10">
-        <v>1.488048068855913</v>
+        <v>1.171569382467938E-07</v>
       </c>
       <c r="AS10">
-        <v>4.65000281597394E-07</v>
+        <v>0.001626495742585563</v>
       </c>
       <c r="AT10">
-        <v>0.004318190390394405</v>
+        <v>8.247838782864038</v>
       </c>
       <c r="AU10">
-        <v>9.934519641684345</v>
+        <v>1.428563736350502E-06</v>
       </c>
       <c r="AV10">
-        <v>2.072588290731245E-05</v>
+        <v>0.001270573845410619</v>
       </c>
       <c r="AW10">
-        <v>0.008285772705278397</v>
+        <v>6.442985348373343</v>
       </c>
       <c r="AX10">
-        <v>42.01653633347669</v>
+        <v>8.717532641864308E-07</v>
       </c>
       <c r="AY10">
-        <v>3.707317583470995E-05</v>
+        <v>0.001270573845410619</v>
       </c>
       <c r="AZ10">
+        <v>6.442985348373343</v>
+      </c>
+      <c r="BA10">
+        <v>8.717532641864308E-07</v>
+      </c>
+      <c r="BB10">
+        <v>0.000825989539764539</v>
+      </c>
+      <c r="BC10">
+        <v>4.188531443359496</v>
+      </c>
+      <c r="BD10">
+        <v>3.684197086922195E-07</v>
+      </c>
+      <c r="BE10">
+        <v>0.0004</v>
+      </c>
+      <c r="BF10">
+        <v>0.00045</v>
+      </c>
+      <c r="BG10">
+        <v>0.0005</v>
+      </c>
+      <c r="BH10">
+        <v>0.00025</v>
+      </c>
+      <c r="BI10">
+        <v>0.00025</v>
+      </c>
+      <c r="BJ10">
         <v>0.006</v>
       </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0.001966639315342874</v>
-      </c>
-      <c r="BC10">
-        <v>0.004341224130182434</v>
-      </c>
-      <c r="BD10">
-        <v>0.03</v>
-      </c>
-      <c r="BE10">
-        <v>-0.006167738176433249</v>
-      </c>
-      <c r="BF10">
-        <v>42.23733885624728</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>-0.0156224966107653</v>
-      </c>
-      <c r="BJ10">
-        <v>-17.50064249110709</v>
-      </c>
       <c r="BK10">
-        <v>-0.00187814588034179</v>
+        <v>0.006</v>
       </c>
       <c r="BL10">
-        <v>-0.00525760341407552</v>
+        <v>-0.0008362160029473827</v>
       </c>
       <c r="BM10">
-        <v>-12.3354763528665</v>
+        <v>49.16706217664119</v>
       </c>
       <c r="BN10">
-        <v>-0.000910134762357729</v>
+        <v>0</v>
       </c>
       <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>-0.004119467483582149</v>
+      </c>
+      <c r="BQ10">
+        <v>-5.343513423206611</v>
+      </c>
+      <c r="BR10">
+        <v>-0.001224045939624462</v>
+      </c>
+      <c r="BS10">
+        <v>-0.0002776808827410659</v>
+      </c>
+      <c r="BT10">
+        <v>-2.090540007368457</v>
+      </c>
+      <c r="BU10">
+        <v>-0.0005585351202063168</v>
+      </c>
+      <c r="BV10">
         <v>0.0005</v>
       </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
         <v>-0.0005</v>
       </c>
-      <c r="BR10">
+      <c r="BY10">
         <v>0.0005</v>
       </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
         <v>-0.0005</v>
       </c>
-      <c r="BU10">
-        <v>-0.02875</v>
-      </c>
-      <c r="BV10">
-        <v>-60</v>
-      </c>
-      <c r="BW10">
-        <v>-0.001250000000000001</v>
-      </c>
-      <c r="BX10">
-        <v>0.0005</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
-      <c r="BZ10">
-        <v>-0.0005</v>
-      </c>
-      <c r="CA10">
-        <v>0.002614665930476208</v>
-      </c>
       <c r="CB10">
-        <v>8.194330480595308</v>
+        <v>-0.005124999999999999</v>
       </c>
       <c r="CC10">
-        <v>-0.0006480266151333344</v>
+        <v>-15</v>
       </c>
       <c r="CD10">
-        <v>0.005019733857769203</v>
+        <v>-0.0008750000000000008</v>
       </c>
       <c r="CE10">
-        <v>31.00874378701738</v>
+        <v>-0.005124999999999999</v>
       </c>
       <c r="CF10">
-        <v>-0.0006785097275867694</v>
+        <v>-15</v>
       </c>
       <c r="CG10">
-        <v>0.009131706088054251</v>
+        <v>-0.0008750000000000008</v>
       </c>
       <c r="CH10">
-        <v>22.75739957574731</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI10">
-        <v>-0.0009390422407852192</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ10">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK10">
+        <v>0.0007688172043010753</v>
+      </c>
+      <c r="CL10">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="CM10">
+        <v>-0.0005188172043010753</v>
+      </c>
+      <c r="CN10">
+        <v>0.0007688172043010753</v>
+      </c>
+      <c r="CO10">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="CP10">
+        <v>-0.0005188172043010753</v>
+      </c>
+      <c r="CQ10">
+        <v>0.003665592020962942</v>
+      </c>
+      <c r="CR10">
+        <v>33.61162073686113</v>
+      </c>
+      <c r="CS10">
+        <v>-0.0006405461546454406</v>
       </c>
     </row>
-    <row r="11" spans="1:87">
+    <row r="11" spans="1:97">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3273,25 +3603,25 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.02789280474362</v>
+        <v>1.007557162252458</v>
       </c>
       <c r="E11">
-        <v>1.028033950728077</v>
+        <v>1.007312015990337</v>
       </c>
       <c r="F11">
-        <v>1.01816213923811</v>
+        <v>1.005730893709485</v>
       </c>
       <c r="G11">
-        <v>1.01932159507558</v>
+        <v>1.006639784057815</v>
       </c>
       <c r="H11">
-        <v>1.033107739334623</v>
+        <v>1.032979294010271</v>
       </c>
       <c r="I11">
-        <v>1.024156718248078</v>
+        <v>1.004560128097364</v>
       </c>
       <c r="J11">
-        <v>1.012571129793561</v>
+        <v>1.006827450446105</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3306,226 +3636,256 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1.019076795458374</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>1.011048998028021</v>
+        <v>1.003118935135946</v>
       </c>
       <c r="Q11">
-        <v>1.02</v>
+        <v>1.003276644350565</v>
       </c>
       <c r="R11">
-        <v>1.019076795458374</v>
+        <v>1.004560128097364</v>
       </c>
       <c r="S11">
-        <v>1.018515245697424</v>
+        <v>1.003535180045786</v>
       </c>
       <c r="T11">
-        <v>1.018515245697424</v>
+        <v>1.003118935136403</v>
       </c>
       <c r="U11">
-        <v>1.011048998028021</v>
+        <v>1.003276644350565</v>
       </c>
       <c r="V11">
-        <v>0.03659981437996012</v>
+        <v>1.003276644350108</v>
       </c>
       <c r="W11">
-        <v>54.28629760652846</v>
+        <v>1.003276644350108</v>
       </c>
       <c r="X11">
-        <v>0.001237740885286318</v>
+        <v>0.01687398211346165</v>
       </c>
       <c r="Y11">
-        <v>0.0001852060730032792</v>
+        <v>60.67263462817819</v>
       </c>
       <c r="Z11">
-        <v>0.2747049996815696</v>
+        <v>0.0001546090808944266</v>
       </c>
       <c r="AA11">
-        <v>3.169439147704444E-08</v>
+        <v>0.0004093995136314697</v>
       </c>
       <c r="AB11">
-        <v>0.004345416181547151</v>
+        <v>1.20358284696638</v>
       </c>
       <c r="AC11">
-        <v>15.62451865348676</v>
+        <v>1.216833802388526E-07</v>
       </c>
       <c r="AD11">
-        <v>5.126637246216301E-05</v>
+        <v>0.0004100431357938156</v>
       </c>
       <c r="AE11">
-        <v>0.003827638835785946</v>
+        <v>2.079298205030196</v>
       </c>
       <c r="AF11">
-        <v>13.76278171985238</v>
+        <v>9.079310153428059E-07</v>
       </c>
       <c r="AG11">
-        <v>3.977697374034361E-05</v>
+        <v>0.0004096729097662143</v>
       </c>
       <c r="AH11">
-        <v>0.05798048756383676</v>
+        <v>1.473033134927806</v>
       </c>
       <c r="AI11">
-        <v>41.78159842757119</v>
+        <v>4.556635894850192E-07</v>
       </c>
       <c r="AJ11">
-        <v>0.000366597413104186</v>
+        <v>0.0222868378082931</v>
       </c>
       <c r="AK11">
-        <v>0.006550635057447947</v>
+        <v>40.44221162052872</v>
       </c>
       <c r="AL11">
-        <v>11.88693396169396</v>
+        <v>0.0006869404419190435</v>
       </c>
       <c r="AM11">
-        <v>2.967283179203077E-05</v>
+        <v>0.003364547037082919</v>
       </c>
       <c r="AN11">
-        <v>0.006842189182095666</v>
+        <v>17.06136746174912</v>
       </c>
       <c r="AO11">
-        <v>24.60199622772981</v>
+        <v>1.222579090592348E-05</v>
       </c>
       <c r="AP11">
-        <v>0.0001271042258617402</v>
+        <v>0.0008191930985565291</v>
       </c>
       <c r="AQ11">
-        <v>0.0008093463632045042</v>
+        <v>4.154067196135725</v>
       </c>
       <c r="AR11">
-        <v>1.468658639533067</v>
+        <v>7.247635193405409E-07</v>
       </c>
       <c r="AS11">
-        <v>4.529612218896967E-07</v>
+        <v>0.001617920002154412</v>
       </c>
       <c r="AT11">
-        <v>0.0008097925875718348</v>
+        <v>8.204351841787034</v>
       </c>
       <c r="AU11">
-        <v>1.863025860281255</v>
+        <v>1.413539172020421E-06</v>
       </c>
       <c r="AV11">
-        <v>7.28881724776061E-07</v>
+        <v>0.001440871613056615</v>
       </c>
       <c r="AW11">
-        <v>0.01004862327396463</v>
+        <v>7.306552645754036</v>
       </c>
       <c r="AX11">
-        <v>50.9558202849312</v>
+        <v>1.121099942868629E-06</v>
       </c>
       <c r="AY11">
-        <v>5.45264080391147E-05</v>
+        <v>0.001440871613056615</v>
       </c>
       <c r="AZ11">
-        <v>0.008399999999999999</v>
+        <v>7.306552645754036</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>1.121099942868629E-06</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>0.001150632842885364</v>
       </c>
       <c r="BC11">
-        <v>0.005458031960085646</v>
+        <v>5.834773456769604</v>
       </c>
       <c r="BD11">
-        <v>0.075</v>
+        <v>7.149362071281725E-07</v>
       </c>
       <c r="BE11">
-        <v>-0.0007858553392400616</v>
+        <v>0.001</v>
       </c>
       <c r="BF11">
-        <v>41.88013188386543</v>
+        <v>0.00045</v>
       </c>
       <c r="BG11">
-        <v>0.004677959247124988</v>
+        <v>0.0007</v>
       </c>
       <c r="BH11">
-        <v>0.004054625913791654</v>
+        <v>0.00035</v>
       </c>
       <c r="BI11">
-        <v>-0.04206886283141607</v>
+        <v>0.00035</v>
       </c>
       <c r="BJ11">
-        <v>-44.3749166331397</v>
+        <v>0.015</v>
       </c>
       <c r="BK11">
-        <v>-0.002306053801723634</v>
+        <v>0.015</v>
       </c>
       <c r="BL11">
-        <v>-0.0002308454654932574</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>-1.571710678480123</v>
+        <v>49.16706217664119</v>
       </c>
       <c r="BN11">
-        <v>-0.0005550098737468043</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.005364225029249145</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>33.41399462232134</v>
+        <v>-0.01849746613333915</v>
       </c>
       <c r="BQ11">
-        <v>-0.0006862657821241572</v>
+        <v>-20.45861604136313</v>
       </c>
       <c r="BR11">
-        <v>0.004730432446485064</v>
+        <v>-0.001961149908023985</v>
       </c>
       <c r="BS11">
-        <v>28.96161366994039</v>
+        <v>0.0005</v>
       </c>
       <c r="BT11">
-        <v>-0.0006758065326934095</v>
+        <v>0</v>
       </c>
       <c r="BU11">
-        <v>-0.072625</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV11">
-        <v>-150</v>
+        <v>0.0005</v>
       </c>
       <c r="BW11">
-        <v>-0.002375000000000002</v>
+        <v>0</v>
       </c>
       <c r="BX11">
+        <v>-0.0005</v>
+      </c>
+      <c r="BY11">
         <v>0.0005</v>
       </c>
-      <c r="BY11">
-        <v>0</v>
-      </c>
       <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
         <v>-0.0005</v>
       </c>
-      <c r="CA11">
-        <v>0.0005</v>
-      </c>
       <c r="CB11">
-        <v>0</v>
+        <v>-0.01395625</v>
       </c>
       <c r="CC11">
-        <v>-0.0005</v>
+        <v>-37.5</v>
       </c>
       <c r="CD11">
-        <v>0.006158964992568171</v>
+        <v>-0.001043750000000001</v>
       </c>
       <c r="CE11">
-        <v>38.98594257204033</v>
+        <v>-0.01395625</v>
       </c>
       <c r="CF11">
-        <v>-0.0007009330324825253</v>
+        <v>-37.5</v>
       </c>
       <c r="CG11">
-        <v>0.008134080959981095</v>
+        <v>-0.001043750000000001</v>
       </c>
       <c r="CH11">
-        <v>20.04075900987209</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI11">
-        <v>-0.0009194077164271421</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ11">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK11">
+        <v>0.0008763440860215054</v>
+      </c>
+      <c r="CL11">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="CM11">
+        <v>-0.0005263440860215054</v>
+      </c>
+      <c r="CN11">
+        <v>0.0008763440860215054</v>
+      </c>
+      <c r="CO11">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="CP11">
+        <v>-0.0005263440860215054</v>
+      </c>
+      <c r="CQ11">
+        <v>0.004097898603413059</v>
+      </c>
+      <c r="CR11">
+        <v>38.23255350055369</v>
+      </c>
+      <c r="CS11">
+        <v>-0.0006569687883632271</v>
       </c>
     </row>
-    <row r="12" spans="1:87">
+    <row r="12" spans="1:97">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3536,25 +3896,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.033884096225984</v>
+        <v>1.011396395375373</v>
       </c>
       <c r="E12">
-        <v>1.033318292402584</v>
+        <v>1.011152180132244</v>
       </c>
       <c r="F12">
-        <v>1.016577720712346</v>
+        <v>1.009577084376428</v>
       </c>
       <c r="G12">
-        <v>1.016577720712346</v>
+        <v>1.010482505840003</v>
       </c>
       <c r="H12">
-        <v>1.041142909276905</v>
+        <v>1.047148196150712</v>
       </c>
       <c r="I12">
-        <v>1.026895144104095</v>
+        <v>1.008252982297043</v>
       </c>
       <c r="J12">
-        <v>1.016440265187649</v>
+        <v>1.010378389210988</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3569,226 +3929,256 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1.014669612845613</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.007283721897655</v>
+        <v>1.006817082992346</v>
       </c>
       <c r="Q12">
-        <v>1.02</v>
+        <v>1.006895653359303</v>
       </c>
       <c r="R12">
-        <v>1.014669612845613</v>
+        <v>1.008252982297043</v>
       </c>
       <c r="S12">
-        <v>1.01252701865483</v>
+        <v>1.007085742853334</v>
       </c>
       <c r="T12">
-        <v>1.01252701865483</v>
+        <v>1.006817082993348</v>
       </c>
       <c r="U12">
-        <v>1.007283721897655</v>
+        <v>1.006895653359303</v>
       </c>
       <c r="V12">
-        <v>0.04446134563027031</v>
+        <v>1.006895653358301</v>
       </c>
       <c r="W12">
-        <v>65.9468328394896</v>
+        <v>1.006895653358301</v>
       </c>
       <c r="X12">
-        <v>0.001826573599855032</v>
+        <v>0.02544639975930523</v>
       </c>
       <c r="Y12">
-        <v>0.0007424249767013539</v>
+        <v>91.4958961564385</v>
       </c>
       <c r="Z12">
-        <v>1.101194197798923</v>
+        <v>0.0003516029585657297</v>
       </c>
       <c r="AA12">
-        <v>5.093040377317226E-07</v>
+        <v>0.0004078446919534653</v>
       </c>
       <c r="AB12">
-        <v>0.00772849546193015</v>
+        <v>1.199011867667606</v>
       </c>
       <c r="AC12">
-        <v>27.78882768953143</v>
+        <v>1.207608745398521E-07</v>
       </c>
       <c r="AD12">
-        <v>0.0001621659783152783</v>
+        <v>0.0004084809924923849</v>
       </c>
       <c r="AE12">
-        <v>0.00772849546193015</v>
+        <v>2.071376692683998</v>
       </c>
       <c r="AF12">
-        <v>27.78882768953143</v>
+        <v>9.010262946288925E-07</v>
       </c>
       <c r="AG12">
-        <v>0.0001621659783152783</v>
+        <v>0.0004081149817445422</v>
       </c>
       <c r="AH12">
-        <v>0.08070465937448967</v>
+        <v>1.467431398657118</v>
       </c>
       <c r="AI12">
-        <v>58.15697333531894</v>
+        <v>4.522045310505858E-07</v>
       </c>
       <c r="AJ12">
-        <v>0.0007102690449802412</v>
+        <v>0.03134255588103872</v>
       </c>
       <c r="AK12">
-        <v>0.01225401896853879</v>
+        <v>56.87492719122071</v>
       </c>
       <c r="AL12">
-        <v>22.23642638720196</v>
+        <v>0.001358598084062794</v>
       </c>
       <c r="AM12">
-        <v>0.0001038363182794249</v>
+        <v>0.003528875752399306</v>
       </c>
       <c r="AN12">
-        <v>0.007789878875112607</v>
+        <v>17.89466613929141</v>
       </c>
       <c r="AO12">
-        <v>28.00953987087709</v>
+        <v>1.344920120194184E-05</v>
       </c>
       <c r="AP12">
-        <v>0.0001647522079934339</v>
+        <v>0.001142839703142231</v>
       </c>
       <c r="AQ12">
-        <v>0.004672994188567002</v>
+        <v>5.795255025499984</v>
       </c>
       <c r="AR12">
-        <v>8.479723391050319</v>
+        <v>1.410569194044628E-06</v>
       </c>
       <c r="AS12">
-        <v>1.510019884563233E-05</v>
+        <v>0.001611977207395517</v>
       </c>
       <c r="AT12">
-        <v>0.00407580223198128</v>
+        <v>8.174216372134278</v>
       </c>
       <c r="AU12">
-        <v>9.376876346005817</v>
+        <v>1.403174079267792E-06</v>
       </c>
       <c r="AV12">
-        <v>1.846442010173957E-05</v>
+        <v>0.001523772109189545</v>
       </c>
       <c r="AW12">
-        <v>0.01427561836065358</v>
+        <v>7.726934887909138</v>
       </c>
       <c r="AX12">
-        <v>72.3905975783214</v>
+        <v>1.253815978001743E-06</v>
       </c>
       <c r="AY12">
-        <v>0.0001100483709726759</v>
+        <v>0.001523772109189545</v>
       </c>
       <c r="AZ12">
-        <v>0.009600000000000001</v>
+        <v>7.726934887909138</v>
       </c>
       <c r="BA12">
-        <v>0.002208200388587065</v>
+        <v>1.253815978001743E-06</v>
       </c>
       <c r="BB12">
-        <v>0.001861651538005739</v>
+        <v>0.001310372791455558</v>
       </c>
       <c r="BC12">
-        <v>0.008</v>
+        <v>6.644802839874889</v>
       </c>
       <c r="BD12">
-        <v>0.105</v>
+        <v>9.272215003969762E-07</v>
       </c>
       <c r="BE12">
-        <v>0.0004000242994496219</v>
+        <v>0.0014</v>
       </c>
       <c r="BF12">
-        <v>42.06196111088799</v>
+        <v>0.00045</v>
       </c>
       <c r="BG12">
-        <v>0.008800000000000001</v>
+        <v>0.0008</v>
       </c>
       <c r="BH12">
-        <v>0.008800000000000001</v>
+        <v>0.0004</v>
       </c>
       <c r="BI12">
-        <v>-0.05154461454044448</v>
+        <v>0.0004</v>
       </c>
       <c r="BJ12">
-        <v>-53.9065166875672</v>
+        <v>0.021</v>
       </c>
       <c r="BK12">
-        <v>-0.002361902147122716</v>
+        <v>0.021</v>
       </c>
       <c r="BL12">
-        <v>0.000930133655322174</v>
+        <v>0</v>
       </c>
       <c r="BM12">
-        <v>0.8000485988992436</v>
+        <v>49.16706217664119</v>
       </c>
       <c r="BN12">
-        <v>-0.0005301093558725521</v>
+        <v>0</v>
       </c>
       <c r="BO12">
-        <v>0.009525641025641027</v>
+        <v>0</v>
       </c>
       <c r="BP12">
-        <v>62.85714285714285</v>
+        <v>-0.02878118011118808</v>
       </c>
       <c r="BQ12">
-        <v>-0.0007256410256410266</v>
+        <v>-30.8521200583499</v>
       </c>
       <c r="BR12">
-        <v>0.009525641025641027</v>
+        <v>-0.002070939947161825</v>
       </c>
       <c r="BS12">
-        <v>62.85714285714285</v>
+        <v>0.0005</v>
       </c>
       <c r="BT12">
-        <v>-0.0007256410256410266</v>
+        <v>0</v>
       </c>
       <c r="BU12">
-        <v>-0.101875</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV12">
-        <v>-210</v>
+        <v>0.0005</v>
       </c>
       <c r="BW12">
-        <v>-0.003125000000000003</v>
+        <v>0</v>
       </c>
       <c r="BX12">
-        <v>0.002874409019986091</v>
+        <v>-0.0005</v>
       </c>
       <c r="BY12">
-        <v>9.200834952446105</v>
+        <v>0.0005</v>
       </c>
       <c r="BZ12">
-        <v>-0.0006662086313990261</v>
+        <v>0</v>
       </c>
       <c r="CA12">
-        <v>0.002501775847317999</v>
+        <v>-0.0005</v>
       </c>
       <c r="CB12">
-        <v>7.756881408357246</v>
+        <v>-0.01989625</v>
       </c>
       <c r="CC12">
-        <v>-0.0006401243093122598</v>
+        <v>-52.49999999999999</v>
       </c>
       <c r="CD12">
-        <v>0.008717168011738812</v>
+        <v>-0.001103750000000001</v>
       </c>
       <c r="CE12">
-        <v>57.14285714285714</v>
+        <v>-0.01989625</v>
       </c>
       <c r="CF12">
-        <v>-0.000717168011738812</v>
+        <v>-52.49999999999999</v>
       </c>
       <c r="CG12">
-        <v>0.01525679517405213</v>
+        <v>-0.001103750000000001</v>
       </c>
       <c r="CH12">
-        <v>39.54712741378597</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI12">
-        <v>-0.001019829305089178</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ12">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK12">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CL12">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CM12">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CN12">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CO12">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CP12">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CQ12">
+        <v>0.004313845136925377</v>
+      </c>
+      <c r="CR12">
+        <v>40.5436005449005</v>
+      </c>
+      <c r="CS12">
+        <v>-0.0006649210878843328</v>
       </c>
     </row>
-    <row r="13" spans="1:87">
+    <row r="13" spans="1:97">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3799,25 +4189,25 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.035002010577182</v>
+        <v>1.013339339178282</v>
       </c>
       <c r="E13">
-        <v>1.032642282199839</v>
+        <v>1.013095592411081</v>
       </c>
       <c r="F13">
-        <v>1.018746739531191</v>
+        <v>1.011523529025376</v>
       </c>
       <c r="G13">
-        <v>1.018746739531191</v>
+        <v>1.012427205068146</v>
       </c>
       <c r="H13">
-        <v>1.043285836221955</v>
+        <v>1.054212856824384</v>
       </c>
       <c r="I13">
-        <v>1.023152084066739</v>
+        <v>1.010202004925278</v>
       </c>
       <c r="J13">
-        <v>1.017577677637045</v>
+        <v>1.012177972070383</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3832,226 +4222,256 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>1.002822920126411</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>1.007283721897655</v>
+        <v>1.008768883847849</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.00884730178516</v>
       </c>
       <c r="R13">
-        <v>1.002822920126411</v>
+        <v>1.010202004925278</v>
       </c>
       <c r="S13">
-        <v>1.000715933827713</v>
+        <v>1.009037022693865</v>
       </c>
       <c r="T13">
-        <v>1.000715933827713</v>
+        <v>1.00876888384907</v>
       </c>
       <c r="U13">
-        <v>1.007283721897655</v>
+        <v>1.00884730178516</v>
       </c>
       <c r="V13">
-        <v>0.04592822779298678</v>
+        <v>1.008847301783939</v>
       </c>
       <c r="W13">
-        <v>68.12257069466669</v>
+        <v>1.008847301783939</v>
       </c>
       <c r="X13">
-        <v>0.001949087547980941</v>
+        <v>0.02978469472803768</v>
       </c>
       <c r="Y13">
-        <v>0.003096340486076037</v>
+        <v>107.0948095473197</v>
       </c>
       <c r="Z13">
-        <v>4.59261512567403</v>
+        <v>0.0004817105257430218</v>
       </c>
       <c r="AA13">
-        <v>8.858687750879293E-06</v>
+        <v>0.0004070623271076649</v>
       </c>
       <c r="AB13">
-        <v>0.00725910450818472</v>
+        <v>1.196711813864116</v>
       </c>
       <c r="AC13">
-        <v>26.10107042850834</v>
+        <v>1.202980098970793E-07</v>
       </c>
       <c r="AD13">
-        <v>0.0001430658342779292</v>
+        <v>0.0004076949646689516</v>
       </c>
       <c r="AE13">
-        <v>0.00725910450818472</v>
+        <v>2.06739080412814</v>
       </c>
       <c r="AF13">
-        <v>26.10107042850834</v>
+        <v>8.975619947686761E-07</v>
       </c>
       <c r="AG13">
-        <v>0.0001430658342779292</v>
+        <v>0.0004073310627809019</v>
       </c>
       <c r="AH13">
-        <v>0.09210091543742871</v>
+        <v>1.46461271433357</v>
       </c>
       <c r="AI13">
-        <v>66.36928431106307</v>
+        <v>4.504689846274298E-07</v>
       </c>
       <c r="AJ13">
-        <v>0.0009250251989921798</v>
+        <v>0.0358326149479237</v>
       </c>
       <c r="AK13">
-        <v>0.02077696651833891</v>
+        <v>65.02269227721536</v>
       </c>
       <c r="AL13">
-        <v>37.70236423826051</v>
+        <v>0.001775739214610522</v>
       </c>
       <c r="AM13">
-        <v>0.0002985083365224378</v>
+        <v>0.003522051507934752</v>
       </c>
       <c r="AN13">
-        <v>0.007781171623653604</v>
+        <v>17.86006090382426</v>
       </c>
       <c r="AO13">
-        <v>27.97823179653901</v>
+        <v>1.339723457050978E-05</v>
       </c>
       <c r="AP13">
-        <v>0.0001643841054367809</v>
+        <v>0.001303780357392645</v>
       </c>
       <c r="AQ13">
-        <v>0.01505864247773465</v>
+        <v>6.611373097691158</v>
       </c>
       <c r="AR13">
-        <v>27.32576110801203</v>
+        <v>1.835830677948897E-06</v>
       </c>
       <c r="AS13">
-        <v>0.0001568064162277508</v>
+        <v>0.001608858298308452</v>
       </c>
       <c r="AT13">
-        <v>0.01051762828198165</v>
+        <v>8.158400616424013</v>
       </c>
       <c r="AU13">
-        <v>24.1970768550893</v>
+        <v>1.397749512979229E-06</v>
       </c>
       <c r="AV13">
-        <v>0.00012295469094953</v>
+        <v>0.00152082432175925</v>
       </c>
       <c r="AW13">
-        <v>0.01427561836065358</v>
+        <v>7.711986877376645</v>
       </c>
       <c r="AX13">
-        <v>72.3905975783214</v>
+        <v>1.248969573533357E-06</v>
       </c>
       <c r="AY13">
-        <v>0.0001100483709726759</v>
+        <v>0.00152082432175925</v>
       </c>
       <c r="AZ13">
-        <v>0.009600000000000001</v>
+        <v>7.711986877376645</v>
       </c>
       <c r="BA13">
-        <v>0.008328755197878962</v>
+        <v>1.248969573533357E-06</v>
       </c>
       <c r="BB13">
-        <v>0.005585996491222858</v>
+        <v>0.001307838787320357</v>
       </c>
       <c r="BC13">
-        <v>0.008</v>
+        <v>6.6319530936167</v>
       </c>
       <c r="BD13">
-        <v>0.12</v>
+        <v>9.236388385544352E-07</v>
       </c>
       <c r="BE13">
-        <v>0.003140290222161362</v>
+        <v>0.0016</v>
       </c>
       <c r="BF13">
-        <v>43.48936575732497</v>
+        <v>0.00045</v>
       </c>
       <c r="BG13">
-        <v>0.00825</v>
+        <v>0.0008</v>
       </c>
       <c r="BH13">
-        <v>0.00825</v>
+        <v>0.0004</v>
       </c>
       <c r="BI13">
-        <v>-0.05332275138519926</v>
+        <v>0.0004</v>
       </c>
       <c r="BJ13">
-        <v>-55.68501676121767</v>
+        <v>0.024</v>
       </c>
       <c r="BK13">
-        <v>-0.00236226537601842</v>
+        <v>0.024</v>
       </c>
       <c r="BL13">
-        <v>0.00387665615286168</v>
+        <v>0</v>
       </c>
       <c r="BM13">
-        <v>6.280580444322724</v>
+        <v>49.16706217664119</v>
       </c>
       <c r="BN13">
-        <v>-0.0007363659307003173</v>
+        <v>0</v>
       </c>
       <c r="BO13">
-        <v>0.00896619021440352</v>
+        <v>0</v>
       </c>
       <c r="BP13">
-        <v>58.92857142857143</v>
+        <v>-0.03392790097068225</v>
       </c>
       <c r="BQ13">
-        <v>-0.0007161902144035195</v>
+        <v>-36.11202313566848</v>
       </c>
       <c r="BR13">
-        <v>0.00896619021440352</v>
+        <v>-0.002184122164986237</v>
       </c>
       <c r="BS13">
-        <v>58.92857142857143</v>
+        <v>0.0005</v>
       </c>
       <c r="BT13">
-        <v>-0.0007161902144035195</v>
+        <v>0</v>
       </c>
       <c r="BU13">
-        <v>-0.1165</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV13">
-        <v>-240</v>
+        <v>0.0005</v>
       </c>
       <c r="BW13">
-        <v>-0.003500000000000003</v>
+        <v>0</v>
       </c>
       <c r="BX13">
-        <v>0.009154586773385305</v>
+        <v>-0.0005</v>
       </c>
       <c r="BY13">
-        <v>34.703146657829</v>
+        <v>0.0005</v>
       </c>
       <c r="BZ13">
-        <v>-0.0008258315755063431</v>
+        <v>0</v>
       </c>
       <c r="CA13">
-        <v>0.006380538070803592</v>
+        <v>-0.0005</v>
       </c>
       <c r="CB13">
-        <v>23.27498538009524</v>
+        <v>-0.0229</v>
       </c>
       <c r="CC13">
-        <v>-0.0007945415795807343</v>
+        <v>-60</v>
       </c>
       <c r="CD13">
-        <v>0.008717168011738812</v>
+        <v>-0.0011</v>
       </c>
       <c r="CE13">
-        <v>57.14285714285714</v>
+        <v>-0.0229</v>
       </c>
       <c r="CF13">
-        <v>-0.000717168011738812</v>
+        <v>-60</v>
       </c>
       <c r="CG13">
-        <v>0.02577395111187452</v>
+        <v>-0.0011</v>
       </c>
       <c r="CH13">
-        <v>68.45028426132684</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI13">
-        <v>-0.001131848777796863</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ13">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK13">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CL13">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CM13">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CN13">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CO13">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CP13">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CQ13">
+        <v>0.004313825729740213</v>
+      </c>
+      <c r="CR13">
+        <v>40.54339276671086</v>
+      </c>
+      <c r="CS13">
+        <v>-0.0006649203807362362</v>
       </c>
     </row>
-    <row r="14" spans="1:87">
+    <row r="14" spans="1:97">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4062,25 +4482,25 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.036179590239605</v>
+        <v>1.012924543994505</v>
       </c>
       <c r="E14">
-        <v>1.032098209885934</v>
+        <v>1.012680697364307</v>
       </c>
       <c r="F14">
-        <v>1.020951594700579</v>
+        <v>1.002933391175253</v>
       </c>
       <c r="G14">
-        <v>1.020951594700579</v>
+        <v>1.004563834709131</v>
       </c>
       <c r="H14">
-        <v>1.045483737066297</v>
+        <v>1.058818313271275</v>
       </c>
       <c r="I14">
-        <v>1.019500888639476</v>
+        <v>1.009785913968375</v>
       </c>
       <c r="J14">
-        <v>1.018775748145919</v>
+        <v>1.011617281847685</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4095,226 +4515,256 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.9907532001746077</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.006778225784956</v>
+        <v>1.008352200679837</v>
       </c>
       <c r="Q14">
-        <v>1.01950088863916</v>
+        <v>1.008430651109083</v>
       </c>
       <c r="R14">
-        <v>0.9907532003375447</v>
+        <v>1.009785913968375</v>
       </c>
       <c r="S14">
-        <v>0.9887880921034198</v>
+        <v>1.008620450585603</v>
       </c>
       <c r="T14">
-        <v>0.9887880919401391</v>
+        <v>1.008352200681013</v>
       </c>
       <c r="U14">
-        <v>1.006778225624723</v>
+        <v>1.008430651109083</v>
       </c>
       <c r="V14">
-        <v>0.04747340037274216</v>
+        <v>1.008430651107907</v>
       </c>
       <c r="W14">
-        <v>70.41443200432342</v>
+        <v>1.008430651107907</v>
       </c>
       <c r="X14">
-        <v>0.002082440738486423</v>
+        <v>0.0288585208180466</v>
       </c>
       <c r="Y14">
-        <v>0.005355422831493647</v>
+        <v>103.764628747957</v>
       </c>
       <c r="Z14">
-        <v>7.943375740136151</v>
+        <v>0.0004522181235264572</v>
       </c>
       <c r="AA14">
-        <v>2.650083162257337E-05</v>
+        <v>0.000407229100454072</v>
       </c>
       <c r="AB14">
-        <v>0.006800354835991853</v>
+        <v>1.197202106432582</v>
       </c>
       <c r="AC14">
-        <v>24.45157530284092</v>
+        <v>1.203966022262585E-07</v>
       </c>
       <c r="AD14">
-        <v>0.000125554702306005</v>
+        <v>0.002243264632664808</v>
       </c>
       <c r="AE14">
-        <v>0.006800354835991853</v>
+        <v>11.37542789267199</v>
       </c>
       <c r="AF14">
-        <v>24.45157530284092</v>
+        <v>2.71740755456904E-05</v>
       </c>
       <c r="AG14">
-        <v>0.000125554702306005</v>
+        <v>0.0037336358337777</v>
       </c>
       <c r="AH14">
-        <v>0.1034450116225345</v>
+        <v>13.42478149225654</v>
       </c>
       <c r="AI14">
-        <v>74.54400810599469</v>
+        <v>3.784719920411472E-05</v>
       </c>
       <c r="AJ14">
-        <v>0.001166929920346393</v>
+        <v>0.04023372241268751</v>
       </c>
       <c r="AK14">
-        <v>0.0292434577049795</v>
+        <v>73.00904372759631</v>
       </c>
       <c r="AL14">
-        <v>53.06585506628857</v>
+        <v>0.002238734595727598</v>
       </c>
       <c r="AM14">
-        <v>0.0005913568445224254</v>
+        <v>0.003523506175919324</v>
       </c>
       <c r="AN14">
-        <v>0.007772021041332941</v>
+        <v>17.86743741684253</v>
       </c>
       <c r="AO14">
-        <v>27.94532966744799</v>
+        <v>1.340830343348094E-05</v>
       </c>
       <c r="AP14">
-        <v>0.0001639977045466944</v>
+        <v>0.001467565851826646</v>
       </c>
       <c r="AQ14">
-        <v>0.0252022557606552</v>
+        <v>7.441917142593418</v>
       </c>
       <c r="AR14">
-        <v>45.73259650177208</v>
+        <v>2.326049491803645E-06</v>
       </c>
       <c r="AS14">
-        <v>0.0004392087803867187</v>
+        <v>0.001609523129664723</v>
       </c>
       <c r="AT14">
-        <v>0.01675091625267637</v>
+        <v>8.161771926720593</v>
       </c>
       <c r="AU14">
-        <v>38.53751027249718</v>
+        <v>1.398904940659845E-06</v>
       </c>
       <c r="AV14">
-        <v>0.0003118793365805943</v>
+        <v>0.001521452676789966</v>
       </c>
       <c r="AW14">
-        <v>0.01428278604605118</v>
+        <v>7.71517321894278</v>
       </c>
       <c r="AX14">
-        <v>72.42694437718346</v>
+        <v>1.250001853764162E-06</v>
       </c>
       <c r="AY14">
-        <v>0.0001101589077081282</v>
+        <v>0.001521452676789966</v>
       </c>
       <c r="AZ14">
-        <v>0.009600000000000001</v>
+        <v>7.71517321894278</v>
       </c>
       <c r="BA14">
-        <v>0.01426680125479377</v>
+        <v>1.250001853764162E-06</v>
       </c>
       <c r="BB14">
-        <v>0.009198948358921405</v>
+        <v>0.001308378940115961</v>
       </c>
       <c r="BC14">
-        <v>0.008</v>
+        <v>6.634692168217146</v>
       </c>
       <c r="BD14">
-        <v>0.135</v>
+        <v>9.24401943507144E-07</v>
       </c>
       <c r="BE14">
-        <v>0.005781963699805898</v>
+        <v>0.0018</v>
       </c>
       <c r="BF14">
-        <v>46.11753107541856</v>
+        <v>0.00045</v>
       </c>
       <c r="BG14">
-        <v>0.007699999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="BH14">
-        <v>0.007699999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="BI14">
-        <v>-0.05519921169661741</v>
+        <v>0.0004</v>
       </c>
       <c r="BJ14">
-        <v>-57.55843889183577</v>
+        <v>0.027</v>
       </c>
       <c r="BK14">
-        <v>-0.002359227195218368</v>
+        <v>0.027</v>
       </c>
       <c r="BL14">
-        <v>0.006701522155031793</v>
+        <v>0</v>
       </c>
       <c r="BM14">
-        <v>11.5639273996118</v>
+        <v>49.16706217664119</v>
       </c>
       <c r="BN14">
-        <v>-0.0009195584552258943</v>
+        <v>0.002088275233782495</v>
       </c>
       <c r="BO14">
-        <v>0.008417737789203085</v>
+        <v>0.003766946183376069</v>
       </c>
       <c r="BP14">
-        <v>54.99999999999999</v>
+        <v>-0.03282681500670066</v>
       </c>
       <c r="BQ14">
-        <v>-0.0007177377892030852</v>
+        <v>-34.98909688496092</v>
       </c>
       <c r="BR14">
-        <v>0.008417737789203085</v>
+        <v>-0.002162281878260258</v>
       </c>
       <c r="BS14">
-        <v>54.99999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="BT14">
-        <v>-0.0007177377892030852</v>
+        <v>0</v>
       </c>
       <c r="BU14">
-        <v>-0.131125</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV14">
-        <v>-270</v>
+        <v>0.002727792100890633</v>
       </c>
       <c r="BW14">
-        <v>-0.003875000000000017</v>
+        <v>14.91625166987497</v>
       </c>
       <c r="BX14">
-        <v>0.01513678248581619</v>
+        <v>-0.0006395168671081376</v>
       </c>
       <c r="BY14">
-        <v>59.44500522830738</v>
+        <v>0.004547452407161669</v>
       </c>
       <c r="BZ14">
-        <v>-0.0008699812310224205</v>
+        <v>10.46373939826686</v>
       </c>
       <c r="CA14">
-        <v>0.01004084971009454</v>
+        <v>-0.0007805062237856001</v>
       </c>
       <c r="CB14">
-        <v>38.32895149550586</v>
+        <v>-0.025825</v>
       </c>
       <c r="CC14">
-        <v>-0.0008419013511731382</v>
+        <v>-67.5</v>
       </c>
       <c r="CD14">
-        <v>0.008717168011738812</v>
+        <v>-0.001175000000000002</v>
       </c>
       <c r="CE14">
-        <v>57.14285714285714</v>
+        <v>-0.025825</v>
       </c>
       <c r="CF14">
-        <v>-0.000717168011738812</v>
+        <v>-67.5</v>
       </c>
       <c r="CG14">
-        <v>0.03614722793058973</v>
+        <v>-0.001175000000000002</v>
       </c>
       <c r="CH14">
-        <v>96.54457564534721</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI14">
-        <v>-0.001391180698264743</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ14">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK14">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CL14">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CM14">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CN14">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CO14">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CP14">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CQ14">
+        <v>0.004313829863455411</v>
+      </c>
+      <c r="CR14">
+        <v>40.5434370233008</v>
+      </c>
+      <c r="CS14">
+        <v>-0.0006649205313583395</v>
       </c>
     </row>
-    <row r="15" spans="1:87">
+    <row r="15" spans="1:97">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4325,25 +4775,25 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.053485952378648</v>
+        <v>1.013178728111689</v>
       </c>
       <c r="E15">
-        <v>1.045868396849916</v>
+        <v>1.012340513145407</v>
       </c>
       <c r="F15">
-        <v>1.046475044182962</v>
+        <v>0.9985653511105368</v>
       </c>
       <c r="G15">
-        <v>1.046475044182962</v>
+        <v>0.9993122516070104</v>
       </c>
       <c r="H15">
-        <v>1.06365119313921</v>
+        <v>1.064020725551765</v>
       </c>
       <c r="I15">
-        <v>1.039943838462408</v>
+        <v>1.010825394857909</v>
       </c>
       <c r="J15">
-        <v>1.047136272991131</v>
+        <v>1.011726371232447</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4358,226 +4808,256 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>0.9837313057858407</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.01468914864736</v>
+        <v>1.009393160119261</v>
       </c>
       <c r="Q15">
-        <v>1.02</v>
+        <v>1.009863193335821</v>
       </c>
       <c r="R15">
-        <v>0.9837313057858407</v>
+        <v>1.010825394857909</v>
       </c>
       <c r="S15">
-        <v>1.004122241831928</v>
+        <v>1.010389111131532</v>
       </c>
       <c r="T15">
-        <v>1.004122241831928</v>
+        <v>1.009393160119652</v>
       </c>
       <c r="U15">
-        <v>1.01468914864736</v>
+        <v>1.009863193335821</v>
       </c>
       <c r="V15">
-        <v>0.07018211137199035</v>
+        <v>1.00986319333543</v>
       </c>
       <c r="W15">
-        <v>104.0968936356268</v>
+        <v>1.00986319333543</v>
       </c>
       <c r="X15">
-        <v>0.004551188571126547</v>
+        <v>0.02942607489504144</v>
       </c>
       <c r="Y15">
-        <v>0.009995449397910066</v>
+        <v>105.8053445027621</v>
       </c>
       <c r="Z15">
-        <v>14.82564734052437</v>
+        <v>0.0004701803788646208</v>
       </c>
       <c r="AA15">
-        <v>9.231592400755183E-05</v>
+        <v>0.001399836964856998</v>
       </c>
       <c r="AB15">
-        <v>0.003130856147878676</v>
+        <v>4.115343822728602</v>
       </c>
       <c r="AC15">
-        <v>11.25740740130838</v>
+        <v>1.422628601458484E-06</v>
       </c>
       <c r="AD15">
-        <v>2.661313649379715E-05</v>
+        <v>0.003281070000983011</v>
       </c>
       <c r="AE15">
-        <v>0.003130856147878676</v>
+        <v>16.63806162835734</v>
       </c>
       <c r="AF15">
-        <v>11.25740740130838</v>
+        <v>5.813326989729389E-05</v>
       </c>
       <c r="AG15">
-        <v>2.661313649379715E-05</v>
+        <v>0.006192342276112235</v>
       </c>
       <c r="AH15">
-        <v>0.113018793470196</v>
+        <v>22.26538572133783</v>
       </c>
       <c r="AI15">
-        <v>81.44301715885494</v>
+        <v>0.0001041069542771908</v>
       </c>
       <c r="AJ15">
-        <v>0.001392922659226858</v>
+        <v>0.04457168901456869</v>
       </c>
       <c r="AK15">
-        <v>0.02374394872215392</v>
+        <v>80.88081830706507</v>
       </c>
       <c r="AL15">
-        <v>43.08631880342452</v>
+        <v>0.002747516843408605</v>
       </c>
       <c r="AM15">
-        <v>0.0003898504822863712</v>
+        <v>0.00264191197581715</v>
       </c>
       <c r="AN15">
-        <v>0.002835571682381633</v>
+        <v>13.39693888188052</v>
       </c>
       <c r="AO15">
-        <v>10.1956730480293</v>
+        <v>7.538074799003439E-06</v>
       </c>
       <c r="AP15">
-        <v>2.182986726948551E-05</v>
+        <v>0.001630452901757816</v>
       </c>
       <c r="AQ15">
-        <v>0.03179570120909066</v>
+        <v>8.267905242330444</v>
       </c>
       <c r="AR15">
-        <v>57.69721518961549</v>
+        <v>2.871046798038745E-06</v>
       </c>
       <c r="AS15">
-        <v>0.0006990834145337264</v>
+        <v>0.001607863272701967</v>
       </c>
       <c r="AT15">
-        <v>0.008659810481409918</v>
+        <v>8.153354915674706</v>
       </c>
       <c r="AU15">
-        <v>19.92294214544187</v>
+        <v>1.396021123999981E-06</v>
       </c>
       <c r="AV15">
-        <v>8.33539609834304E-05</v>
+        <v>0.00108019198737384</v>
       </c>
       <c r="AW15">
-        <v>0.005962097279585912</v>
+        <v>5.477573124315915</v>
       </c>
       <c r="AX15">
-        <v>30.23335129768408</v>
+        <v>6.300799539767608E-07</v>
       </c>
       <c r="AY15">
-        <v>1.919516614447237E-05</v>
+        <v>0.00108019198737384</v>
       </c>
       <c r="AZ15">
-        <v>0.0036</v>
+        <v>5.477573124315915</v>
       </c>
       <c r="BA15">
-        <v>0.018</v>
+        <v>6.300799539767608E-07</v>
       </c>
       <c r="BB15">
-        <v>0.0045</v>
+        <v>0.0004897832466855522</v>
       </c>
       <c r="BC15">
-        <v>0.003</v>
+        <v>2.483654368986246</v>
       </c>
       <c r="BD15">
-        <v>0.15</v>
+        <v>1.295393195162092E-07</v>
       </c>
       <c r="BE15">
-        <v>0.01156215738690192</v>
+        <v>0.002</v>
       </c>
       <c r="BF15">
-        <v>51.37305716037398</v>
+        <v>0.00045</v>
       </c>
       <c r="BG15">
+        <v>0.0003</v>
+      </c>
+      <c r="BH15">
+        <v>0.00015</v>
+      </c>
+      <c r="BI15">
+        <v>0.00015</v>
+      </c>
+      <c r="BJ15">
+        <v>0.03</v>
+      </c>
+      <c r="BK15">
+        <v>0.03</v>
+      </c>
+      <c r="BL15">
+        <v>0.001132885628909418</v>
+      </c>
+      <c r="BM15">
+        <v>50.1111335340657</v>
+      </c>
+      <c r="BN15">
         <v>0.0033</v>
       </c>
-      <c r="BH15">
-        <v>0.0033</v>
-      </c>
-      <c r="BI15">
-        <v>-0.08211400506342814</v>
-      </c>
-      <c r="BJ15">
-        <v>-85.09128724454169</v>
-      </c>
-      <c r="BK15">
-        <v>-0.002977282181113552</v>
-      </c>
-      <c r="BL15">
-        <v>0.01267470999728569</v>
-      </c>
-      <c r="BM15">
-        <v>23.12431477380384</v>
-      </c>
-      <c r="BN15">
-        <v>-0.001112552610383767</v>
-      </c>
       <c r="BO15">
+        <v>0.006599999999999999</v>
+      </c>
+      <c r="BP15">
+        <v>-0.0335014044292223</v>
+      </c>
+      <c r="BQ15">
+        <v>-35.67721950621684</v>
+      </c>
+      <c r="BR15">
+        <v>-0.002175815076994533</v>
+      </c>
+      <c r="BS15">
+        <v>0.001718156590225181</v>
+      </c>
+      <c r="BT15">
+        <v>2.832214072273544</v>
+      </c>
+      <c r="BU15">
+        <v>-0.0005852709613157626</v>
+      </c>
+      <c r="BV15">
         <v>0.003972378804960541</v>
       </c>
-      <c r="BP15">
+      <c r="BW15">
         <v>23.57142857142857</v>
       </c>
-      <c r="BQ15">
+      <c r="BX15">
         <v>-0.0006723788049605418</v>
       </c>
-      <c r="BR15">
-        <v>0.003972378804960541</v>
-      </c>
-      <c r="BS15">
-        <v>23.57142857142857</v>
-      </c>
-      <c r="BT15">
-        <v>-0.0006723788049605418</v>
-      </c>
-      <c r="BU15">
-        <v>-0.14575</v>
-      </c>
-      <c r="BV15">
-        <v>-299.9999999999999</v>
-      </c>
-      <c r="BW15">
-        <v>-0.004250000000000004</v>
-      </c>
-      <c r="BX15">
-        <v>0.01896153846153846</v>
-      </c>
       <c r="BY15">
-        <v>75.00000000000001</v>
+        <v>0.007502652519893899</v>
       </c>
       <c r="BZ15">
-        <v>-0.0009615384615384616</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="CA15">
-        <v>0.005271371769383698</v>
+        <v>-0.0009026525198938999</v>
       </c>
       <c r="CB15">
-        <v>18.75</v>
+        <v>-0.02875</v>
       </c>
       <c r="CC15">
-        <v>-0.0007713717693836981</v>
+        <v>-75</v>
       </c>
       <c r="CD15">
-        <v>0.003667420814479638</v>
+        <v>-0.001250000000000001</v>
       </c>
       <c r="CE15">
-        <v>21.42857142857143</v>
+        <v>-0.02875</v>
       </c>
       <c r="CF15">
-        <v>-0.000667420814479638</v>
+        <v>-75</v>
       </c>
       <c r="CG15">
-        <v>0.02993791137134711</v>
+        <v>-0.001250000000000001</v>
       </c>
       <c r="CH15">
-        <v>79.72767663073176</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI15">
-        <v>-0.001235947784283677</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ15">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK15">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CL15">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CM15">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CN15">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CO15">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CP15">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CQ15">
+        <v>0.003237823382057328</v>
+      </c>
+      <c r="CR15">
+        <v>28.99152592505218</v>
+      </c>
+      <c r="CS15">
+        <v>-0.0006285860488026321</v>
       </c>
     </row>
-    <row r="16" spans="1:87">
+    <row r="16" spans="1:97">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4588,25 +5068,25 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.047444255581494</v>
+        <v>1.012618839304314</v>
       </c>
       <c r="E16">
-        <v>1.04069187619595</v>
+        <v>1.011822885729632</v>
       </c>
       <c r="F16">
-        <v>1.042405263956691</v>
+        <v>1.002194412589023</v>
       </c>
       <c r="G16">
-        <v>1.042405263956691</v>
+        <v>1.003017343845255</v>
       </c>
       <c r="H16">
-        <v>1.056650079155101</v>
+        <v>1.058525312036537</v>
       </c>
       <c r="I16">
-        <v>1.033821950595433</v>
+        <v>1.010264196554673</v>
       </c>
       <c r="J16">
-        <v>1.041057500192474</v>
+        <v>1.011311181479655</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4621,226 +5101,256 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>0.9837313057858407</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>1.01468914864736</v>
+        <v>1.008831163951695</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.009301459512565</v>
       </c>
       <c r="R16">
-        <v>0.9837313057858407</v>
+        <v>1.010264196554673</v>
       </c>
       <c r="S16">
-        <v>1.004122241831928</v>
+        <v>1.009827670264618</v>
       </c>
       <c r="T16">
-        <v>1.004122241831928</v>
+        <v>1.008831163952067</v>
       </c>
       <c r="U16">
-        <v>1.01468914864736</v>
+        <v>1.009301459512565</v>
       </c>
       <c r="V16">
-        <v>0.0622544402988118</v>
+        <v>1.009301459512194</v>
       </c>
       <c r="W16">
-        <v>92.33825719180706</v>
+        <v>1.009301459512194</v>
       </c>
       <c r="X16">
-        <v>0.003581068571312532</v>
+        <v>0.0281759292179256</v>
       </c>
       <c r="Y16">
-        <v>0.008860200127078954</v>
+        <v>101.3102803626186</v>
       </c>
       <c r="Z16">
-        <v>13.14180055556155</v>
+        <v>0.000431078462100401</v>
       </c>
       <c r="AA16">
-        <v>7.253690717370746E-05</v>
+        <v>0.001329259534808172</v>
       </c>
       <c r="AB16">
-        <v>0.002250258806317229</v>
+        <v>3.907855095064398</v>
       </c>
       <c r="AC16">
-        <v>8.091103182194678</v>
+        <v>1.282791841297629E-06</v>
       </c>
       <c r="AD16">
-        <v>1.37478496480335E-05</v>
+        <v>0.002340545499530373</v>
       </c>
       <c r="AE16">
-        <v>0.002250258806317229</v>
+        <v>11.86873192388265</v>
       </c>
       <c r="AF16">
-        <v>8.091103182194678</v>
+        <v>2.958202747100833E-05</v>
       </c>
       <c r="AG16">
-        <v>1.37478496480335E-05</v>
+        <v>0.004287732808328836</v>
       </c>
       <c r="AH16">
-        <v>0.1023518377670956</v>
+        <v>15.41711045524033</v>
       </c>
       <c r="AI16">
-        <v>73.75625082835573</v>
+        <v>4.991433190570677E-05</v>
       </c>
       <c r="AJ16">
-        <v>0.001142396752613628</v>
+        <v>0.04024485915975358</v>
       </c>
       <c r="AK16">
-        <v>0.02388455104329655</v>
+        <v>73.02925272653482</v>
       </c>
       <c r="AL16">
-        <v>43.34145902900968</v>
+        <v>0.00223997413659436</v>
       </c>
       <c r="AM16">
-        <v>0.0003944812348603</v>
+        <v>0.002643382049293493</v>
       </c>
       <c r="AN16">
-        <v>0.002852128685270202</v>
+        <v>13.40439351500029</v>
       </c>
       <c r="AO16">
-        <v>10.2552059419272</v>
+        <v>7.546466151208981E-06</v>
       </c>
       <c r="AP16">
-        <v>2.208554227138082E-05</v>
+        <v>0.001468010049867468</v>
       </c>
       <c r="AQ16">
-        <v>0.03179570120909066</v>
+        <v>7.444169637778271</v>
       </c>
       <c r="AR16">
-        <v>57.69721518961549</v>
+        <v>2.327457787032776E-06</v>
       </c>
       <c r="AS16">
-        <v>0.0006990834145337264</v>
+        <v>0.001608758975584702</v>
       </c>
       <c r="AT16">
-        <v>0.008659810481409918</v>
+        <v>8.157896958288605</v>
       </c>
       <c r="AU16">
-        <v>19.92294214544187</v>
+        <v>1.397576938423238E-06</v>
       </c>
       <c r="AV16">
-        <v>8.33539609834304E-05</v>
+        <v>0.001080793175815683</v>
       </c>
       <c r="AW16">
-        <v>0.005962097279585912</v>
+        <v>5.480621706133019</v>
       </c>
       <c r="AX16">
-        <v>30.23335129768408</v>
+        <v>6.307815000005084E-07</v>
       </c>
       <c r="AY16">
-        <v>1.919516614447237E-05</v>
+        <v>0.001080793175815683</v>
       </c>
       <c r="AZ16">
-        <v>0.0036</v>
+        <v>5.480621706133019</v>
       </c>
       <c r="BA16">
-        <v>0.018</v>
+        <v>6.307815000005084E-07</v>
       </c>
       <c r="BB16">
-        <v>0.0045</v>
+        <v>0.0004900555548610278</v>
       </c>
       <c r="BC16">
-        <v>0.003</v>
+        <v>2.485035223464849</v>
       </c>
       <c r="BD16">
-        <v>0.135</v>
+        <v>1.296834012991179E-07</v>
       </c>
       <c r="BE16">
-        <v>0.01009522665983376</v>
+        <v>0.0018</v>
       </c>
       <c r="BF16">
-        <v>55.96179655120751</v>
+        <v>0.00045</v>
       </c>
       <c r="BG16">
+        <v>0.0003</v>
+      </c>
+      <c r="BH16">
+        <v>0.00015</v>
+      </c>
+      <c r="BI16">
+        <v>0.00015</v>
+      </c>
+      <c r="BJ16">
+        <v>0.027</v>
+      </c>
+      <c r="BK16">
+        <v>0.027</v>
+      </c>
+      <c r="BL16">
+        <v>0.001051547083935776</v>
+      </c>
+      <c r="BM16">
+        <v>50.98742277067885</v>
+      </c>
+      <c r="BN16">
         <v>0.0022</v>
       </c>
-      <c r="BH16">
-        <v>0.0022</v>
-      </c>
-      <c r="BI16">
-        <v>-0.07274250981049429</v>
-      </c>
-      <c r="BJ16">
-        <v>-75.47949724153261</v>
-      </c>
-      <c r="BK16">
-        <v>-0.002736987431038326</v>
-      </c>
-      <c r="BL16">
-        <v>0.01117955103271286</v>
-      </c>
-      <c r="BM16">
-        <v>20.19045331966753</v>
-      </c>
-      <c r="BN16">
-        <v>-0.001084324372879098</v>
-      </c>
       <c r="BO16">
+        <v>0.0044</v>
+      </c>
+      <c r="BP16">
+        <v>-0.03201612012566863</v>
+      </c>
+      <c r="BQ16">
+        <v>-34.1614985544199</v>
+      </c>
+      <c r="BR16">
+        <v>-0.002145378428751274</v>
+      </c>
+      <c r="BS16">
+        <v>0.001630695789178253</v>
+      </c>
+      <c r="BT16">
+        <v>2.628867709839439</v>
+      </c>
+      <c r="BU16">
+        <v>-0.0005791487052424777</v>
+      </c>
+      <c r="BV16">
         <v>0.002843987823439878</v>
       </c>
-      <c r="BP16">
+      <c r="BW16">
         <v>15.71428571428571</v>
       </c>
-      <c r="BQ16">
+      <c r="BX16">
         <v>-0.0006439878234398783</v>
       </c>
-      <c r="BR16">
-        <v>0.002843987823439878</v>
-      </c>
-      <c r="BS16">
-        <v>15.71428571428571</v>
-      </c>
-      <c r="BT16">
-        <v>-0.0006439878234398783</v>
-      </c>
-      <c r="BU16">
-        <v>-0.131125</v>
-      </c>
-      <c r="BV16">
-        <v>-270</v>
-      </c>
-      <c r="BW16">
-        <v>-0.003875000000000017</v>
-      </c>
-      <c r="BX16">
-        <v>0.01896153846153846</v>
-      </c>
       <c r="BY16">
-        <v>75.00000000000001</v>
+        <v>0.005214285714285715</v>
       </c>
       <c r="BZ16">
-        <v>-0.0009615384615384616</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="CA16">
-        <v>0.005271371769383698</v>
+        <v>-0.0008142857142857144</v>
       </c>
       <c r="CB16">
-        <v>18.75</v>
+        <v>-0.025825</v>
       </c>
       <c r="CC16">
-        <v>-0.0007713717693836981</v>
+        <v>-67.5</v>
       </c>
       <c r="CD16">
-        <v>0.003667420814479638</v>
+        <v>-0.001175000000000002</v>
       </c>
       <c r="CE16">
-        <v>21.42857142857143</v>
+        <v>-0.025825</v>
       </c>
       <c r="CF16">
-        <v>-0.000667420814479638</v>
+        <v>-67.5</v>
       </c>
       <c r="CG16">
-        <v>0.02993791137134711</v>
+        <v>-0.001175000000000002</v>
       </c>
       <c r="CH16">
-        <v>79.72767663073176</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI16">
-        <v>-0.001235947784283677</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ16">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK16">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CL16">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CM16">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CN16">
+        <v>0.0006612903225806452</v>
+      </c>
+      <c r="CO16">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CP16">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CQ16">
+        <v>0.003237826444825205</v>
+      </c>
+      <c r="CR16">
+        <v>28.99156040269944</v>
+      </c>
+      <c r="CS16">
+        <v>-0.000628586008582256</v>
       </c>
     </row>
-    <row r="17" spans="1:87">
+    <row r="17" spans="1:97">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4851,25 +5361,25 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1.035414564002252</v>
+        <v>1.013339339178282</v>
       </c>
       <c r="E17">
-        <v>1.033205359981669</v>
+        <v>1.013095592411081</v>
       </c>
       <c r="F17">
-        <v>1.019165979660826</v>
+        <v>1.011523529025376</v>
       </c>
       <c r="G17">
-        <v>1.019165979660826</v>
+        <v>1.012427205068146</v>
       </c>
       <c r="H17">
-        <v>1.043695140988502</v>
+        <v>1.054212856824384</v>
       </c>
       <c r="I17">
-        <v>1.023776098098472</v>
+        <v>1.010202004925278</v>
       </c>
       <c r="J17">
-        <v>1.017997415412988</v>
+        <v>1.012177972070383</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4884,226 +5394,256 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>1.00332023923696</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>1.007283721897655</v>
+        <v>1.008768883847849</v>
       </c>
       <c r="Q17">
-        <v>1.02</v>
+        <v>1.00884730178516</v>
       </c>
       <c r="R17">
-        <v>1.00332023923696</v>
+        <v>1.010202004925278</v>
       </c>
       <c r="S17">
-        <v>1.001201613778601</v>
+        <v>1.009037022693865</v>
       </c>
       <c r="T17">
-        <v>1.001201613778601</v>
+        <v>1.00876888384907</v>
       </c>
       <c r="U17">
-        <v>1.007283721897655</v>
+        <v>1.00884730178516</v>
       </c>
       <c r="V17">
-        <v>0.04646956377257545</v>
+        <v>1.008847301783939</v>
       </c>
       <c r="W17">
-        <v>68.9255017092339</v>
+        <v>1.008847301783939</v>
       </c>
       <c r="X17">
-        <v>0.001995304410065235</v>
+        <v>0.02978469472803768</v>
       </c>
       <c r="Y17">
-        <v>0.002898828490859939</v>
+        <v>107.0948095473197</v>
       </c>
       <c r="Z17">
-        <v>4.299657493653056</v>
+        <v>0.0004817105257430218</v>
       </c>
       <c r="AA17">
-        <v>7.764562916345429E-06</v>
+        <v>0.0004070623271076649</v>
       </c>
       <c r="AB17">
-        <v>0.007256118431414963</v>
+        <v>1.196711813864116</v>
       </c>
       <c r="AC17">
-        <v>26.09033359451119</v>
+        <v>1.202980098970793E-07</v>
       </c>
       <c r="AD17">
-        <v>0.000142948156485306</v>
+        <v>0.0004076949646689516</v>
       </c>
       <c r="AE17">
-        <v>0.007256118431414963</v>
+        <v>2.06739080412814</v>
       </c>
       <c r="AF17">
-        <v>26.09033359451119</v>
+        <v>8.975619947686761E-07</v>
       </c>
       <c r="AG17">
-        <v>0.000142948156485306</v>
+        <v>0.0004073310627809019</v>
       </c>
       <c r="AH17">
-        <v>0.09206479632572583</v>
+        <v>1.46461271433357</v>
       </c>
       <c r="AI17">
-        <v>66.34325634399796</v>
+        <v>4.504689846274298E-07</v>
       </c>
       <c r="AJ17">
-        <v>0.0009242998090883414</v>
+        <v>0.0358326149479237</v>
       </c>
       <c r="AK17">
-        <v>0.02040620388612095</v>
+        <v>65.02269227721536</v>
       </c>
       <c r="AL17">
-        <v>37.02956978612144</v>
+        <v>0.001775739214610522</v>
       </c>
       <c r="AM17">
-        <v>0.000287949698094498</v>
+        <v>0.003522051507934752</v>
       </c>
       <c r="AN17">
-        <v>0.007777963313335804</v>
+        <v>17.86006090382426</v>
       </c>
       <c r="AO17">
-        <v>27.9666958924248</v>
+        <v>1.339723457050978E-05</v>
       </c>
       <c r="AP17">
-        <v>0.0001642485766192685</v>
+        <v>0.001303780357392645</v>
       </c>
       <c r="AQ17">
-        <v>0.01462265738957045</v>
+        <v>6.611373097691158</v>
       </c>
       <c r="AR17">
-        <v>26.53461247801794</v>
+        <v>1.835830677948897E-06</v>
       </c>
       <c r="AS17">
-        <v>0.0001478579884653022</v>
+        <v>0.001608858298308452</v>
       </c>
       <c r="AT17">
-        <v>0.01025273595368235</v>
+        <v>8.158400616424013</v>
       </c>
       <c r="AU17">
-        <v>23.58765999281415</v>
+        <v>1.397749512979229E-06</v>
       </c>
       <c r="AV17">
-        <v>0.0001168393178266865</v>
+        <v>0.00152082432175925</v>
       </c>
       <c r="AW17">
-        <v>0.01427561836065358</v>
+        <v>7.711986877376645</v>
       </c>
       <c r="AX17">
-        <v>72.3905975783214</v>
+        <v>1.248969573533357E-06</v>
       </c>
       <c r="AY17">
-        <v>0.0001100483709726759</v>
+        <v>0.00152082432175925</v>
       </c>
       <c r="AZ17">
-        <v>0.009600000000000001</v>
+        <v>7.711986877376645</v>
       </c>
       <c r="BA17">
-        <v>0.008073463964574618</v>
+        <v>1.248969573533357E-06</v>
       </c>
       <c r="BB17">
-        <v>0.005430659436021223</v>
+        <v>0.001307838787320357</v>
       </c>
       <c r="BC17">
-        <v>0.008</v>
+        <v>6.6319530936167</v>
       </c>
       <c r="BD17">
-        <v>0.12</v>
+        <v>9.236388385544352E-07</v>
       </c>
       <c r="BE17">
-        <v>0.00291215339514748</v>
+        <v>0.0016</v>
       </c>
       <c r="BF17">
-        <v>57.28550263991092</v>
+        <v>0.00045</v>
       </c>
       <c r="BG17">
-        <v>0.00825</v>
+        <v>0.0008</v>
       </c>
       <c r="BH17">
-        <v>0.00825</v>
+        <v>0.0004</v>
       </c>
       <c r="BI17">
-        <v>-0.05397975136550488</v>
+        <v>0.0004</v>
       </c>
       <c r="BJ17">
-        <v>-56.34135175324191</v>
+        <v>0.024</v>
       </c>
       <c r="BK17">
-        <v>-0.002361600387737035</v>
+        <v>0.024</v>
       </c>
       <c r="BL17">
-        <v>0.003631347736717721</v>
+        <v>0</v>
       </c>
       <c r="BM17">
-        <v>5.824306790294961</v>
+        <v>50.98742277067885</v>
       </c>
       <c r="BN17">
-        <v>-0.0007191943415702402</v>
+        <v>0</v>
       </c>
       <c r="BO17">
-        <v>0.00896619021440352</v>
+        <v>0</v>
       </c>
       <c r="BP17">
-        <v>58.92857142857143</v>
+        <v>-0.03392790097068225</v>
       </c>
       <c r="BQ17">
-        <v>-0.0007161902144035195</v>
+        <v>-36.11202313566848</v>
       </c>
       <c r="BR17">
-        <v>0.00896619021440352</v>
+        <v>-0.002184122164986237</v>
       </c>
       <c r="BS17">
-        <v>58.92857142857143</v>
+        <v>0.0005</v>
       </c>
       <c r="BT17">
-        <v>-0.0007161902144035195</v>
+        <v>0</v>
       </c>
       <c r="BU17">
-        <v>-0.1165</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV17">
-        <v>-240</v>
+        <v>0.0005</v>
       </c>
       <c r="BW17">
-        <v>-0.003500000000000003</v>
+        <v>0</v>
       </c>
       <c r="BX17">
-        <v>0.008893947249463694</v>
+        <v>-0.0005</v>
       </c>
       <c r="BY17">
-        <v>33.63943318572758</v>
+        <v>0.0005</v>
       </c>
       <c r="BZ17">
-        <v>-0.0008204832848890762</v>
+        <v>0</v>
       </c>
       <c r="CA17">
-        <v>0.006222859355224873</v>
+        <v>-0.0005</v>
       </c>
       <c r="CB17">
-        <v>22.62774765008843</v>
+        <v>-0.0229</v>
       </c>
       <c r="CC17">
-        <v>-0.0007921999192036493</v>
+        <v>-60</v>
       </c>
       <c r="CD17">
-        <v>0.008717168011738812</v>
+        <v>-0.0011</v>
       </c>
       <c r="CE17">
-        <v>57.14285714285714</v>
+        <v>-0.0229</v>
       </c>
       <c r="CF17">
-        <v>-0.000717168011738812</v>
+        <v>-60</v>
       </c>
       <c r="CG17">
-        <v>0.02532945671147902</v>
+        <v>-0.0011</v>
       </c>
       <c r="CH17">
-        <v>67.24644526025568</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI17">
-        <v>-0.001120736417786976</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ17">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK17">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CL17">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CM17">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CN17">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CO17">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CP17">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CQ17">
+        <v>0.004313825729740213</v>
+      </c>
+      <c r="CR17">
+        <v>40.54339276671086</v>
+      </c>
+      <c r="CS17">
+        <v>-0.0006649203807362362</v>
       </c>
     </row>
-    <row r="18" spans="1:87">
+    <row r="18" spans="1:97">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5114,25 +5654,25 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.034166935649412</v>
+        <v>1.011364928281792</v>
       </c>
       <c r="E18">
-        <v>1.033388650096084</v>
+        <v>1.011120705436602</v>
       </c>
       <c r="F18">
-        <v>1.018908403804436</v>
+        <v>1.009229393487561</v>
       </c>
       <c r="G18">
-        <v>1.018908403804436</v>
+        <v>1.010451010260646</v>
       </c>
       <c r="H18">
-        <v>1.041423790931125</v>
+        <v>1.047117767968231</v>
       </c>
       <c r="I18">
-        <v>1.02651667151892</v>
+        <v>1.0082214165587</v>
       </c>
       <c r="J18">
-        <v>1.016728041948283</v>
+        <v>1.010346890379788</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -5147,226 +5687,256 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>1.01305477332447</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>1.007283721897655</v>
+        <v>1.006785472169965</v>
       </c>
       <c r="Q18">
-        <v>1.02</v>
+        <v>1.006864045010514</v>
       </c>
       <c r="R18">
-        <v>1.01305477332447</v>
+        <v>1.0082214165587</v>
       </c>
       <c r="S18">
-        <v>1.010915801851919</v>
+        <v>1.007054140485848</v>
       </c>
       <c r="T18">
-        <v>1.010915801851919</v>
+        <v>1.006785472170964</v>
       </c>
       <c r="U18">
-        <v>1.007283721897655</v>
+        <v>1.006864045010514</v>
       </c>
       <c r="V18">
-        <v>0.04483247612402863</v>
+        <v>1.006864045009515</v>
       </c>
       <c r="W18">
-        <v>66.49730832075471</v>
+        <v>1.006864045009515</v>
       </c>
       <c r="X18">
-        <v>0.001857194645840311</v>
+        <v>0.0253761385744155</v>
       </c>
       <c r="Y18">
-        <v>0.001021234940272919</v>
+        <v>91.24326277264721</v>
       </c>
       <c r="Z18">
-        <v>1.51473620380425</v>
+        <v>0.0003496639860587313</v>
       </c>
       <c r="AA18">
-        <v>9.636588221883027E-07</v>
+        <v>0.0004078573875571379</v>
       </c>
       <c r="AB18">
-        <v>0.00681399141181714</v>
+        <v>1.199049191138454</v>
       </c>
       <c r="AC18">
-        <v>24.50060741494486</v>
+        <v>1.207683928727051E-07</v>
       </c>
       <c r="AD18">
-        <v>0.0001260587503772639</v>
+        <v>0.0004794811732327957</v>
       </c>
       <c r="AE18">
-        <v>0.00681399141181714</v>
+        <v>2.431413321719509</v>
       </c>
       <c r="AF18">
-        <v>24.50060741494486</v>
+        <v>1.24147185561732E-06</v>
       </c>
       <c r="AG18">
-        <v>0.0001260587503772639</v>
+        <v>0.0004081277026164024</v>
       </c>
       <c r="AH18">
-        <v>0.08068289257928228</v>
+        <v>1.467477138234494</v>
       </c>
       <c r="AI18">
-        <v>58.14128786017682</v>
+        <v>4.522327217605518E-07</v>
       </c>
       <c r="AJ18">
-        <v>0.0007098859643483862</v>
+        <v>0.03134346666395105</v>
       </c>
       <c r="AK18">
-        <v>0.01341352467929701</v>
+        <v>56.87657991896962</v>
       </c>
       <c r="AL18">
-        <v>24.34049228174741</v>
+        <v>0.001358677044177151</v>
       </c>
       <c r="AM18">
-        <v>0.00012441650854874</v>
+        <v>0.003528986493525863</v>
       </c>
       <c r="AN18">
-        <v>0.007787674012045587</v>
+        <v>17.89522769929711</v>
       </c>
       <c r="AO18">
-        <v>28.00161199408008</v>
+        <v>1.345004532520792E-05</v>
       </c>
       <c r="AP18">
-        <v>0.0001646589575960717</v>
+        <v>0.001142875332602528</v>
       </c>
       <c r="AQ18">
-        <v>0.00608867666700657</v>
+        <v>5.79543569983977</v>
       </c>
       <c r="AR18">
-        <v>11.04865357634665</v>
+        <v>1.410657147941398E-06</v>
       </c>
       <c r="AS18">
-        <v>2.563527662852476E-05</v>
+        <v>0.001612027819889899</v>
       </c>
       <c r="AT18">
-        <v>0.004954568113787681</v>
+        <v>8.174473024324097</v>
       </c>
       <c r="AU18">
-        <v>11.39858361779899</v>
+        <v>1.403262193733386E-06</v>
       </c>
       <c r="AV18">
-        <v>2.728481878331093E-05</v>
+        <v>0.001523819944763364</v>
       </c>
       <c r="AW18">
-        <v>0.01427561836065358</v>
+        <v>7.72717745854158</v>
       </c>
       <c r="AX18">
-        <v>72.3905975783214</v>
+        <v>1.253894700991675E-06</v>
       </c>
       <c r="AY18">
-        <v>0.0001100483709726759</v>
+        <v>0.001523819944763364</v>
       </c>
       <c r="AZ18">
-        <v>0.009600000000000001</v>
+        <v>7.72717745854158</v>
       </c>
       <c r="BA18">
-        <v>0.003025159109788375</v>
+        <v>1.253894700991675E-06</v>
       </c>
       <c r="BB18">
-        <v>0.002358790083445415</v>
+        <v>0.001310413912265824</v>
       </c>
       <c r="BC18">
-        <v>0.008</v>
+        <v>6.645011360441412</v>
       </c>
       <c r="BD18">
-        <v>0.105</v>
+        <v>9.272796955881553E-07</v>
       </c>
       <c r="BE18">
-        <v>0.0007249561786471469</v>
+        <v>0.0014</v>
       </c>
       <c r="BF18">
-        <v>57.61502817565962</v>
+        <v>0.00045</v>
       </c>
       <c r="BG18">
-        <v>0.007699999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="BH18">
-        <v>0.007699999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="BI18">
-        <v>-0.05199419555148429</v>
+        <v>0.0004</v>
       </c>
       <c r="BJ18">
-        <v>-54.35648849795766</v>
+        <v>0.021</v>
       </c>
       <c r="BK18">
-        <v>-0.002362292946473367</v>
+        <v>0.021</v>
       </c>
       <c r="BL18">
-        <v>0.001279522772738868</v>
+        <v>0</v>
       </c>
       <c r="BM18">
-        <v>1.449912357294294</v>
+        <v>50.98742277067885</v>
       </c>
       <c r="BN18">
-        <v>-0.0005545665940917207</v>
+        <v>8.063606215475964E-05</v>
       </c>
       <c r="BO18">
-        <v>0.008417737789203085</v>
+        <v>0</v>
       </c>
       <c r="BP18">
-        <v>54.99999999999999</v>
+        <v>-0.02869805366953729</v>
       </c>
       <c r="BQ18">
-        <v>-0.0007177377892030852</v>
+        <v>-30.76693289897593</v>
       </c>
       <c r="BR18">
-        <v>0.008417737789203085</v>
+        <v>-0.002068879229438634</v>
       </c>
       <c r="BS18">
-        <v>54.99999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="BT18">
-        <v>-0.0007177377892030852</v>
+        <v>0</v>
       </c>
       <c r="BU18">
-        <v>-0.101875</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV18">
-        <v>-210</v>
+        <v>0.000586705443177161</v>
       </c>
       <c r="BW18">
-        <v>-0.003125000000000003</v>
+        <v>0.5759718725339974</v>
       </c>
       <c r="BX18">
-        <v>0.003739250073078443</v>
+        <v>-0.0005060693810224013</v>
       </c>
       <c r="BY18">
-        <v>12.60482962411823</v>
+        <v>0.0005</v>
       </c>
       <c r="BZ18">
-        <v>-0.0007140909632900681</v>
+        <v>0</v>
       </c>
       <c r="CA18">
-        <v>0.003036333423059586</v>
+        <v>-0.0005</v>
       </c>
       <c r="CB18">
-        <v>9.828292014355894</v>
+        <v>-0.01989625</v>
       </c>
       <c r="CC18">
-        <v>-0.0006775433396141711</v>
+        <v>-52.49999999999999</v>
       </c>
       <c r="CD18">
-        <v>0.008717168011738812</v>
+        <v>-0.001103750000000001</v>
       </c>
       <c r="CE18">
-        <v>57.14285714285714</v>
+        <v>-0.01989625</v>
       </c>
       <c r="CF18">
-        <v>-0.000717168011738812</v>
+        <v>-52.49999999999999</v>
       </c>
       <c r="CG18">
-        <v>0.01669427591498708</v>
+        <v>-0.001103750000000001</v>
       </c>
       <c r="CH18">
-        <v>43.48811103961487</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI18">
-        <v>-0.001038555940725733</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ18">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK18">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CL18">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CM18">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CN18">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CO18">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CP18">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CQ18">
+        <v>0.004313845452167623</v>
+      </c>
+      <c r="CR18">
+        <v>40.54360391996313</v>
+      </c>
+      <c r="CS18">
+        <v>-0.0006649210993709418</v>
       </c>
     </row>
-    <row r="19" spans="1:87">
+    <row r="19" spans="1:97">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5377,25 +5947,25 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.02515029703548</v>
+        <v>1.007478040238878</v>
       </c>
       <c r="E19">
-        <v>1.02515570740352</v>
+        <v>1.007232874714887</v>
       </c>
       <c r="F19">
-        <v>1.013119966334827</v>
+        <v>1.00565162774851</v>
       </c>
       <c r="G19">
-        <v>1.014011243580922</v>
+        <v>1.006560589866737</v>
       </c>
       <c r="H19">
-        <v>1.030379042056572</v>
+        <v>1.032902072595993</v>
       </c>
       <c r="I19">
-        <v>1.021195221036582</v>
+        <v>1.004322295679841</v>
       </c>
       <c r="J19">
-        <v>1.00755259308765</v>
+        <v>1.006748271041667</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5410,226 +5980,256 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>1.019076795458374</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>1.010412350191248</v>
+        <v>1.002880760448661</v>
       </c>
       <c r="Q19">
-        <v>1.02</v>
+        <v>1.00295964004252</v>
       </c>
       <c r="R19">
-        <v>1.019076795458374</v>
+        <v>1.004322295679841</v>
       </c>
       <c r="S19">
-        <v>1.018515245697424</v>
+        <v>1.003150477264904</v>
       </c>
       <c r="T19">
-        <v>1.018515245697424</v>
+        <v>1.002880760449201</v>
       </c>
       <c r="U19">
-        <v>1.010412350191248</v>
+        <v>1.00295964004252</v>
       </c>
       <c r="V19">
-        <v>0.03300120628098537</v>
+        <v>1.00295964004198</v>
       </c>
       <c r="W19">
-        <v>48.94869921867511</v>
+        <v>1.00295964004198</v>
       </c>
       <c r="X19">
-        <v>0.001006309565184133</v>
+        <v>0.01669731481463464</v>
       </c>
       <c r="Y19">
-        <v>7.099266918893602E-06</v>
+        <v>60.03740398727767</v>
       </c>
       <c r="Z19">
-        <v>0.0105299145166774</v>
+        <v>0.000151388574856328</v>
       </c>
       <c r="AA19">
-        <v>4.656922188604957E-11</v>
+        <v>0.0004094316813659149</v>
       </c>
       <c r="AB19">
-        <v>0.00537237598665603</v>
+        <v>1.203677416041611</v>
       </c>
       <c r="AC19">
-        <v>19.31708846980107</v>
+        <v>1.217025030386589E-07</v>
       </c>
       <c r="AD19">
-        <v>7.836148045952535E-05</v>
+        <v>0.0004100754555974779</v>
       </c>
       <c r="AE19">
-        <v>0.004974358958403047</v>
+        <v>2.07946209634766</v>
       </c>
       <c r="AF19">
-        <v>17.88596559858971</v>
+        <v>9.080741481307629E-07</v>
       </c>
       <c r="AG19">
-        <v>6.718063073272561E-05</v>
+        <v>0.0004097051420183469</v>
       </c>
       <c r="AH19">
-        <v>0.05813403416274733</v>
+        <v>1.473149030253742</v>
       </c>
       <c r="AI19">
-        <v>41.89224638182541</v>
+        <v>4.557352937208841E-07</v>
       </c>
       <c r="AJ19">
-        <v>0.0003685416644522571</v>
+        <v>0.02228850400799609</v>
       </c>
       <c r="AK19">
-        <v>0.006934598415794723</v>
+        <v>40.44523514506684</v>
       </c>
       <c r="AL19">
-        <v>12.58368275694077</v>
+        <v>0.0006870431592946973</v>
       </c>
       <c r="AM19">
-        <v>3.325330506273941E-05</v>
+        <v>0.003542719387381603</v>
       </c>
       <c r="AN19">
-        <v>0.007858593787822383</v>
+        <v>17.96486618132859</v>
       </c>
       <c r="AO19">
-        <v>28.25661342851831</v>
+        <v>1.355492951034785E-05</v>
       </c>
       <c r="AP19">
-        <v>0.0001676716025142307</v>
+        <v>0.0008192575269979184</v>
       </c>
       <c r="AQ19">
-        <v>0.0008093463632045042</v>
+        <v>4.154393907963919</v>
       </c>
       <c r="AR19">
-        <v>1.468658639533067</v>
+        <v>7.248775271862396E-07</v>
       </c>
       <c r="AS19">
-        <v>4.529612218896967E-07</v>
+        <v>0.001618304242832555</v>
       </c>
       <c r="AT19">
-        <v>0.0008097925875718348</v>
+        <v>8.206300297650866</v>
       </c>
       <c r="AU19">
-        <v>1.863025860281255</v>
+        <v>1.414210656079749E-06</v>
       </c>
       <c r="AV19">
-        <v>7.28881724776061E-07</v>
+        <v>0.00152975199809517</v>
       </c>
       <c r="AW19">
-        <v>0.01076334038495861</v>
+        <v>7.757258459217494</v>
       </c>
       <c r="AX19">
-        <v>54.58009752863422</v>
+        <v>1.263676234865133E-06</v>
       </c>
       <c r="AY19">
-        <v>6.255872797093862E-05</v>
+        <v>0.00152975199809517</v>
       </c>
       <c r="AZ19">
-        <v>0.009600000000000001</v>
+        <v>7.757258459217494</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>1.263676234865133E-06</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>0.0013155132614273</v>
       </c>
       <c r="BC19">
-        <v>0.005885843149675217</v>
+        <v>6.670869780282418</v>
       </c>
       <c r="BD19">
-        <v>0.075</v>
+        <v>9.345105761352597E-07</v>
       </c>
       <c r="BE19">
-        <v>-0.0005471225043321704</v>
+        <v>0.001</v>
       </c>
       <c r="BF19">
-        <v>57.3663361282359</v>
+        <v>0.00045</v>
       </c>
       <c r="BG19">
-        <v>0.00589201029123414</v>
+        <v>0.0008</v>
       </c>
       <c r="BH19">
-        <v>0.005415343624567473</v>
+        <v>0.0004</v>
       </c>
       <c r="BI19">
-        <v>-0.03776165871673643</v>
+        <v>0.0004</v>
       </c>
       <c r="BJ19">
-        <v>-40.01183618953171</v>
+        <v>0.015</v>
       </c>
       <c r="BK19">
-        <v>-0.002250177472795281</v>
+        <v>0.015</v>
       </c>
       <c r="BL19">
-        <v>-8.823929028918499E-06</v>
+        <v>0</v>
       </c>
       <c r="BM19">
-        <v>-1.094245008664341</v>
+        <v>50.98742277067885</v>
       </c>
       <c r="BN19">
-        <v>-0.0005382985753032519</v>
+        <v>0</v>
       </c>
       <c r="BO19">
-        <v>0.006599118712487247</v>
+        <v>0</v>
       </c>
       <c r="BP19">
-        <v>42.08578779452957</v>
+        <v>-0.01828839747740101</v>
       </c>
       <c r="BQ19">
-        <v>-0.0007071084212531076</v>
+        <v>-20.24441832505085</v>
       </c>
       <c r="BR19">
-        <v>0.0061155927827093</v>
+        <v>-0.001956020847649842</v>
       </c>
       <c r="BS19">
-        <v>38.68102588976766</v>
+        <v>0.0005</v>
       </c>
       <c r="BT19">
-        <v>-0.0007002491581418269</v>
+        <v>0</v>
       </c>
       <c r="BU19">
-        <v>-0.072625</v>
+        <v>-0.0005</v>
       </c>
       <c r="BV19">
-        <v>-150</v>
+        <v>0.0005</v>
       </c>
       <c r="BW19">
-        <v>-0.002375000000000002</v>
+        <v>0</v>
       </c>
       <c r="BX19">
+        <v>-0.0005</v>
+      </c>
+      <c r="BY19">
         <v>0.0005</v>
       </c>
-      <c r="BY19">
-        <v>0</v>
-      </c>
       <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
         <v>-0.0005</v>
       </c>
-      <c r="CA19">
-        <v>0.0005</v>
-      </c>
       <c r="CB19">
-        <v>0</v>
+        <v>-0.01395625</v>
       </c>
       <c r="CC19">
-        <v>-0.0005</v>
+        <v>-37.5</v>
       </c>
       <c r="CD19">
-        <v>0.006592873707246514</v>
+        <v>-0.001043750000000001</v>
       </c>
       <c r="CE19">
-        <v>42.0417367833944</v>
+        <v>-0.01395625</v>
       </c>
       <c r="CF19">
-        <v>-0.0007070305575712973</v>
+        <v>-37.5</v>
       </c>
       <c r="CG19">
-        <v>0.008585957949325802</v>
+        <v>-0.001043750000000001</v>
       </c>
       <c r="CH19">
-        <v>21.26837299490033</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI19">
-        <v>-0.0009293436711616827</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ19">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK19">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CL19">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CM19">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CN19">
+        <v>0.0009301075268817204</v>
+      </c>
+      <c r="CO19">
+        <v>4.444444444444446</v>
+      </c>
+      <c r="CP19">
+        <v>-0.0005301075268817205</v>
+      </c>
+      <c r="CQ19">
+        <v>0.0043138846218157</v>
+      </c>
+      <c r="CR19">
+        <v>40.54402328008135</v>
+      </c>
+      <c r="CS19">
+        <v>-0.0006649225266083785</v>
       </c>
     </row>
-    <row r="20" spans="1:87">
+    <row r="20" spans="1:97">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5640,25 +6240,25 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1.010190392274461</v>
+        <v>1.001609793827635</v>
       </c>
       <c r="E20">
-        <v>1.013541778742325</v>
+        <v>1.001473466507594</v>
       </c>
       <c r="F20">
-        <v>1.009275409724746</v>
+        <v>0.999772641441439</v>
       </c>
       <c r="G20">
-        <v>1.009275409724746</v>
+        <v>1.000686958389426</v>
       </c>
       <c r="H20">
-        <v>1.012297264127053</v>
+        <v>1.011146852978374</v>
       </c>
       <c r="I20">
-        <v>1.006387600555307</v>
+        <v>0.9985948161443008</v>
       </c>
       <c r="J20">
-        <v>0.9945917451001676</v>
+        <v>1.001316302599881</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5673,226 +6273,256 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>1.00545188553175</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0.9973133198142616</v>
+        <v>0.9971449889235036</v>
       </c>
       <c r="Q20">
-        <v>1.006387600555296</v>
+        <v>0.9973036454237508</v>
       </c>
       <c r="R20">
-        <v>1.005451885640231</v>
+        <v>0.9985948161443008</v>
       </c>
       <c r="S20">
-        <v>1.004882703628087</v>
+        <v>0.9975637327220604</v>
       </c>
       <c r="T20">
-        <v>1.004882703519545</v>
+        <v>0.9971449889233562</v>
       </c>
       <c r="U20">
-        <v>0.9973133197048862</v>
+        <v>0.9973036454237508</v>
       </c>
       <c r="V20">
-        <v>0.01337142209729082</v>
+        <v>0.9973036454238982</v>
       </c>
       <c r="W20">
-        <v>19.83302406564914</v>
+        <v>0.9973036454238982</v>
       </c>
       <c r="X20">
-        <v>0.0001652065143072194</v>
+        <v>0.003594422264129105</v>
       </c>
       <c r="Y20">
-        <v>0.004397554271318053</v>
+        <v>12.92422068866085</v>
       </c>
       <c r="Z20">
-        <v>6.522627066774002</v>
+        <v>7.015490177187007E-06</v>
       </c>
       <c r="AA20">
-        <v>1.786875881792938E-05</v>
+        <v>0.0002276695472995704</v>
       </c>
       <c r="AB20">
-        <v>0.0004086030883617023</v>
+        <v>0.6693197055261491</v>
       </c>
       <c r="AC20">
-        <v>1.469186450561489</v>
+        <v>3.763106492924882E-08</v>
       </c>
       <c r="AD20">
-        <v>4.532868535678941E-07</v>
+        <v>0.0004124868318326504</v>
       </c>
       <c r="AE20">
-        <v>0.0004086030883617023</v>
+        <v>2.091690005657104</v>
       </c>
       <c r="AF20">
-        <v>1.469186450561489</v>
+        <v>9.187850867508522E-07</v>
       </c>
       <c r="AG20">
-        <v>4.532868535678941E-07</v>
+        <v>0.0004121099470356973</v>
       </c>
       <c r="AH20">
-        <v>0.02342454255487049</v>
+        <v>1.481795824779695</v>
       </c>
       <c r="AI20">
-        <v>16.88007244332987</v>
+        <v>4.611009619302168E-07</v>
       </c>
       <c r="AJ20">
-        <v>5.983673759533265E-05</v>
+        <v>0.008360860233340085</v>
       </c>
       <c r="AK20">
-        <v>0.006667592086367698</v>
+        <v>15.17181045579205</v>
       </c>
       <c r="AL20">
-        <v>12.09916689284226</v>
+        <v>9.667720965272214E-05</v>
       </c>
       <c r="AM20">
-        <v>3.074186629517875E-05</v>
+        <v>0.003384690899865501</v>
       </c>
       <c r="AN20">
-        <v>0.006965876465801765</v>
+        <v>17.16351548977331</v>
       </c>
       <c r="AO20">
-        <v>25.0467302165412</v>
+        <v>1.237262308664312E-05</v>
       </c>
       <c r="AP20">
-        <v>0.0001317411258534417</v>
+        <v>0.000329480743178246</v>
       </c>
       <c r="AQ20">
-        <v>0.0008203138409288562</v>
+        <v>1.670772311689249</v>
       </c>
       <c r="AR20">
-        <v>1.48856047840707</v>
+        <v>1.172421649352933E-07</v>
       </c>
       <c r="AS20">
-        <v>4.653205825538333E-07</v>
+        <v>0.001627613042787652</v>
       </c>
       <c r="AT20">
-        <v>0.0008207784780278983</v>
+        <v>8.253504528981665</v>
       </c>
       <c r="AU20">
-        <v>1.888300230943542</v>
+        <v>1.430527077208232E-06</v>
       </c>
       <c r="AV20">
-        <v>7.487923300580771E-07</v>
+        <v>0.001449501205987472</v>
       </c>
       <c r="AW20">
-        <v>0.01018701916660292</v>
+        <v>7.350312668846567</v>
       </c>
       <c r="AX20">
-        <v>51.65761554993244</v>
+        <v>1.134569022925858E-06</v>
       </c>
       <c r="AY20">
-        <v>5.603869413039683E-05</v>
+        <v>0.001449501205987472</v>
       </c>
       <c r="AZ20">
-        <v>0.008399999999999999</v>
+        <v>7.350312668846567</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>1.134569022925858E-06</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>0.001157520566586708</v>
       </c>
       <c r="BC20">
-        <v>0.005458031960085646</v>
+        <v>5.869700590719114</v>
       </c>
       <c r="BD20">
-        <v>0.03</v>
+        <v>7.235210855183758E-07</v>
       </c>
       <c r="BE20">
-        <v>-0.006321390870286887</v>
+        <v>0.0004</v>
       </c>
       <c r="BF20">
-        <v>54.49297664174186</v>
+        <v>0.00045</v>
       </c>
       <c r="BG20">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>0.00035</v>
       </c>
       <c r="BI20">
-        <v>-0.0143782115723007</v>
+        <v>0.00035</v>
       </c>
       <c r="BJ20">
-        <v>-16.21198770936378</v>
+        <v>0.006</v>
       </c>
       <c r="BK20">
-        <v>-0.001833776137063078</v>
+        <v>0.006</v>
       </c>
       <c r="BL20">
-        <v>-0.005403952593917342</v>
+        <v>-0.0002403856084922315</v>
       </c>
       <c r="BM20">
-        <v>-12.64278174057377</v>
+        <v>50.78710143026866</v>
       </c>
       <c r="BN20">
-        <v>-0.0009174382763695449</v>
+        <v>0</v>
       </c>
       <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>-0.003202945012448255</v>
+      </c>
+      <c r="BQ20">
+        <v>-4.358005389729306</v>
+      </c>
+      <c r="BR20">
+        <v>-0.001155060377281051</v>
+      </c>
+      <c r="BS20">
+        <v>0.0002764413841022247</v>
+      </c>
+      <c r="BT20">
+        <v>-0.6009640212305788</v>
+      </c>
+      <c r="BU20">
+        <v>-0.0005168269925944562</v>
+      </c>
+      <c r="BV20">
         <v>0.0005</v>
       </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
         <v>-0.0005</v>
       </c>
-      <c r="BR20">
+      <c r="BY20">
         <v>0.0005</v>
       </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
         <v>-0.0005</v>
       </c>
-      <c r="BU20">
-        <v>-0.02875</v>
-      </c>
-      <c r="BV20">
-        <v>-60</v>
-      </c>
-      <c r="BW20">
-        <v>-0.001250000000000001</v>
-      </c>
-      <c r="BX20">
-        <v>0.0005</v>
-      </c>
-      <c r="BY20">
-        <v>0</v>
-      </c>
-      <c r="BZ20">
-        <v>-0.0005</v>
-      </c>
-      <c r="CA20">
-        <v>0.0005</v>
-      </c>
       <c r="CB20">
-        <v>0</v>
+        <v>-0.005124999999999999</v>
       </c>
       <c r="CC20">
-        <v>-0.0005</v>
+        <v>-15</v>
       </c>
       <c r="CD20">
-        <v>0.006158964992568171</v>
+        <v>-0.0008750000000000008</v>
       </c>
       <c r="CE20">
-        <v>38.98594257204033</v>
+        <v>-0.005124999999999999</v>
       </c>
       <c r="CF20">
-        <v>-0.0007009330324825253</v>
+        <v>-15</v>
       </c>
       <c r="CG20">
-        <v>0.00813566330797732</v>
+        <v>-0.0008750000000000008</v>
       </c>
       <c r="CH20">
-        <v>20.04504944336439</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI20">
-        <v>-0.0009194455083661396</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ20">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK20">
+        <v>0.0008763440860215054</v>
+      </c>
+      <c r="CL20">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="CM20">
+        <v>-0.0005263440860215054</v>
+      </c>
+      <c r="CN20">
+        <v>0.0008763440860215054</v>
+      </c>
+      <c r="CO20">
+        <v>3.888888888888889</v>
+      </c>
+      <c r="CP20">
+        <v>-0.0005263440860215054</v>
+      </c>
+      <c r="CQ20">
+        <v>0.004097953143973369</v>
+      </c>
+      <c r="CR20">
+        <v>38.23313695548361</v>
+      </c>
+      <c r="CS20">
+        <v>-0.0006569708179798447</v>
       </c>
     </row>
-    <row r="21" spans="1:87">
+    <row r="21" spans="1:97">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5903,25 +6533,25 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.001829861405827</v>
+        <v>0.9997329247292863</v>
       </c>
       <c r="E21">
-        <v>1.005627390009152</v>
+        <v>0.9996396335394879</v>
       </c>
       <c r="F21">
-        <v>1.000907229056948</v>
+        <v>0.9978923106541282</v>
       </c>
       <c r="G21">
-        <v>1.000907229056948</v>
+        <v>0.9988083535940371</v>
       </c>
       <c r="H21">
-        <v>1.002858075752559</v>
+        <v>1.004024591801336</v>
       </c>
       <c r="I21">
-        <v>0.9977340216445627</v>
+        <v>0.9968720029449392</v>
       </c>
       <c r="J21">
-        <v>0.9883755020493908</v>
+        <v>0.9995859250856421</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -5936,226 +6566,256 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0.9967901757763755</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.9893648574953131</v>
+        <v>0.9954196627894234</v>
       </c>
       <c r="Q21">
-        <v>0.9977340216445669</v>
+        <v>0.9956580420523955</v>
       </c>
       <c r="R21">
-        <v>0.9967901757393486</v>
+        <v>0.9968720029449393</v>
       </c>
       <c r="S21">
-        <v>0.9929666799498937</v>
+        <v>0.9959868178836383</v>
       </c>
       <c r="T21">
-        <v>0.9929666799870643</v>
+        <v>0.9954196627891576</v>
       </c>
       <c r="U21">
-        <v>0.9893648575326205</v>
+        <v>0.9956580420523955</v>
       </c>
       <c r="V21">
-        <v>0.0024010703982595</v>
+        <v>0.9956580420526611</v>
       </c>
       <c r="W21">
-        <v>3.561362930996457</v>
+        <v>0.9956580420526611</v>
       </c>
       <c r="X21">
-        <v>5.326988489035792E-06</v>
+        <v>0.0005963380420348615</v>
       </c>
       <c r="Y21">
-        <v>0.004982964003146807</v>
+        <v>2.144212308391608</v>
       </c>
       <c r="Z21">
-        <v>7.390930020277898</v>
+        <v>1.931011497852738E-07</v>
       </c>
       <c r="AA21">
-        <v>2.294285555715092E-05</v>
+        <v>0.00015579828710841</v>
       </c>
       <c r="AB21">
-        <v>0.0004120192535822792</v>
+        <v>0.4580272807046433</v>
       </c>
       <c r="AC21">
-        <v>1.481469724471812</v>
+        <v>1.762227514902196E-08</v>
       </c>
       <c r="AD21">
-        <v>4.608980343505289E-07</v>
+        <v>0.0004132640679092782</v>
       </c>
       <c r="AE21">
-        <v>0.0004120192535822792</v>
+        <v>2.095631311919646</v>
       </c>
       <c r="AF21">
-        <v>1.481469724471812</v>
+        <v>9.22250825054617E-07</v>
       </c>
       <c r="AG21">
-        <v>4.608980343505289E-07</v>
+        <v>0.0004128850559942303</v>
       </c>
       <c r="AH21">
-        <v>0.0114318536701253</v>
+        <v>1.484582831564571</v>
       </c>
       <c r="AI21">
-        <v>8.237963138927496</v>
+        <v>4.628370985930354E-07</v>
       </c>
       <c r="AJ21">
-        <v>1.425144770244788E-05</v>
+        <v>0.0037623787364952</v>
       </c>
       <c r="AK21">
-        <v>0.007181405345364807</v>
+        <v>6.827299519418448</v>
       </c>
       <c r="AL21">
-        <v>13.0315443226301</v>
+        <v>1.957704786569731E-05</v>
       </c>
       <c r="AM21">
-        <v>3.566244096086212E-05</v>
+        <v>0.003211743815628582</v>
       </c>
       <c r="AN21">
-        <v>0.006008303422484893</v>
+        <v>16.28651370525898</v>
       </c>
       <c r="AO21">
-        <v>21.60364968010946</v>
+        <v>1.114052220420672E-05</v>
       </c>
       <c r="AP21">
-        <v>9.801071269518753E-05</v>
+        <v>0.0001650255518891034</v>
       </c>
       <c r="AQ21">
-        <v>0.0008274420416831013</v>
+        <v>0.8368322839079838</v>
       </c>
       <c r="AR21">
-        <v>1.501495476447461</v>
+        <v>2.941210739844098E-08</v>
       </c>
       <c r="AS21">
-        <v>4.734426198164162E-07</v>
+        <v>0.001630434127574592</v>
       </c>
       <c r="AT21">
-        <v>0.002600132533761012</v>
+        <v>8.267810039845459</v>
       </c>
       <c r="AU21">
-        <v>5.981919598795634</v>
+        <v>1.435490339954338E-06</v>
       </c>
       <c r="AV21">
-        <v>7.514506038155738E-06</v>
+        <v>0.00136282348240854</v>
       </c>
       <c r="AW21">
-        <v>0.009395437283679852</v>
+        <v>6.910776387609065</v>
       </c>
       <c r="AX21">
-        <v>47.64356277202177</v>
+        <v>1.002935435870204E-06</v>
       </c>
       <c r="AY21">
-        <v>4.766809054584237E-05</v>
+        <v>0.00136282348240854</v>
       </c>
       <c r="AZ21">
-        <v>0.0072</v>
+        <v>6.910776387609065</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>1.002935435870204E-06</v>
       </c>
       <c r="BB21">
-        <v>0.000990599268809278</v>
+        <v>0.0009937313427704096</v>
       </c>
       <c r="BC21">
-        <v>0.004943338310724373</v>
+        <v>5.03913763439696</v>
       </c>
       <c r="BD21">
-        <v>0.015</v>
+        <v>5.332510700662568E-07</v>
       </c>
       <c r="BE21">
-        <v>-0.007024575727312257</v>
+        <v>0.0002</v>
       </c>
       <c r="BF21">
-        <v>51.29998767478175</v>
+        <v>0.00045</v>
       </c>
       <c r="BG21">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="BH21">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="BI21">
-        <v>-0.001857363125438472</v>
+        <v>0.0003</v>
       </c>
       <c r="BJ21">
-        <v>-2.911143145632766</v>
+        <v>0.003</v>
       </c>
       <c r="BK21">
-        <v>-0.001053780020194294</v>
+        <v>0.003</v>
       </c>
       <c r="BL21">
-        <v>-0.006075520782936949</v>
+        <v>-0.0003345942864978295</v>
       </c>
       <c r="BM21">
-        <v>-14.04915145462451</v>
+        <v>50.50827285818713</v>
       </c>
       <c r="BN21">
-        <v>-0.0009490549443753084</v>
+        <v>0</v>
       </c>
       <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0.001627443299270034</v>
+      </c>
+      <c r="BQ21">
+        <v>0.7230222683211315</v>
+      </c>
+      <c r="BR21">
+        <v>-0.0009044210309489023</v>
+      </c>
+      <c r="BS21">
+        <v>0.0001888273135570186</v>
+      </c>
+      <c r="BT21">
+        <v>-0.8364857162445737</v>
+      </c>
+      <c r="BU21">
+        <v>-0.0005234216000548481</v>
+      </c>
+      <c r="BV21">
         <v>0.0005</v>
       </c>
-      <c r="BP21">
-        <v>0</v>
-      </c>
-      <c r="BQ21">
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
         <v>-0.0005</v>
       </c>
-      <c r="BR21">
+      <c r="BY21">
         <v>0.0005</v>
       </c>
-      <c r="BS21">
-        <v>0</v>
-      </c>
-      <c r="BT21">
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
         <v>-0.0005</v>
       </c>
-      <c r="BU21">
-        <v>-0.0139</v>
-      </c>
-      <c r="BV21">
-        <v>-30</v>
-      </c>
-      <c r="BW21">
-        <v>-0.0011</v>
-      </c>
-      <c r="BX21">
-        <v>0.0005</v>
-      </c>
-      <c r="BY21">
-        <v>0</v>
-      </c>
-      <c r="BZ21">
-        <v>-0.0005</v>
-      </c>
-      <c r="CA21">
-        <v>0.001565160504095998</v>
-      </c>
       <c r="CB21">
-        <v>4.127496953371992</v>
+        <v>-0.00229</v>
       </c>
       <c r="CC21">
-        <v>-0.0005745612352867197</v>
+        <v>-7.5</v>
       </c>
       <c r="CD21">
-        <v>0.0056351101298865</v>
+        <v>-0.0007099999999999997</v>
       </c>
       <c r="CE21">
-        <v>35.30955936231695</v>
+        <v>-0.00229</v>
       </c>
       <c r="CF21">
-        <v>-0.0006917718191621269</v>
+        <v>-7.5</v>
       </c>
       <c r="CG21">
-        <v>0.008687261395830793</v>
+        <v>-0.0007099999999999997</v>
       </c>
       <c r="CH21">
-        <v>21.54424075885087</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI21">
-        <v>-0.0009313347226444814</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ21">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK21">
+        <v>0.0008225806451612903</v>
+      </c>
+      <c r="CL21">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="CM21">
+        <v>-0.0005225806451612904</v>
+      </c>
+      <c r="CN21">
+        <v>0.0008225806451612903</v>
+      </c>
+      <c r="CO21">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="CP21">
+        <v>-0.0005225806451612904</v>
+      </c>
+      <c r="CQ21">
+        <v>0.003881852161238229</v>
+      </c>
+      <c r="CR21">
+        <v>35.92229855940309</v>
+      </c>
+      <c r="CS21">
+        <v>-0.0006488452908919515</v>
       </c>
     </row>
-    <row r="22" spans="1:87">
+    <row r="22" spans="1:97">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6166,25 +6826,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.9959396272477292</v>
+        <v>0.9953428214808774</v>
       </c>
       <c r="E22">
-        <v>0.9987683705552672</v>
+        <v>0.9950946654168442</v>
       </c>
       <c r="F22">
-        <v>0.9947498824383795</v>
+        <v>0.9848469345203027</v>
       </c>
       <c r="G22">
-        <v>0.9950115282995532</v>
+        <v>0.9857579213608018</v>
       </c>
       <c r="H22">
-        <v>0.9959023828045843</v>
+        <v>0.9943967037765875</v>
       </c>
       <c r="I22">
-        <v>0.9926982453768054</v>
+        <v>0.9930998718824857</v>
       </c>
       <c r="J22">
-        <v>0.9914688363508795</v>
+        <v>0.9953428214808774</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6199,226 +6859,256 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0.99174960241899</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.9887813286528742</v>
+        <v>0.9916419990320029</v>
       </c>
       <c r="Q22">
-        <v>0.9926982453768111</v>
+        <v>0.9922001617285631</v>
       </c>
       <c r="R22">
-        <v>0.9917496023690786</v>
+        <v>0.9930998718824857</v>
       </c>
       <c r="S22">
-        <v>0.9841306322820025</v>
+        <v>0.9928038642201429</v>
       </c>
       <c r="T22">
-        <v>0.9841306323323041</v>
+        <v>0.9916419990317678</v>
       </c>
       <c r="U22">
-        <v>0.988781328702936</v>
+        <v>0.9922001617285631</v>
       </c>
       <c r="V22">
-        <v>0.005327857503485811</v>
+        <v>0.9922001617287981</v>
       </c>
       <c r="W22">
-        <v>7.90248975136255</v>
+        <v>0.9922001617287981</v>
       </c>
       <c r="X22">
-        <v>2.622872459356364E-05</v>
+        <v>0.01039876403411999</v>
       </c>
       <c r="Y22">
-        <v>0.003711762977444111</v>
+        <v>37.39013154005122</v>
       </c>
       <c r="Z22">
-        <v>5.505434195555742</v>
+        <v>5.87169213364571E-05</v>
       </c>
       <c r="AA22">
-        <v>1.273011838627026E-05</v>
+        <v>0.0004144259473526266</v>
       </c>
       <c r="AB22">
-        <v>0.0005313034697917408</v>
+        <v>1.218359927072156</v>
       </c>
       <c r="AC22">
-        <v>1.910371901700716</v>
+        <v>1.246896765992513E-07</v>
       </c>
       <c r="AD22">
-        <v>7.663993685896571E-07</v>
+        <v>0.002356590118583433</v>
       </c>
       <c r="AE22">
-        <v>0.0004144604688340569</v>
+        <v>11.9500929922318</v>
       </c>
       <c r="AF22">
-        <v>1.490247436811668</v>
+        <v>2.998899172982706E-05</v>
       </c>
       <c r="AG22">
-        <v>4.663758588139806E-07</v>
+        <v>0.004280321839930276</v>
       </c>
       <c r="AH22">
-        <v>0.0004140897522101882</v>
+        <v>15.39046333810678</v>
       </c>
       <c r="AI22">
-        <v>0.2983992109547148</v>
+        <v>4.974193596993769E-05</v>
       </c>
       <c r="AJ22">
-        <v>1.869883871070781E-08</v>
+        <v>0.0008294336613444697</v>
       </c>
       <c r="AK22">
-        <v>0.005683248967491954</v>
+        <v>1.505109515572504</v>
       </c>
       <c r="AL22">
-        <v>10.31295509091625</v>
+        <v>9.514489546240314E-07</v>
       </c>
       <c r="AM22">
-        <v>2.233497896852489E-05</v>
+        <v>0.002517992466908685</v>
       </c>
       <c r="AN22">
-        <v>0.001996517822597495</v>
+        <v>12.76855228069337</v>
       </c>
       <c r="AO22">
-        <v>7.178743912645609</v>
+        <v>6.847508948481379E-06</v>
       </c>
       <c r="AP22">
-        <v>1.082221647430263E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>0.0008316475208579007</v>
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>1.509126836275892</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>4.782673996731957E-07</v>
+        <v>0.001636645272123238</v>
       </c>
       <c r="AT22">
-        <v>0.004672819984642699</v>
+        <v>8.299306291297592</v>
       </c>
       <c r="AU22">
-        <v>10.7503879455505</v>
+        <v>1.446448183252229E-06</v>
       </c>
       <c r="AV22">
-        <v>2.426987660576535E-05</v>
+        <v>0.00101003758247749</v>
       </c>
       <c r="AW22">
-        <v>0.004397230687418914</v>
+        <v>5.121825361599332</v>
       </c>
       <c r="AX22">
-        <v>22.29802934696936</v>
+        <v>5.508949957292071E-07</v>
       </c>
       <c r="AY22">
-        <v>1.044124436792469E-05</v>
+        <v>0.00101003758247749</v>
       </c>
       <c r="AZ22">
-        <v>0.0024</v>
+        <v>5.121825361599332</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>5.508949957292071E-07</v>
       </c>
       <c r="BB22">
-        <v>0.002127648866754214</v>
+        <v>0.0003323057568751891</v>
       </c>
       <c r="BC22">
-        <v>0.002</v>
+        <v>1.685097745763076</v>
       </c>
       <c r="BD22">
-        <v>0</v>
+        <v>5.963064266830244E-08</v>
       </c>
       <c r="BE22">
-        <v>-0.005364373235169625</v>
+        <v>0</v>
       </c>
       <c r="BF22">
-        <v>48.8616362042501</v>
+        <v>0.00045</v>
       </c>
       <c r="BG22">
-        <v>0.0001309341653998844</v>
+        <v>0.0002</v>
       </c>
       <c r="BH22">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="BI22">
-        <v>0.007795902513479809</v>
+        <v>0.0001</v>
       </c>
       <c r="BJ22">
-        <v>6.459689337536221</v>
+        <v>0</v>
       </c>
       <c r="BK22">
-        <v>-0.001336213175943586</v>
+        <v>0</v>
       </c>
       <c r="BL22">
-        <v>-0.00449473101079882</v>
+        <v>0</v>
       </c>
       <c r="BM22">
-        <v>-10.72874647033925</v>
+        <v>50.50827285818713</v>
       </c>
       <c r="BN22">
-        <v>-0.0008696422243708053</v>
+        <v>0.002171059960935514</v>
       </c>
       <c r="BO22">
-        <v>0.000640789425161166</v>
+        <v>0.004306185718524308</v>
       </c>
       <c r="BP22">
-        <v>0.9352440385706028</v>
+        <v>0.014350024376256</v>
       </c>
       <c r="BQ22">
-        <v>-0.0005098552597612816</v>
+        <v>12.60783135011159</v>
       </c>
       <c r="BR22">
+        <v>-0.001742193026144413</v>
+      </c>
+      <c r="BS22">
         <v>0.0005</v>
       </c>
-      <c r="BS22">
-        <v>0</v>
-      </c>
       <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
         <v>-0.0005</v>
       </c>
-      <c r="BU22">
+      <c r="BV22">
+        <v>0.002813918126730909</v>
+      </c>
+      <c r="BW22">
+        <v>15.50757114953939</v>
+      </c>
+      <c r="BX22">
+        <v>-0.0006428581657953944</v>
+      </c>
+      <c r="BY22">
+        <v>0.0051157035328405</v>
+      </c>
+      <c r="BZ22">
+        <v>11.96162699590086</v>
+      </c>
+      <c r="CA22">
+        <v>-0.0008095178143161918</v>
+      </c>
+      <c r="CB22">
         <v>0.0005</v>
       </c>
-      <c r="BV22">
-        <v>0</v>
-      </c>
-      <c r="BW22">
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
         <v>-0.0005</v>
       </c>
-      <c r="BX22">
+      <c r="CE22">
         <v>0.0005</v>
       </c>
-      <c r="BY22">
-        <v>0</v>
-      </c>
-      <c r="BZ22">
+      <c r="CF22">
+        <v>0</v>
+      </c>
+      <c r="CG22">
         <v>-0.0005</v>
       </c>
-      <c r="CA22">
-        <v>0.002787794480380875</v>
-      </c>
-      <c r="CB22">
-        <v>8.865203611475893</v>
-      </c>
-      <c r="CC22">
-        <v>-0.0006601456136266612</v>
-      </c>
-      <c r="CD22">
-        <v>0.002635774218154081</v>
-      </c>
-      <c r="CE22">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="CF22">
-        <v>-0.0006357742181540807</v>
-      </c>
-      <c r="CG22">
-        <v>0.0068402634106851</v>
-      </c>
       <c r="CH22">
-        <v>16.55210579696755</v>
+        <v>0.0009838709677419356</v>
       </c>
       <c r="CI22">
-        <v>-0.0008815053237767809</v>
+        <v>5.000000000000001</v>
+      </c>
+      <c r="CJ22">
+        <v>-0.0005338709677419355</v>
+      </c>
+      <c r="CK22">
+        <v>0.0006075268817204301</v>
+      </c>
+      <c r="CL22">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="CM22">
+        <v>-0.0005075268817204301</v>
+      </c>
+      <c r="CN22">
+        <v>0.0006075268817204301</v>
+      </c>
+      <c r="CO22">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="CP22">
+        <v>-0.0005075268817204301</v>
+      </c>
+      <c r="CQ22">
+        <v>0.003031838193924251</v>
+      </c>
+      <c r="CR22">
+        <v>26.6836955555575</v>
+      </c>
+      <c r="CS22">
+        <v>-0.000630305593924076</v>
       </c>
     </row>
-    <row r="23" spans="1:87">
+    <row r="23" spans="1:97">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6429,25 +7119,25 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.9904618268764663</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E23">
-        <v>0.9908151556843718</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F23">
-        <v>0.9873138708725068</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G23">
-        <v>0.9873138708725068</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H23">
-        <v>0.9904243764283377</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I23">
-        <v>0.9854714998681965</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J23">
-        <v>0.9882190787061782</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -6462,226 +7152,256 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0.9831170695046596</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q23">
-        <v>0.9854714998681964</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R23">
-        <v>0.9744041240620115</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S23">
-        <v>0.9789435932342583</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T23">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U23">
-        <v>0.9831170695047667</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V23">
-        <v>0.01251560641011232</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W23">
-        <v>18.56364426475196</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X23">
-        <v>0.0001447357331230675</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y23">
-        <v>0.0004636238235378945</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z23">
-        <v>0.6876652597406478</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA23">
-        <v>1.98611073970803E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB23">
-        <v>0.001405780411489806</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC23">
-        <v>5.054669413553945</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD23">
-        <v>5.36543340486648E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE23">
-        <v>0.001405780411489806</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF23">
-        <v>5.054669413553945</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG23">
-        <v>5.36543340486648E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH23">
-        <v>0.0004163801489909023</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI23">
-        <v>0.3000497048113978</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ23">
-        <v>1.890626332508479E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK23">
-        <v>0.008749746850751557</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL23">
-        <v>15.87749311086545</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM23">
-        <v>5.293990537197021E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN23">
-        <v>0.001001542410926316</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO23">
-        <v>3.601178213545649</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP23">
-        <v>2.72338175040022E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
-        <v>0.009702443992725624</v>
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>17.60627939079481</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>6.50960255372127E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT23">
-        <v>0.003560353652691247</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU23">
-        <v>8.191024502459053</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV23">
-        <v>1.408950530397586E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW23">
-        <v>0.002643143619231441</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX23">
-        <v>13.4031844539119</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY23">
-        <v>3.772552423617244E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ23">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA23">
-        <v>0.004948385229844639</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB23">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC23">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD23">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE23">
-        <v>-0.001136506540735299</v>
+        <v>0</v>
       </c>
       <c r="BF23">
-        <v>48.34504232209769</v>
+        <v>0.00015</v>
       </c>
       <c r="BG23">
+        <v>0.0001</v>
+      </c>
+      <c r="BH23">
+        <v>5E-05</v>
+      </c>
+      <c r="BI23">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>50.50827285818713</v>
+      </c>
+      <c r="BN23">
         <v>0.0011</v>
       </c>
-      <c r="BH23">
-        <v>0.0011</v>
-      </c>
-      <c r="BI23">
-        <v>0.01703147634757952</v>
-      </c>
-      <c r="BJ23">
-        <v>15.17436633289308</v>
-      </c>
-      <c r="BK23">
-        <v>-0.001857110014686435</v>
-      </c>
-      <c r="BL23">
-        <v>-0.0005569510828838282</v>
-      </c>
-      <c r="BM23">
-        <v>-2.273013081470598</v>
-      </c>
-      <c r="BN23">
-        <v>-0.000579555457851471</v>
-      </c>
       <c r="BO23">
+        <v>0.0022</v>
+      </c>
+      <c r="BP23">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ23">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR23">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS23">
+        <v>0.0005</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV23">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP23">
+      <c r="BW23">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ23">
+      <c r="BX23">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR23">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS23">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT23">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU23">
+      <c r="BY23">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ23">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA23">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB23">
         <v>0.0005</v>
       </c>
-      <c r="BV23">
-        <v>0</v>
-      </c>
-      <c r="BW23">
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
         <v>-0.0005</v>
       </c>
-      <c r="BX23">
-        <v>0.005731252620057801</v>
-      </c>
-      <c r="BY23">
-        <v>20.61827179101933</v>
-      </c>
-      <c r="BZ23">
-        <v>-0.0007828673902131626</v>
-      </c>
-      <c r="CA23">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB23">
-        <v>6.25</v>
-      </c>
-      <c r="CC23">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD23">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE23">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF23">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG23">
-        <v>0.01045437861353498</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH23">
-        <v>26.39550762870378</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI23">
-        <v>-0.0009519958672016219</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ23">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK23">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL23">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM23">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN23">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO23">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP23">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ23">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR23">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS23">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="24" spans="1:87">
+    <row r="24" spans="1:97">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6692,25 +7412,25 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.9906649281485408</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E24">
-        <v>0.991083520751659</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F24">
-        <v>0.9875176216504438</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G24">
-        <v>0.9875176216504438</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H24">
-        <v>0.9906274853789002</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I24">
-        <v>0.9857772583010658</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J24">
-        <v>0.9884226418666051</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -6725,226 +7445,256 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0.9834235617154602</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q24">
-        <v>0.9857772583010642</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R24">
-        <v>0.9751157000131201</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S24">
-        <v>0.9792514035955526</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T24">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U24">
-        <v>0.9834235617155483</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V24">
-        <v>0.01224910510532837</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W24">
-        <v>18.1683589500824</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X24">
-        <v>0.0001386374921143966</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y24">
-        <v>0.0005492603456615514</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z24">
-        <v>0.8146847489033677</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA24">
-        <v>2.7875872084021E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB24">
-        <v>0.001405490362131552</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC24">
-        <v>5.053626502721214</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD24">
-        <v>5.363219574091097E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE24">
-        <v>0.001405490362131552</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF24">
-        <v>5.053626502721214</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG24">
-        <v>5.363219574091097E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH24">
-        <v>0.0004162947783174296</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI24">
-        <v>0.2999881854391676</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ24">
-        <v>1.889851139458536E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK24">
-        <v>0.00856975380262388</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL24">
-        <v>15.55087356056321</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM24">
-        <v>5.07842303842914E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN24">
-        <v>0.001001336145782393</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO24">
-        <v>3.600436559937767</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP24">
-        <v>2.722260118648767E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
-        <v>0.009346675668693721</v>
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>16.96069395726932</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>6.040967929755135E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT24">
-        <v>0.003559234520436731</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU24">
-        <v>8.188449803254297</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV24">
-        <v>1.408064913788762E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW24">
-        <v>0.002642319861395574</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX24">
-        <v>13.3990072392728</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY24">
-        <v>3.770201294959813E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ24">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA24">
-        <v>0.004747086569831978</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB24">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC24">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE24">
-        <v>-0.001247317110462685</v>
+        <v>0</v>
       </c>
       <c r="BF24">
-        <v>47.77807999916011</v>
+        <v>0.00015</v>
       </c>
       <c r="BG24">
+        <v>0.0001</v>
+      </c>
+      <c r="BH24">
+        <v>5E-05</v>
+      </c>
+      <c r="BI24">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>50.50827285818713</v>
+      </c>
+      <c r="BN24">
         <v>0.0011</v>
       </c>
-      <c r="BH24">
-        <v>0.0011</v>
-      </c>
-      <c r="BI24">
-        <v>0.01669510516893246</v>
-      </c>
-      <c r="BJ24">
-        <v>14.85125067277361</v>
-      </c>
-      <c r="BK24">
-        <v>-0.001843854496158842</v>
-      </c>
-      <c r="BL24">
-        <v>-0.0006600049127302974</v>
-      </c>
-      <c r="BM24">
-        <v>-2.494634220925371</v>
-      </c>
-      <c r="BN24">
-        <v>-0.000587312197732388</v>
-      </c>
       <c r="BO24">
+        <v>0.0022</v>
+      </c>
+      <c r="BP24">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ24">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR24">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS24">
+        <v>0.0005</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV24">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP24">
+      <c r="BW24">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ24">
+      <c r="BX24">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR24">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS24">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT24">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU24">
+      <c r="BY24">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ24">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA24">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB24">
         <v>0.0005</v>
       </c>
-      <c r="BV24">
-        <v>0</v>
-      </c>
-      <c r="BW24">
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
         <v>-0.0005</v>
       </c>
-      <c r="BX24">
-        <v>0.005525130608933051</v>
-      </c>
-      <c r="BY24">
-        <v>19.77952737429991</v>
-      </c>
-      <c r="BZ24">
-        <v>-0.0007780440391010734</v>
-      </c>
-      <c r="CA24">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB24">
-        <v>6.25</v>
-      </c>
-      <c r="CC24">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD24">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE24">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF24">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG24">
-        <v>0.01024249610865669</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH24">
-        <v>25.80989772687279</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI24">
-        <v>-0.0009509329269824923</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ24">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK24">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL24">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM24">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN24">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO24">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP24">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ24">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR24">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS24">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
-    <row r="25" spans="1:87">
+    <row r="25" spans="1:97">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6955,25 +7705,25 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.9906592826990567</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="E25">
-        <v>0.991076063625727</v>
+        <v>0.9965741662729634</v>
       </c>
       <c r="F25">
-        <v>0.987511958150779</v>
+        <v>0.9905814841963414</v>
       </c>
       <c r="G25">
-        <v>0.987511958150779</v>
+        <v>0.9914839260591521</v>
       </c>
       <c r="H25">
-        <v>0.9906218397160256</v>
+        <v>0.9958772428679039</v>
       </c>
       <c r="I25">
-        <v>0.9857687575625451</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="J25">
-        <v>0.988416983580943</v>
+        <v>0.9968219539084716</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -6988,223 +7738,253 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0.983415040582541</v>
+        <v>0.994001275610338</v>
       </c>
       <c r="Q25">
-        <v>0.9857687575625451</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="R25">
-        <v>0.9750959218917059</v>
+        <v>0.994978831600882</v>
       </c>
       <c r="S25">
-        <v>0.9792428458265843</v>
+        <v>0.994831129371658</v>
       </c>
       <c r="T25">
-        <v>0.98</v>
+        <v>0.9940012756102738</v>
       </c>
       <c r="U25">
-        <v>0.9834150405826283</v>
+        <v>0.9941603587945871</v>
       </c>
       <c r="V25">
-        <v>0.01225651283664497</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="W25">
-        <v>18.17934639123899</v>
+        <v>0.9941603587946513</v>
       </c>
       <c r="X25">
-        <v>0.0001388052267893153</v>
+        <v>0.007096088599495425</v>
       </c>
       <c r="Y25">
-        <v>0.0005468831368321861</v>
+        <v>25.51492516653159</v>
       </c>
       <c r="Z25">
-        <v>0.8111587783985976</v>
+        <v>2.734247906265551E-05</v>
       </c>
       <c r="AA25">
-        <v>2.763509967848143E-07</v>
+        <v>0.0004138106638169896</v>
       </c>
       <c r="AB25">
-        <v>0.001405498422787495</v>
+        <v>1.216551071211667</v>
       </c>
       <c r="AC25">
-        <v>5.053655485875845</v>
+        <v>1.243197067449112E-07</v>
       </c>
       <c r="AD25">
-        <v>5.363281091683766E-06</v>
+        <v>0.001401142115398712</v>
       </c>
       <c r="AE25">
-        <v>0.001405498422787495</v>
+        <v>7.105087321851213</v>
       </c>
       <c r="AF25">
-        <v>5.053655485875845</v>
+        <v>1.060127582873729E-05</v>
       </c>
       <c r="AG25">
-        <v>5.363281091683766E-06</v>
+        <v>0.002383799194499916</v>
       </c>
       <c r="AH25">
-        <v>0.0004162971508270363</v>
+        <v>8.571265311432057</v>
       </c>
       <c r="AI25">
-        <v>0.2999898951047433</v>
+        <v>1.542798369818122E-05</v>
       </c>
       <c r="AJ25">
-        <v>1.889872680463194E-08</v>
+        <v>0.0008282004804874462</v>
       </c>
       <c r="AK25">
-        <v>0.008574760099047552</v>
+        <v>1.50287175705265</v>
       </c>
       <c r="AL25">
-        <v>15.55995810190294</v>
+        <v>9.486218776216283E-07</v>
       </c>
       <c r="AM25">
-        <v>5.084358218792641E-05</v>
+        <v>0.002069136145292728</v>
       </c>
       <c r="AN25">
-        <v>0.00100134187802501</v>
+        <v>10.49243530084027</v>
       </c>
       <c r="AO25">
-        <v>3.600457170974307</v>
+        <v>4.623830338777377E-06</v>
       </c>
       <c r="AP25">
-        <v>2.722291286404209E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>0.009356562219746182</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>16.97863432159108</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>6.05375449195247E-05</v>
+        <v>0.001097429305632986</v>
       </c>
       <c r="AT25">
-        <v>0.003559265625135334</v>
+        <v>5.564982281516875</v>
       </c>
       <c r="AU25">
-        <v>8.188521363378166</v>
+        <v>6.503495836655522E-07</v>
       </c>
       <c r="AV25">
-        <v>1.408089524488525E-05</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AW25">
-        <v>0.002642342756669692</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="AX25">
-        <v>13.39912333950281</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="AY25">
-        <v>3.770266631611266E-06</v>
+        <v>0.00091883846257539</v>
       </c>
       <c r="AZ25">
-        <v>0.0012</v>
+        <v>4.659361416322798</v>
       </c>
       <c r="BA25">
-        <v>0.004752677304832682</v>
+        <v>4.55902624966315E-07</v>
       </c>
       <c r="BB25">
-        <v>0.0015</v>
+        <v>0.0001658142923936932</v>
       </c>
       <c r="BC25">
-        <v>0.001</v>
+        <v>0.8408319282679688</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>1.484696496347197E-08</v>
       </c>
       <c r="BE25">
-        <v>-0.001244240274044683</v>
+        <v>0</v>
       </c>
       <c r="BF25">
-        <v>47.21251623823071</v>
+        <v>0.00015</v>
       </c>
       <c r="BG25">
+        <v>0.0001</v>
+      </c>
+      <c r="BH25">
+        <v>5E-05</v>
+      </c>
+      <c r="BI25">
+        <v>5E-05</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>50.50827285818713</v>
+      </c>
+      <c r="BN25">
         <v>0.0011</v>
       </c>
-      <c r="BH25">
-        <v>0.0011</v>
-      </c>
-      <c r="BI25">
-        <v>0.01670445971969447</v>
-      </c>
-      <c r="BJ25">
-        <v>14.86023206968155</v>
-      </c>
-      <c r="BK25">
-        <v>-0.00184422765001291</v>
-      </c>
-      <c r="BL25">
-        <v>-0.0006571434548615555</v>
-      </c>
-      <c r="BM25">
-        <v>-2.488480548089367</v>
-      </c>
-      <c r="BN25">
-        <v>-0.0005870968191831279</v>
-      </c>
       <c r="BO25">
+        <v>0.0022</v>
+      </c>
+      <c r="BP25">
+        <v>0.01010113298319845</v>
+      </c>
+      <c r="BQ25">
+        <v>8.60355367437456</v>
+      </c>
+      <c r="BR25">
+        <v>-0.001497579308823891</v>
+      </c>
+      <c r="BS25">
+        <v>0.0005</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>-0.0005</v>
+      </c>
+      <c r="BV25">
         <v>0.001682795698924731</v>
       </c>
-      <c r="BP25">
+      <c r="BW25">
         <v>7.857142857142857</v>
       </c>
-      <c r="BQ25">
+      <c r="BX25">
         <v>-0.0005827956989247311</v>
       </c>
-      <c r="BR25">
-        <v>0.001682795698924731</v>
-      </c>
-      <c r="BS25">
-        <v>7.857142857142857</v>
-      </c>
-      <c r="BT25">
-        <v>-0.0005827956989247311</v>
-      </c>
-      <c r="BU25">
+      <c r="BY25">
+        <v>0.002865591397849462</v>
+      </c>
+      <c r="BZ25">
+        <v>6.111111111111112</v>
+      </c>
+      <c r="CA25">
+        <v>-0.0006655913978494622</v>
+      </c>
+      <c r="CB25">
         <v>0.0005</v>
       </c>
-      <c r="BV25">
-        <v>0</v>
-      </c>
-      <c r="BW25">
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
         <v>-0.0005</v>
       </c>
-      <c r="BX25">
-        <v>0.005530862716640194</v>
-      </c>
-      <c r="BY25">
-        <v>19.80282210346951</v>
-      </c>
-      <c r="BZ25">
-        <v>-0.0007781854118075124</v>
-      </c>
-      <c r="CA25">
-        <v>0.002112903225806452</v>
-      </c>
-      <c r="CB25">
-        <v>6.25</v>
-      </c>
-      <c r="CC25">
-        <v>-0.0006129032258064518</v>
-      </c>
-      <c r="CD25">
-        <v>0.001575268817204301</v>
-      </c>
       <c r="CE25">
-        <v>7.142857142857142</v>
+        <v>0.0005</v>
       </c>
       <c r="CF25">
-        <v>-0.0005752688172043011</v>
+        <v>0</v>
       </c>
       <c r="CG25">
-        <v>0.01024839121452305</v>
+        <v>-0.0005</v>
       </c>
       <c r="CH25">
-        <v>25.82617629568603</v>
+        <v>0.0006612903225806452</v>
       </c>
       <c r="CI25">
-        <v>-0.0009509677480760773</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CJ25">
+        <v>-0.0005112903225806452</v>
+      </c>
+      <c r="CK25">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CL25">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CM25">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CN25">
+        <v>0.0005537634408602151</v>
+      </c>
+      <c r="CO25">
+        <v>0.5555555555555557</v>
+      </c>
+      <c r="CP25">
+        <v>-0.000503763440860215</v>
+      </c>
+      <c r="CQ25">
+        <v>0.002496098067087648</v>
+      </c>
+      <c r="CR25">
+        <v>20.78215784555152</v>
+      </c>
+      <c r="CS25">
+        <v>-0.0006257038609880109</v>
       </c>
     </row>
   </sheetData>

--- a/timesteps_LF_results.xlsx
+++ b/timesteps_LF_results.xlsx
@@ -16,292 +16,292 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>node 0 : v_pu</t>
-  </si>
-  <si>
-    <t>node 1 : v_pu</t>
-  </si>
-  <si>
-    <t>node 2 : v_pu</t>
-  </si>
-  <si>
-    <t>node 4 : v_pu</t>
-  </si>
-  <si>
-    <t>node 6 : v_pu</t>
-  </si>
-  <si>
-    <t>node 8 : v_pu</t>
-  </si>
-  <si>
-    <t>node 11 : v_pu</t>
-  </si>
-  <si>
-    <t>node 19 : v_pu</t>
-  </si>
-  <si>
-    <t>node 21 : v_pu</t>
-  </si>
-  <si>
-    <t>node 3 : v_pu</t>
-  </si>
-  <si>
-    <t>node 5 : v_pu</t>
-  </si>
-  <si>
-    <t>node 7 : v_pu</t>
-  </si>
-  <si>
-    <t>node 9 : v_pu</t>
-  </si>
-  <si>
-    <t>node 10 : v_pu</t>
-  </si>
-  <si>
-    <t>node 12 : v_pu</t>
-  </si>
-  <si>
-    <t>node 17 : v_pu</t>
-  </si>
-  <si>
-    <t>node 18 : v_pu</t>
-  </si>
-  <si>
-    <t>node 20 : v_pu</t>
-  </si>
-  <si>
-    <t>node 13 : v_pu</t>
-  </si>
-  <si>
-    <t>node 15 : v_pu</t>
-  </si>
-  <si>
-    <t>node 14 : v_pu</t>
-  </si>
-  <si>
-    <t>node 16 : v_pu</t>
-  </si>
-  <si>
-    <t>line 1 - 2 : i_ka</t>
-  </si>
-  <si>
-    <t>line 1 - 2 : loading</t>
-  </si>
-  <si>
-    <t>line 1 - 2 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 4 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 4 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 4 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 6 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 6 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 6 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 8 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 8 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 8 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 11 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 11 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 11 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 19 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 19 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 19 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 2 - 21 : i_ka</t>
-  </si>
-  <si>
-    <t>line 2 - 21 : loading</t>
-  </si>
-  <si>
-    <t>line 2 - 21 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 13 - 18 : i_ka</t>
-  </si>
-  <si>
-    <t>line 13 - 18 : loading</t>
-  </si>
-  <si>
-    <t>line 13 - 18 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 15 - 18 : i_ka</t>
-  </si>
-  <si>
-    <t>line 15 - 18 : loading</t>
-  </si>
-  <si>
-    <t>line 15 - 18 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 17 - 18 : i_ka</t>
-  </si>
-  <si>
-    <t>line 17 - 18 : loading</t>
-  </si>
-  <si>
-    <t>line 17 - 18 : pl_mw</t>
-  </si>
-  <si>
-    <t>line 20 - 18 : i_ka</t>
-  </si>
-  <si>
-    <t>line 20 - 18 : loading</t>
-  </si>
-  <si>
-    <t>line 20 - 18 : pl_mw</t>
-  </si>
-  <si>
-    <t>load load 21 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 12 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 20 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 14 : p_mw</t>
-  </si>
-  <si>
-    <t>load load 16 : p_mw</t>
-  </si>
-  <si>
-    <t>sgen PV 9 : p_mw</t>
-  </si>
-  <si>
-    <t>sgen PV 10 : p_mw</t>
-  </si>
-  <si>
-    <t>storage Battery 3 : p_mw</t>
-  </si>
-  <si>
-    <t>storage Battery 3 : SOC</t>
-  </si>
-  <si>
-    <t>storage EV 5 : p_mw</t>
-  </si>
-  <si>
-    <t>storage EV 7 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_1 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_1 : loading</t>
-  </si>
-  <si>
-    <t>Conv_1 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_2 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_2 : loading</t>
-  </si>
-  <si>
-    <t>Conv_2 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_3 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_3 : loading</t>
-  </si>
-  <si>
-    <t>Conv_3 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_4 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_4 : loading</t>
-  </si>
-  <si>
-    <t>Conv_4 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_5 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_5 : loading</t>
-  </si>
-  <si>
-    <t>Conv_5 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_6 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_6 : loading</t>
-  </si>
-  <si>
-    <t>Conv_6 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_7 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_7 : loading</t>
-  </si>
-  <si>
-    <t>Conv_7 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_8 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_8 : loading</t>
-  </si>
-  <si>
-    <t>Conv_8 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_9 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_9 : loading</t>
-  </si>
-  <si>
-    <t>Conv_9 : pl_mw</t>
-  </si>
-  <si>
-    <t>Conv_10 : p_mw</t>
-  </si>
-  <si>
-    <t>Conv_10 : loading</t>
-  </si>
-  <si>
-    <t>Conv_10 : pl_mw</t>
+    <t>node 0: v_pu</t>
+  </si>
+  <si>
+    <t>node 1: v_pu</t>
+  </si>
+  <si>
+    <t>node 2: v_pu</t>
+  </si>
+  <si>
+    <t>node 4: v_pu</t>
+  </si>
+  <si>
+    <t>node 6: v_pu</t>
+  </si>
+  <si>
+    <t>node 8: v_pu</t>
+  </si>
+  <si>
+    <t>node 11: v_pu</t>
+  </si>
+  <si>
+    <t>node 19: v_pu</t>
+  </si>
+  <si>
+    <t>node 21: v_pu</t>
+  </si>
+  <si>
+    <t>node 3: v_pu</t>
+  </si>
+  <si>
+    <t>node 5: v_pu</t>
+  </si>
+  <si>
+    <t>node 7: v_pu</t>
+  </si>
+  <si>
+    <t>node 9: v_pu</t>
+  </si>
+  <si>
+    <t>node 10: v_pu</t>
+  </si>
+  <si>
+    <t>node 12: v_pu</t>
+  </si>
+  <si>
+    <t>node 17: v_pu</t>
+  </si>
+  <si>
+    <t>node 18: v_pu</t>
+  </si>
+  <si>
+    <t>node 20: v_pu</t>
+  </si>
+  <si>
+    <t>node 13: v_pu</t>
+  </si>
+  <si>
+    <t>node 15: v_pu</t>
+  </si>
+  <si>
+    <t>node 14: v_pu</t>
+  </si>
+  <si>
+    <t>node 16: v_pu</t>
+  </si>
+  <si>
+    <t>line 1 - 2: i_ka</t>
+  </si>
+  <si>
+    <t>line 1 - 2: loading</t>
+  </si>
+  <si>
+    <t>line 1 - 2: pl_mw</t>
+  </si>
+  <si>
+    <t>line 2 - 4: i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 4: loading</t>
+  </si>
+  <si>
+    <t>line 2 - 4: pl_mw</t>
+  </si>
+  <si>
+    <t>line 2 - 6: i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 6: loading</t>
+  </si>
+  <si>
+    <t>line 2 - 6: pl_mw</t>
+  </si>
+  <si>
+    <t>line 2 - 8: i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 8: loading</t>
+  </si>
+  <si>
+    <t>line 2 - 8: pl_mw</t>
+  </si>
+  <si>
+    <t>line 2 - 11: i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 11: loading</t>
+  </si>
+  <si>
+    <t>line 2 - 11: pl_mw</t>
+  </si>
+  <si>
+    <t>line 2 - 19: i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 19: loading</t>
+  </si>
+  <si>
+    <t>line 2 - 19: pl_mw</t>
+  </si>
+  <si>
+    <t>line 2 - 21: i_ka</t>
+  </si>
+  <si>
+    <t>line 2 - 21: loading</t>
+  </si>
+  <si>
+    <t>line 2 - 21: pl_mw</t>
+  </si>
+  <si>
+    <t>line 13 - 18: i_ka</t>
+  </si>
+  <si>
+    <t>line 13 - 18: loading</t>
+  </si>
+  <si>
+    <t>line 13 - 18: pl_mw</t>
+  </si>
+  <si>
+    <t>line 15 - 18: i_ka</t>
+  </si>
+  <si>
+    <t>line 15 - 18: loading</t>
+  </si>
+  <si>
+    <t>line 15 - 18: pl_mw</t>
+  </si>
+  <si>
+    <t>line 17 - 18: i_ka</t>
+  </si>
+  <si>
+    <t>line 17 - 18: loading</t>
+  </si>
+  <si>
+    <t>line 17 - 18: pl_mw</t>
+  </si>
+  <si>
+    <t>line 20 - 18: i_ka</t>
+  </si>
+  <si>
+    <t>line 20 - 18: loading</t>
+  </si>
+  <si>
+    <t>line 20 - 18: pl_mw</t>
+  </si>
+  <si>
+    <t>load load 21: p_mw</t>
+  </si>
+  <si>
+    <t>load load 12: p_mw</t>
+  </si>
+  <si>
+    <t>load load 20: p_mw</t>
+  </si>
+  <si>
+    <t>load load 14: p_mw</t>
+  </si>
+  <si>
+    <t>load load 16: p_mw</t>
+  </si>
+  <si>
+    <t>sgen PV 9: p_mw</t>
+  </si>
+  <si>
+    <t>sgen PV 10: p_mw</t>
+  </si>
+  <si>
+    <t>storage Battery 3: p_mw</t>
+  </si>
+  <si>
+    <t>storage Battery 3: SOC</t>
+  </si>
+  <si>
+    <t>storage EV 5: p_mw</t>
+  </si>
+  <si>
+    <t>storage EV 7: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_1: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_1: loading</t>
+  </si>
+  <si>
+    <t>Conv_1: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_2: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_2: loading</t>
+  </si>
+  <si>
+    <t>Conv_2: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_3: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_3: loading</t>
+  </si>
+  <si>
+    <t>Conv_3: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_4: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_4: loading</t>
+  </si>
+  <si>
+    <t>Conv_4: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_5: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_5: loading</t>
+  </si>
+  <si>
+    <t>Conv_5: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_6: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_6: loading</t>
+  </si>
+  <si>
+    <t>Conv_6: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_7: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_7: loading</t>
+  </si>
+  <si>
+    <t>Conv_7: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_8: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_8: loading</t>
+  </si>
+  <si>
+    <t>Conv_8: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_9: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_9: loading</t>
+  </si>
+  <si>
+    <t>Conv_9: pl_mw</t>
+  </si>
+  <si>
+    <t>Conv_10: p_mw</t>
+  </si>
+  <si>
+    <t>Conv_10: loading</t>
+  </si>
+  <si>
+    <t>Conv_10: pl_mw</t>
   </si>
 </sst>
 </file>
@@ -966,25 +966,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E2">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F2">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G2">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H2">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I2">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J2">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1002,133 +1002,133 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q2">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R2">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S2">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T2">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U2">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V2">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W2">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X2">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y2">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z2">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA2">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB2">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC2">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD2">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE2">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF2">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG2">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH2">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI2">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ2">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN2">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO2">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS2">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT2">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU2">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV2">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW2">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX2">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY2">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ2">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA2">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB2">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC2">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD2">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF2">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG2">
         <v>0.0001</v>
@@ -1158,13 +1158,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP2">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ2">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR2">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS2">
         <v>0.0005</v>
@@ -1173,79 +1173,79 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV2">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW2">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX2">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY2">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ2">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA2">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB2">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF2">
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI2">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ2">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK2">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL2">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM2">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN2">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO2">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP2">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ2">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR2">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS2">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="3" spans="1:97">
@@ -1259,25 +1259,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E3">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F3">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G3">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H3">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I3">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J3">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1295,133 +1295,133 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q3">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R3">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S3">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T3">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U3">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V3">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W3">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X3">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y3">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z3">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA3">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB3">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC3">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD3">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE3">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF3">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG3">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH3">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI3">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ3">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN3">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO3">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS3">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT3">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU3">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV3">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW3">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX3">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY3">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ3">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA3">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB3">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC3">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD3">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF3">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG3">
         <v>0.0001</v>
@@ -1451,13 +1451,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP3">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ3">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR3">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS3">
         <v>0.0005</v>
@@ -1466,79 +1466,79 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV3">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW3">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX3">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY3">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ3">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA3">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB3">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI3">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ3">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK3">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL3">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM3">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN3">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO3">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP3">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ3">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR3">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS3">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="4" spans="1:97">
@@ -1552,25 +1552,25 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E4">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F4">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G4">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H4">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I4">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J4">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1588,133 +1588,133 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q4">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R4">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S4">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T4">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U4">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V4">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W4">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X4">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y4">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z4">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA4">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB4">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC4">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD4">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE4">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF4">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG4">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH4">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI4">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ4">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN4">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO4">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS4">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT4">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU4">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV4">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW4">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX4">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY4">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ4">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA4">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB4">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC4">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD4">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF4">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG4">
         <v>0.0001</v>
@@ -1744,13 +1744,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP4">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ4">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR4">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS4">
         <v>0.0005</v>
@@ -1759,79 +1759,79 @@
         <v>0</v>
       </c>
       <c r="BU4">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV4">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW4">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX4">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY4">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ4">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA4">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB4">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF4">
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI4">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ4">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK4">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL4">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM4">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN4">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO4">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP4">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ4">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR4">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS4">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="5" spans="1:97">
@@ -1845,25 +1845,25 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E5">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F5">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G5">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H5">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I5">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J5">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1881,133 +1881,133 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q5">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R5">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S5">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T5">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U5">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V5">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W5">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X5">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y5">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z5">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA5">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB5">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC5">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD5">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE5">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF5">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG5">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH5">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI5">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ5">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN5">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO5">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS5">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT5">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU5">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV5">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW5">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX5">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY5">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ5">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA5">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB5">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC5">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD5">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF5">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG5">
         <v>0.0001</v>
@@ -2037,13 +2037,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP5">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ5">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR5">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS5">
         <v>0.0005</v>
@@ -2052,79 +2052,79 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV5">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW5">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX5">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY5">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ5">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA5">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB5">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF5">
         <v>0</v>
       </c>
       <c r="CG5">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI5">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ5">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK5">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL5">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM5">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN5">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO5">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP5">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ5">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR5">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS5">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="6" spans="1:97">
@@ -2138,25 +2138,25 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E6">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F6">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G6">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H6">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I6">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J6">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2174,133 +2174,133 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q6">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R6">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S6">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T6">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U6">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V6">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W6">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X6">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y6">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z6">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA6">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB6">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC6">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD6">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE6">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF6">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG6">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH6">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI6">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ6">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN6">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO6">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS6">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT6">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU6">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV6">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW6">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX6">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY6">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ6">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA6">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB6">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC6">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD6">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF6">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG6">
         <v>0.0001</v>
@@ -2330,13 +2330,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP6">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ6">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR6">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS6">
         <v>0.0005</v>
@@ -2345,79 +2345,79 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV6">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW6">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX6">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY6">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ6">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA6">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB6">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF6">
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI6">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ6">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK6">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL6">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM6">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN6">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO6">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP6">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ6">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR6">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS6">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="7" spans="1:97">
@@ -2431,25 +2431,25 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E7">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F7">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G7">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H7">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I7">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J7">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2467,133 +2467,133 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q7">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R7">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S7">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T7">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U7">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V7">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W7">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X7">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y7">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z7">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA7">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB7">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC7">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD7">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE7">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF7">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG7">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH7">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI7">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ7">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN7">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO7">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS7">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT7">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU7">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV7">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW7">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX7">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY7">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ7">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA7">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB7">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC7">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD7">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF7">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG7">
         <v>0.0001</v>
@@ -2623,13 +2623,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP7">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ7">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR7">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS7">
         <v>0.0005</v>
@@ -2638,79 +2638,79 @@
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV7">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW7">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX7">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY7">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ7">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA7">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB7">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
       <c r="CD7">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE7">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF7">
         <v>0</v>
       </c>
       <c r="CG7">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH7">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI7">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ7">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK7">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL7">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM7">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN7">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO7">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP7">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ7">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR7">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS7">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="8" spans="1:97">
@@ -2724,25 +2724,25 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9957807175646518</v>
+        <v>0.9988839571843386</v>
       </c>
       <c r="E8">
-        <v>0.9956080293479843</v>
+        <v>0.9987897615532183</v>
       </c>
       <c r="F8">
-        <v>0.9857920468698333</v>
+        <v>0.9946167259728291</v>
       </c>
       <c r="G8">
-        <v>0.986846986244279</v>
+        <v>0.993652408923382</v>
       </c>
       <c r="H8">
-        <v>0.9948350167090036</v>
+        <v>0.9988839571843386</v>
       </c>
       <c r="I8">
-        <v>0.9939356580361506</v>
+        <v>0.9983060367018779</v>
       </c>
       <c r="J8">
-        <v>0.9957807175646518</v>
+        <v>0.9987368325669692</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -2760,133 +2760,133 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0.9929570740399594</v>
+        <v>0.9982268971219996</v>
       </c>
       <c r="Q8">
-        <v>0.9931163247934549</v>
+        <v>0.9982268970374323</v>
       </c>
       <c r="R8">
-        <v>0.9939356580361506</v>
+        <v>0.9983060367018779</v>
       </c>
       <c r="S8">
-        <v>0.9937878007416657</v>
+        <v>0.9981588268876164</v>
       </c>
       <c r="T8">
-        <v>0.9929570740398799</v>
+        <v>0.9982268970374323</v>
       </c>
       <c r="U8">
-        <v>0.9931163247934549</v>
+        <v>0.9982268970374323</v>
       </c>
       <c r="V8">
-        <v>0.9931163247935345</v>
+        <v>0.9982268971219996</v>
       </c>
       <c r="W8">
-        <v>0.9931163247935345</v>
+        <v>0.9982268971219996</v>
       </c>
       <c r="X8">
-        <v>0.009421009364003991</v>
+        <v>0.009784020261050798</v>
       </c>
       <c r="Y8">
-        <v>33.87448529501837</v>
+        <v>17.75430957503172</v>
       </c>
       <c r="Z8">
-        <v>4.81941916681012E-05</v>
+        <v>1.323905135641561E-05</v>
       </c>
       <c r="AA8">
-        <v>0.0002883930242365102</v>
+        <v>0.0004128927449965187</v>
       </c>
       <c r="AB8">
-        <v>0.8478390559796257</v>
+        <v>0.7492447297084314</v>
       </c>
       <c r="AC8">
-        <v>6.038180944692917E-08</v>
+        <v>4.715488385962502E-08</v>
       </c>
       <c r="AD8">
-        <v>0.002242707333416664</v>
+        <v>0.002850547044729921</v>
       </c>
       <c r="AE8">
-        <v>11.37260186968763</v>
+        <v>8.380248176347409</v>
       </c>
       <c r="AF8">
-        <v>2.716057539014832E-05</v>
+        <v>1.474799749440637E-05</v>
       </c>
       <c r="AG8">
-        <v>0.00398952986506022</v>
+        <v>0.005706626336624279</v>
       </c>
       <c r="AH8">
-        <v>14.34488232910345</v>
+        <v>13.12878458417602</v>
       </c>
       <c r="AI8">
-        <v>4.321288629752316E-05</v>
+        <v>3.619664677811593E-05</v>
       </c>
       <c r="AJ8">
-        <v>0.0008290682223578069</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>1.504446381530783</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>9.506107442583313E-07</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.002071310918932698</v>
+        <v>0.000648788284120003</v>
       </c>
       <c r="AN8">
-        <v>10.50346341600962</v>
+        <v>3.289957072452205</v>
       </c>
       <c r="AO8">
-        <v>4.633555236720731E-06</v>
+        <v>4.546003366203604E-07</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.000165165850582822</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.8375437281355584</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.946213885468671E-08</v>
       </c>
       <c r="AS8">
-        <v>0.001098583371028086</v>
+        <v>8.884420722182187E-05</v>
       </c>
       <c r="AT8">
-        <v>5.570834461190298</v>
+        <v>0.4505223584490284</v>
       </c>
       <c r="AU8">
-        <v>6.517181284736292E-07</v>
+        <v>4.262378304713125E-09</v>
       </c>
       <c r="AV8">
-        <v>0.0009198044104400541</v>
+        <v>8.884420722182187E-05</v>
       </c>
       <c r="AW8">
-        <v>4.664259666008799</v>
+        <v>0.4505223584490284</v>
       </c>
       <c r="AX8">
-        <v>4.568616828711305E-07</v>
+        <v>4.262378304713125E-09</v>
       </c>
       <c r="AY8">
-        <v>0.0009198044104400541</v>
+        <v>8.884420722182187E-05</v>
       </c>
       <c r="AZ8">
-        <v>4.664259666008799</v>
+        <v>0.4505223584490284</v>
       </c>
       <c r="BA8">
-        <v>4.568616828711305E-07</v>
+        <v>4.262378304713125E-09</v>
       </c>
       <c r="BB8">
-        <v>0.0001659883726131667</v>
+        <v>0.0001652614947886529</v>
       </c>
       <c r="BC8">
-        <v>0.8417146760968809</v>
+        <v>0.8380287327805473</v>
       </c>
       <c r="BD8">
-        <v>1.487815551509187E-08</v>
+        <v>1.47481352962708E-08</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF8">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG8">
         <v>0.0001</v>
@@ -2904,106 +2904,106 @@
         <v>0</v>
       </c>
       <c r="BL8">
-        <v>-0.0001633093850831914</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>49.86390884576401</v>
+        <v>50</v>
       </c>
       <c r="BN8">
-        <v>0.002042888939731316</v>
+        <v>0.0033</v>
       </c>
       <c r="BO8">
-        <v>0.003981071649698356</v>
+        <v>0.006599999999999999</v>
       </c>
       <c r="BP8">
-        <v>0.01310400245621441</v>
+        <v>0.01356716977685263</v>
       </c>
       <c r="BQ8">
-        <v>11.42236681392665</v>
+        <v>11.86249641719226</v>
       </c>
       <c r="BR8">
-        <v>-0.001681635642287765</v>
+        <v>0.001704673359660363</v>
       </c>
       <c r="BS8">
-        <v>0.000348122271872632</v>
+        <v>0.0005</v>
       </c>
       <c r="BT8">
-        <v>-0.4082734627079785</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>-0.0005114316569558234</v>
+        <v>0.0005</v>
       </c>
       <c r="BV8">
-        <v>0.002680504746433286</v>
+        <v>0.0034375</v>
       </c>
       <c r="BW8">
-        <v>14.59206385522368</v>
+        <v>30</v>
       </c>
       <c r="BX8">
-        <v>-0.0006376158067019698</v>
+        <v>0.0001375</v>
       </c>
       <c r="BY8">
-        <v>0.004773426139689471</v>
+        <v>0.006874999999999999</v>
       </c>
       <c r="BZ8">
-        <v>11.05853236027321</v>
+        <v>30</v>
       </c>
       <c r="CA8">
-        <v>-0.0007923544899911148</v>
+        <v>0.0002750000000000001</v>
       </c>
       <c r="CB8">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
       <c r="CD8">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE8">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF8">
         <v>0</v>
       </c>
       <c r="CG8">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI8">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ8">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK8">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL8">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM8">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN8">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO8">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP8">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ8">
-        <v>0.002496101454785061</v>
+        <v>0.0007852815042039908</v>
       </c>
       <c r="CR8">
-        <v>20.78219471056451</v>
+        <v>2.613178578508556</v>
       </c>
       <c r="CS8">
-        <v>-0.0006257039308342548</v>
+        <v>0.0005239636463531352</v>
       </c>
     </row>
     <row r="9" spans="1:97">
@@ -3017,25 +3017,25 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9970715690129974</v>
+        <v>0.99931710586266</v>
       </c>
       <c r="E9">
-        <v>0.9968238434222225</v>
+        <v>0.999222951067725</v>
       </c>
       <c r="F9">
-        <v>0.9854877128809667</v>
+        <v>0.9950517401378013</v>
       </c>
       <c r="G9">
-        <v>0.9865169606192339</v>
+        <v>0.9940878490779784</v>
       </c>
       <c r="H9">
-        <v>1.001374592882523</v>
+        <v>1.004543119318924</v>
       </c>
       <c r="I9">
-        <v>0.9949179854666524</v>
+        <v>0.9983313314119466</v>
       </c>
       <c r="J9">
-        <v>0.9969241768853742</v>
+        <v>0.9988757934140526</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3053,130 +3053,130 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0.9939403695741107</v>
+        <v>0.9981013035499315</v>
       </c>
       <c r="Q9">
-        <v>0.9939403695739998</v>
+        <v>0.9981013028205772</v>
       </c>
       <c r="R9">
-        <v>0.9949179854666524</v>
+        <v>0.9983313314119469</v>
       </c>
       <c r="S9">
-        <v>0.9944747199741893</v>
+        <v>0.9978895828116153</v>
       </c>
       <c r="T9">
-        <v>0.9939403695739998</v>
+        <v>0.9981013028205772</v>
       </c>
       <c r="U9">
-        <v>0.9939403695739998</v>
+        <v>0.9981013028205772</v>
       </c>
       <c r="V9">
-        <v>0.9939403695741107</v>
+        <v>0.9981013035499315</v>
       </c>
       <c r="W9">
-        <v>0.9939403695741107</v>
+        <v>0.9981013035499315</v>
       </c>
       <c r="X9">
-        <v>0.006538736425715207</v>
+        <v>0.005986732750865834</v>
       </c>
       <c r="Y9">
-        <v>23.51089170415104</v>
+        <v>10.86366378706147</v>
       </c>
       <c r="Z9">
-        <v>2.321600520642161E-05</v>
+        <v>4.956806016889054E-06</v>
       </c>
       <c r="AA9">
-        <v>0.000413707047782357</v>
+        <v>0.0004127137455621363</v>
       </c>
       <c r="AB9">
-        <v>1.21624645316059</v>
+        <v>0.7489199131926243</v>
       </c>
       <c r="AC9">
-        <v>1.242574565252837E-07</v>
+        <v>4.711400705562172E-08</v>
       </c>
       <c r="AD9">
-        <v>0.002600866510698453</v>
+        <v>0.002849300883648862</v>
       </c>
       <c r="AE9">
-        <v>13.18880038498625</v>
+        <v>8.376584620207794</v>
       </c>
       <c r="AF9">
-        <v>3.652833567495319E-05</v>
+        <v>1.473510567889542E-05</v>
       </c>
       <c r="AG9">
-        <v>0.004713363754841259</v>
+        <v>0.005704126770872515</v>
       </c>
       <c r="AH9">
-        <v>16.9475228220753</v>
+        <v>13.12303403063122</v>
       </c>
       <c r="AI9">
-        <v>6.031589125899978E-05</v>
+        <v>3.616494465551266E-05</v>
       </c>
       <c r="AJ9">
-        <v>0.003772334907982809</v>
+        <v>0.004581492826537482</v>
       </c>
       <c r="AK9">
-        <v>6.845366218592895</v>
+        <v>8.313682902103633</v>
       </c>
       <c r="AL9">
-        <v>1.96807962399943E-05</v>
+        <v>2.902927582662616E-05</v>
       </c>
       <c r="AM9">
-        <v>0.002417667855953304</v>
+        <v>0.001106655558710411</v>
       </c>
       <c r="AN9">
-        <v>12.25981364987583</v>
+        <v>5.611767923778403</v>
       </c>
       <c r="AO9">
-        <v>6.312727290647049E-06</v>
+        <v>1.322661447674409E-06</v>
       </c>
       <c r="AP9">
-        <v>0.0001654661644216822</v>
+        <v>0.0004954286186114985</v>
       </c>
       <c r="AQ9">
-        <v>0.8390665972475577</v>
+        <v>2.512281629602677</v>
       </c>
       <c r="AR9">
-        <v>2.956937569388693E-08</v>
+        <v>2.650854774304164E-07</v>
       </c>
       <c r="AS9">
-        <v>0.001097496553197193</v>
+        <v>0.0002582359677887952</v>
       </c>
       <c r="AT9">
-        <v>5.565323288906936</v>
+        <v>1.309495361403819</v>
       </c>
       <c r="AU9">
-        <v>6.504292895108833E-07</v>
+        <v>3.601034013233956E-08</v>
       </c>
       <c r="AV9">
-        <v>0.001097496553197193</v>
+        <v>0.0002582359677887952</v>
       </c>
       <c r="AW9">
-        <v>5.565323288906936</v>
+        <v>1.309495361403819</v>
       </c>
       <c r="AX9">
-        <v>6.504292895108833E-07</v>
+        <v>3.601034013233956E-08</v>
       </c>
       <c r="AY9">
-        <v>0.001097496553197193</v>
+        <v>0.0002582359677887952</v>
       </c>
       <c r="AZ9">
-        <v>5.565323288906936</v>
+        <v>1.309495361403819</v>
       </c>
       <c r="BA9">
-        <v>6.504292895108833E-07</v>
+        <v>3.601034013233956E-08</v>
       </c>
       <c r="BB9">
-        <v>0.0004976211554923675</v>
+        <v>0.0004959182536689948</v>
       </c>
       <c r="BC9">
-        <v>2.523399820843771</v>
+        <v>2.51476453251532</v>
       </c>
       <c r="BD9">
-        <v>1.3371847977251E-07</v>
+        <v>1.328048537339714E-07</v>
       </c>
       <c r="BE9">
-        <v>0.0002</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="BF9">
         <v>0.00015</v>
@@ -3200,22 +3200,22 @@
         <v>0</v>
       </c>
       <c r="BM9">
-        <v>49.86390884576401</v>
+        <v>50</v>
       </c>
       <c r="BN9">
-        <v>0.002454549680234368</v>
+        <v>0.0033</v>
       </c>
       <c r="BO9">
-        <v>0.004803735018917492</v>
+        <v>0.006599999999999999</v>
       </c>
       <c r="BP9">
-        <v>0.009374512467363498</v>
+        <v>0.008654871655119226</v>
       </c>
       <c r="BQ9">
-        <v>7.927796594648054</v>
+        <v>7.258530639260879</v>
       </c>
       <c r="BR9">
-        <v>-0.001446715872715445</v>
+        <v>0.001396341015858346</v>
       </c>
       <c r="BS9">
         <v>0.0005</v>
@@ -3224,79 +3224,79 @@
         <v>0</v>
       </c>
       <c r="BU9">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV9">
-        <v>0.003107620257828062</v>
+        <v>0.0034375</v>
       </c>
       <c r="BW9">
-        <v>17.53249771595977</v>
+        <v>30</v>
       </c>
       <c r="BX9">
-        <v>-0.0006530705775936937</v>
+        <v>0.0001375</v>
       </c>
       <c r="BY9">
-        <v>0.005637598999602245</v>
+        <v>0.006874999999999999</v>
       </c>
       <c r="BZ9">
-        <v>13.34370838588192</v>
+        <v>30</v>
       </c>
       <c r="CA9">
-        <v>-0.0008338639806847537</v>
+        <v>0.0002750000000000001</v>
       </c>
       <c r="CB9">
-        <v>-0.00229</v>
+        <v>-0.00279</v>
       </c>
       <c r="CC9">
-        <v>-7.5</v>
+        <v>-10</v>
       </c>
       <c r="CD9">
-        <v>-0.0007099999999999997</v>
+        <v>0.0002099999999999997</v>
       </c>
       <c r="CE9">
-        <v>-0.00229</v>
+        <v>-0.00279</v>
       </c>
       <c r="CF9">
-        <v>-7.5</v>
+        <v>-10</v>
       </c>
       <c r="CG9">
-        <v>-0.0007099999999999997</v>
+        <v>0.0002099999999999997</v>
       </c>
       <c r="CH9">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CI9">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CJ9">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CK9">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CL9">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CM9">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CN9">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CO9">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CP9">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CQ9">
-        <v>0.002916369754714513</v>
+        <v>0.001339509646150798</v>
       </c>
       <c r="CR9">
-        <v>25.3995108232249</v>
+        <v>7.68990835874131</v>
       </c>
       <c r="CS9">
-        <v>-0.0006304137806242725</v>
+        <v>0.0005705188102766673</v>
       </c>
     </row>
     <row r="10" spans="1:97">
@@ -3310,25 +3310,25 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.001973828427756</v>
+        <v>0.99832462099199</v>
       </c>
       <c r="E10">
-        <v>1.002110679932365</v>
+        <v>0.998230372574753</v>
       </c>
       <c r="F10">
-        <v>1.000137345967338</v>
+        <v>0.9856046200661572</v>
       </c>
       <c r="G10">
-        <v>1.001051328890416</v>
+        <v>0.986715243170082</v>
       </c>
       <c r="H10">
-        <v>1.011507487315964</v>
+        <v>1.008899369539731</v>
       </c>
       <c r="I10">
-        <v>0.9992787967467386</v>
+        <v>0.9969372244203968</v>
       </c>
       <c r="J10">
-        <v>1.001680443892985</v>
+        <v>0.9975881508595833</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -3346,133 +3346,133 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0.9978299647822112</v>
+        <v>0.996557207918313</v>
       </c>
       <c r="Q10">
-        <v>0.9981470089698714</v>
+        <v>0.9965572079183088</v>
       </c>
       <c r="R10">
-        <v>0.9992787967467386</v>
+        <v>0.9969372244203968</v>
       </c>
       <c r="S10">
-        <v>0.9985430308813367</v>
+        <v>0.996199727855491</v>
       </c>
       <c r="T10">
-        <v>0.9978299647821629</v>
+        <v>0.9965572079183088</v>
       </c>
       <c r="U10">
-        <v>0.9981470089698714</v>
+        <v>0.9965572079183088</v>
       </c>
       <c r="V10">
-        <v>0.9981470089699197</v>
+        <v>0.996557207918313</v>
       </c>
       <c r="W10">
-        <v>0.9981470089699197</v>
+        <v>0.996557207918313</v>
       </c>
       <c r="X10">
-        <v>0.004407255590438433</v>
+        <v>0.01468755672209166</v>
       </c>
       <c r="Y10">
-        <v>15.84687042771853</v>
+        <v>26.65238030862859</v>
       </c>
       <c r="Z10">
-        <v>1.054717869882101E-05</v>
+        <v>2.983467379686147E-05</v>
       </c>
       <c r="AA10">
-        <v>0.0002285449467664847</v>
+        <v>0.0004131241252033861</v>
       </c>
       <c r="AB10">
-        <v>0.671893269361816</v>
+        <v>0.7496645975861188</v>
       </c>
       <c r="AC10">
-        <v>3.792100749475677E-08</v>
+        <v>4.720774874537956E-08</v>
       </c>
       <c r="AD10">
-        <v>0.0004123364166771419</v>
+        <v>0.008497069704190646</v>
       </c>
       <c r="AE10">
-        <v>2.090927261605181</v>
+        <v>24.98031141934271</v>
       </c>
       <c r="AF10">
-        <v>9.181151307979417E-07</v>
+        <v>0.0001310433513075412</v>
       </c>
       <c r="AG10">
-        <v>0.0004119599440302922</v>
+        <v>0.01266362803622631</v>
       </c>
       <c r="AH10">
-        <v>1.481256469132707</v>
+        <v>29.13420902902434</v>
       </c>
       <c r="AI10">
-        <v>4.607653527428576E-07</v>
+        <v>0.0001782484485068469</v>
       </c>
       <c r="AJ10">
-        <v>0.008357879322838324</v>
+        <v>0.009270572113786898</v>
       </c>
       <c r="AK10">
-        <v>15.16640122661513</v>
+        <v>16.82259468544391</v>
       </c>
       <c r="AL10">
-        <v>9.660828499000185E-05</v>
+        <v>0.0001188598706193048</v>
       </c>
       <c r="AM10">
-        <v>0.003025511351547152</v>
+        <v>0.001557526802381991</v>
       </c>
       <c r="AN10">
-        <v>15.342142748937</v>
+        <v>7.898102423321046</v>
       </c>
       <c r="AO10">
-        <v>9.88601645340783E-06</v>
+        <v>2.619960919349228E-06</v>
       </c>
       <c r="AP10">
-        <v>0.0003293609669115135</v>
+        <v>0.0008267801678795197</v>
       </c>
       <c r="AQ10">
-        <v>1.670164935160582</v>
+        <v>4.192540659651199</v>
       </c>
       <c r="AR10">
-        <v>1.171569382467938E-07</v>
+        <v>7.382506816788845E-07</v>
       </c>
       <c r="AS10">
-        <v>0.001626495742585563</v>
+        <v>0.0004266162245664751</v>
       </c>
       <c r="AT10">
-        <v>8.247838782864038</v>
+        <v>2.163339103971436</v>
       </c>
       <c r="AU10">
-        <v>1.428563736350502E-06</v>
+        <v>9.828075765418382E-08</v>
       </c>
       <c r="AV10">
-        <v>0.001270573845410619</v>
+        <v>0.0004266162245664751</v>
       </c>
       <c r="AW10">
-        <v>6.442985348373343</v>
+        <v>2.163339103971436</v>
       </c>
       <c r="AX10">
-        <v>8.717532641864308E-07</v>
+        <v>9.828075765418382E-08</v>
       </c>
       <c r="AY10">
-        <v>0.001270573845410619</v>
+        <v>0.0004266162245664751</v>
       </c>
       <c r="AZ10">
-        <v>6.442985348373343</v>
+        <v>2.163339103971436</v>
       </c>
       <c r="BA10">
-        <v>8.717532641864308E-07</v>
+        <v>9.828075765418382E-08</v>
       </c>
       <c r="BB10">
-        <v>0.000825989539764539</v>
+        <v>0.0008279324672009651</v>
       </c>
       <c r="BC10">
-        <v>4.188531443359496</v>
+        <v>4.198383883696641</v>
       </c>
       <c r="BD10">
-        <v>3.684197086922195E-07</v>
+        <v>3.701549719326101E-07</v>
       </c>
       <c r="BE10">
-        <v>0.0004</v>
+        <v>0.001</v>
       </c>
       <c r="BF10">
-        <v>0.00045</v>
+        <v>0.00025</v>
       </c>
       <c r="BG10">
         <v>0.0005</v>
@@ -3490,106 +3490,106 @@
         <v>0.006</v>
       </c>
       <c r="BL10">
-        <v>-0.0008362160029473827</v>
+        <v>0</v>
       </c>
       <c r="BM10">
-        <v>49.16706217664119</v>
+        <v>50</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>0.009899999999999999</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>0.01477111455182448</v>
       </c>
       <c r="BP10">
-        <v>-0.004119467483582149</v>
+        <v>0.01975994719080989</v>
       </c>
       <c r="BQ10">
-        <v>-5.343513423206611</v>
+        <v>17.8077161372063</v>
       </c>
       <c r="BR10">
-        <v>-0.001224045939624462</v>
+        <v>0.001952231053603586</v>
       </c>
       <c r="BS10">
-        <v>-0.0002776808827410659</v>
+        <v>0.0005</v>
       </c>
       <c r="BT10">
-        <v>-2.090540007368457</v>
+        <v>0</v>
       </c>
       <c r="BU10">
-        <v>-0.0005585351202063168</v>
+        <v>0.0005</v>
       </c>
       <c r="BV10">
-        <v>0.0005</v>
+        <v>0.01015384615384615</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BX10">
-        <v>-0.0005</v>
+        <v>0.0002538461538461548</v>
       </c>
       <c r="BY10">
-        <v>0.0005</v>
+        <v>0.01514986107879434</v>
       </c>
       <c r="BZ10">
-        <v>0</v>
+        <v>67.14142978102039</v>
       </c>
       <c r="CA10">
-        <v>-0.0005</v>
+        <v>0.0003787465269698594</v>
       </c>
       <c r="CB10">
-        <v>-0.005124999999999999</v>
+        <v>-0.005670000000000001</v>
       </c>
       <c r="CC10">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="CD10">
-        <v>-0.0008750000000000008</v>
+        <v>0.0003299999999999996</v>
       </c>
       <c r="CE10">
-        <v>-0.005124999999999999</v>
+        <v>-0.005670000000000001</v>
       </c>
       <c r="CF10">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="CG10">
-        <v>-0.0008750000000000008</v>
+        <v>0.0003299999999999996</v>
       </c>
       <c r="CH10">
-        <v>0.0009838709677419356</v>
+        <v>0.0002577319587628866</v>
       </c>
       <c r="CI10">
-        <v>5.000000000000001</v>
+        <v>50</v>
       </c>
       <c r="CJ10">
-        <v>-0.0005338709677419355</v>
+        <v>7.731958762886599E-06</v>
       </c>
       <c r="CK10">
-        <v>0.0007688172043010753</v>
+        <v>0.0002577319587628866</v>
       </c>
       <c r="CL10">
-        <v>2.777777777777778</v>
+        <v>50</v>
       </c>
       <c r="CM10">
-        <v>-0.0005188172043010753</v>
+        <v>7.731958762886599E-06</v>
       </c>
       <c r="CN10">
-        <v>0.0007688172043010753</v>
+        <v>0.0002577319587628866</v>
       </c>
       <c r="CO10">
-        <v>2.777777777777778</v>
+        <v>50</v>
       </c>
       <c r="CP10">
-        <v>-0.0005188172043010753</v>
+        <v>7.731958762886599E-06</v>
       </c>
       <c r="CQ10">
-        <v>0.003665592020962942</v>
+        <v>0.001882617140985476</v>
       </c>
       <c r="CR10">
-        <v>33.61162073686113</v>
+        <v>12.73860873533555</v>
       </c>
       <c r="CS10">
-        <v>-0.0006405461546454406</v>
+        <v>0.0006087562674519215</v>
       </c>
     </row>
     <row r="11" spans="1:97">
@@ -3603,25 +3603,25 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.007557162252458</v>
+        <v>0.9996657459739109</v>
       </c>
       <c r="E11">
-        <v>1.007312015990337</v>
+        <v>0.9995716240216744</v>
       </c>
       <c r="F11">
-        <v>1.005730893709485</v>
+        <v>0.9876776261829464</v>
       </c>
       <c r="G11">
-        <v>1.006639784057815</v>
+        <v>0.9861464972524011</v>
       </c>
       <c r="H11">
-        <v>1.032979294010271</v>
+        <v>1.026340855852132</v>
       </c>
       <c r="I11">
-        <v>1.004560128097364</v>
+        <v>0.9978916505912544</v>
       </c>
       <c r="J11">
-        <v>1.006827450446105</v>
+        <v>0.9986357694198276</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3639,133 +3639,133 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>1.003118935135946</v>
+        <v>0.9973627833263013</v>
       </c>
       <c r="Q11">
-        <v>1.003276644350565</v>
+        <v>0.997362783326291</v>
       </c>
       <c r="R11">
-        <v>1.004560128097364</v>
+        <v>0.9978916505912544</v>
       </c>
       <c r="S11">
-        <v>1.003535180045786</v>
+        <v>0.9968598391097608</v>
       </c>
       <c r="T11">
-        <v>1.003118935136403</v>
+        <v>0.997362783326291</v>
       </c>
       <c r="U11">
-        <v>1.003276644350565</v>
+        <v>0.997362783326291</v>
       </c>
       <c r="V11">
-        <v>1.003276644350108</v>
+        <v>0.9973627833263013</v>
       </c>
       <c r="W11">
-        <v>1.003276644350108</v>
+        <v>0.9973627833263013</v>
       </c>
       <c r="X11">
-        <v>0.01687398211346165</v>
+        <v>0.002930307079352846</v>
       </c>
       <c r="Y11">
-        <v>60.67263462817819</v>
+        <v>5.317403035625965</v>
       </c>
       <c r="Z11">
-        <v>0.0001546090808944266</v>
+        <v>1.1875405518183E-06</v>
       </c>
       <c r="AA11">
-        <v>0.0004093995136314697</v>
+        <v>0.0004125697844066882</v>
       </c>
       <c r="AB11">
-        <v>1.20358284696638</v>
+        <v>0.7486586779485825</v>
       </c>
       <c r="AC11">
-        <v>1.216833802388526E-07</v>
+        <v>4.708114454961103E-08</v>
       </c>
       <c r="AD11">
-        <v>0.0004100431357938156</v>
+        <v>0.008008166829543089</v>
       </c>
       <c r="AE11">
-        <v>2.079298205030196</v>
+        <v>23.54299873536125</v>
       </c>
       <c r="AF11">
-        <v>9.079310153428059E-07</v>
+        <v>0.0001163972857851758</v>
       </c>
       <c r="AG11">
-        <v>0.0004096729097662143</v>
+        <v>0.01474693474230396</v>
       </c>
       <c r="AH11">
-        <v>1.473033134927806</v>
+        <v>33.92710825765024</v>
       </c>
       <c r="AI11">
-        <v>4.556635894850192E-07</v>
+        <v>0.0002417202216925263</v>
       </c>
       <c r="AJ11">
-        <v>0.0222868378082931</v>
+        <v>0.02338528700259803</v>
       </c>
       <c r="AK11">
-        <v>40.44221162052872</v>
+        <v>42.43548294742593</v>
       </c>
       <c r="AL11">
-        <v>0.0006869404419190435</v>
+        <v>0.0007563234894521348</v>
       </c>
       <c r="AM11">
-        <v>0.003364547037082919</v>
+        <v>0.001991644757559455</v>
       </c>
       <c r="AN11">
-        <v>17.06136746174912</v>
+        <v>10.09948224455471</v>
       </c>
       <c r="AO11">
-        <v>1.222579090592348E-05</v>
+        <v>4.283980747538628E-06</v>
       </c>
       <c r="AP11">
-        <v>0.0008191930985565291</v>
+        <v>0.001156277968142631</v>
       </c>
       <c r="AQ11">
-        <v>4.154067196135725</v>
+        <v>5.86339946654753</v>
       </c>
       <c r="AR11">
-        <v>7.247635193405409E-07</v>
+        <v>1.44393703878083E-06</v>
       </c>
       <c r="AS11">
-        <v>0.001617920002154412</v>
+        <v>0.0005937198901513404</v>
       </c>
       <c r="AT11">
-        <v>8.204351841787034</v>
+        <v>3.010709347670116</v>
       </c>
       <c r="AU11">
-        <v>1.413539172020421E-06</v>
+        <v>1.903517862991569E-07</v>
       </c>
       <c r="AV11">
-        <v>0.001440871613056615</v>
+        <v>0.0005937198901513404</v>
       </c>
       <c r="AW11">
-        <v>7.306552645754036</v>
+        <v>3.010709347670116</v>
       </c>
       <c r="AX11">
-        <v>1.121099942868629E-06</v>
+        <v>1.903517862991569E-07</v>
       </c>
       <c r="AY11">
-        <v>0.001440871613056615</v>
+        <v>0.0005937198901513404</v>
       </c>
       <c r="AZ11">
-        <v>7.306552645754036</v>
+        <v>3.010709347670116</v>
       </c>
       <c r="BA11">
-        <v>1.121099942868629E-06</v>
+        <v>1.903517862991569E-07</v>
       </c>
       <c r="BB11">
-        <v>0.001150632842885364</v>
+        <v>0.001158337904486745</v>
       </c>
       <c r="BC11">
-        <v>5.834773456769604</v>
+        <v>5.873845250341721</v>
       </c>
       <c r="BD11">
-        <v>7.149362071281725E-07</v>
+        <v>7.24543218524323E-07</v>
       </c>
       <c r="BE11">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
       <c r="BF11">
-        <v>0.00045</v>
+        <v>0.00035</v>
       </c>
       <c r="BG11">
         <v>0.0007</v>
@@ -3786,22 +3786,22 @@
         <v>0</v>
       </c>
       <c r="BM11">
-        <v>49.16706217664119</v>
+        <v>50</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.009349999999999999</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.01719121128521527</v>
       </c>
       <c r="BP11">
-        <v>-0.01849746613333915</v>
+        <v>0.004670224215712806</v>
       </c>
       <c r="BQ11">
-        <v>-20.45861604136313</v>
+        <v>3.55280852061291</v>
       </c>
       <c r="BR11">
-        <v>-0.001961149908023985</v>
+        <v>0.001117415695099896</v>
       </c>
       <c r="BS11">
         <v>0.0005</v>
@@ -3810,79 +3810,79 @@
         <v>0</v>
       </c>
       <c r="BU11">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV11">
-        <v>0.0005</v>
+        <v>0.009589743589743589</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BX11">
-        <v>-0.0005</v>
+        <v>0.0002397435897435896</v>
       </c>
       <c r="BY11">
-        <v>0.0005</v>
+        <v>0.01763201157457977</v>
       </c>
       <c r="BZ11">
-        <v>0</v>
+        <v>78.14186947825122</v>
       </c>
       <c r="CA11">
-        <v>-0.0005</v>
+        <v>0.0004408002893644958</v>
       </c>
       <c r="CB11">
-        <v>-0.01395625</v>
+        <v>-0.01455</v>
       </c>
       <c r="CC11">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="CD11">
-        <v>-0.001043750000000001</v>
+        <v>0.0004500000000000007</v>
       </c>
       <c r="CE11">
-        <v>-0.01395625</v>
+        <v>-0.01455</v>
       </c>
       <c r="CF11">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="CG11">
-        <v>-0.001043750000000001</v>
+        <v>0.0004500000000000007</v>
       </c>
       <c r="CH11">
-        <v>0.0009838709677419356</v>
+        <v>0.000358974358974359</v>
       </c>
       <c r="CI11">
-        <v>5.000000000000001</v>
+        <v>70</v>
       </c>
       <c r="CJ11">
-        <v>-0.0005338709677419355</v>
+        <v>8.974358974358999E-06</v>
       </c>
       <c r="CK11">
-        <v>0.0008763440860215054</v>
+        <v>0.000358974358974359</v>
       </c>
       <c r="CL11">
-        <v>3.888888888888889</v>
+        <v>70</v>
       </c>
       <c r="CM11">
-        <v>-0.0005263440860215054</v>
+        <v>8.974358974358999E-06</v>
       </c>
       <c r="CN11">
-        <v>0.0008763440860215054</v>
+        <v>0.000358974358974359</v>
       </c>
       <c r="CO11">
-        <v>3.888888888888889</v>
+        <v>70</v>
       </c>
       <c r="CP11">
-        <v>-0.0005263440860215054</v>
+        <v>8.974358974358999E-06</v>
       </c>
       <c r="CQ11">
-        <v>0.004097898603413059</v>
+        <v>0.002409649819877027</v>
       </c>
       <c r="CR11">
-        <v>38.23255350055369</v>
+        <v>17.78218675500499</v>
       </c>
       <c r="CS11">
-        <v>-0.0006569687883632271</v>
+        <v>0.0006314311443765285</v>
       </c>
     </row>
     <row r="12" spans="1:97">
@@ -3896,25 +3896,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.011396395375373</v>
+        <v>1.000683903915773</v>
       </c>
       <c r="E12">
-        <v>1.011152180132244</v>
+        <v>1.000589877747065</v>
       </c>
       <c r="F12">
-        <v>1.009577084376428</v>
+        <v>0.9894208465891161</v>
       </c>
       <c r="G12">
-        <v>1.010482505840003</v>
+        <v>0.9868530919096981</v>
       </c>
       <c r="H12">
-        <v>1.047148196150712</v>
+        <v>1.037806832173401</v>
       </c>
       <c r="I12">
-        <v>1.008252982297043</v>
+        <v>0.9987189295230707</v>
       </c>
       <c r="J12">
-        <v>1.010378389210988</v>
+        <v>0.9995078148581319</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3932,133 +3932,133 @@
         <v>1</v>
       </c>
       <c r="P12">
-        <v>1.006817082992346</v>
+        <v>0.9981149652839741</v>
       </c>
       <c r="Q12">
-        <v>1.006895653359303</v>
+        <v>0.9981149652839634</v>
       </c>
       <c r="R12">
-        <v>1.008252982297043</v>
+        <v>0.9987189295230707</v>
       </c>
       <c r="S12">
-        <v>1.007085742853334</v>
+        <v>0.9975405210500887</v>
       </c>
       <c r="T12">
-        <v>1.006817082993348</v>
+        <v>0.9981149652839634</v>
       </c>
       <c r="U12">
-        <v>1.006895653359303</v>
+        <v>0.9981149652839634</v>
       </c>
       <c r="V12">
-        <v>1.006895653358301</v>
+        <v>0.9981149652839741</v>
       </c>
       <c r="W12">
-        <v>1.006895653358301</v>
+        <v>0.9981149652839741</v>
       </c>
       <c r="X12">
-        <v>0.02544639975930523</v>
+        <v>0.005995585182429299</v>
       </c>
       <c r="Y12">
-        <v>91.4958961564385</v>
+        <v>10.87972761422822</v>
       </c>
       <c r="Z12">
-        <v>0.0003516029585657297</v>
+        <v>4.971475864311813E-06</v>
       </c>
       <c r="AA12">
-        <v>0.0004078446919534653</v>
+        <v>0.0004121499313480022</v>
       </c>
       <c r="AB12">
-        <v>1.199011867667606</v>
+        <v>0.7478968028725864</v>
       </c>
       <c r="AC12">
-        <v>1.207608745398521E-07</v>
+        <v>4.698536873080309E-08</v>
       </c>
       <c r="AD12">
-        <v>0.0004084809924923849</v>
+        <v>0.007523818885306681</v>
       </c>
       <c r="AE12">
-        <v>2.071376692683998</v>
+        <v>22.11907697132338</v>
       </c>
       <c r="AF12">
-        <v>9.010262946288925E-07</v>
+        <v>0.0001027432488732993</v>
       </c>
       <c r="AG12">
-        <v>0.0004081149817445422</v>
+        <v>0.01508679115890137</v>
       </c>
       <c r="AH12">
-        <v>1.467431398657118</v>
+        <v>34.70898907827128</v>
       </c>
       <c r="AI12">
-        <v>4.522045310505858E-07</v>
+        <v>0.0002529899237954693</v>
       </c>
       <c r="AJ12">
-        <v>0.03134255588103872</v>
+        <v>0.03254458315803468</v>
       </c>
       <c r="AK12">
-        <v>56.87492719122071</v>
+        <v>59.05615370384106</v>
       </c>
       <c r="AL12">
-        <v>0.001358598084062794</v>
+        <v>0.001464804301922515</v>
       </c>
       <c r="AM12">
-        <v>0.003528875752399306</v>
+        <v>0.002205930406122683</v>
       </c>
       <c r="AN12">
-        <v>17.89466613929141</v>
+        <v>11.18610881021754</v>
       </c>
       <c r="AO12">
-        <v>1.344920120194184E-05</v>
+        <v>5.255419273189534E-06</v>
       </c>
       <c r="AP12">
-        <v>0.001142839703142231</v>
+        <v>0.001320307593928012</v>
       </c>
       <c r="AQ12">
-        <v>5.795255025499984</v>
+        <v>6.69518148335178</v>
       </c>
       <c r="AR12">
-        <v>1.410569194044628E-06</v>
+        <v>1.882669113990702E-06</v>
       </c>
       <c r="AS12">
-        <v>0.001611977207395517</v>
+        <v>0.0006780256700575362</v>
       </c>
       <c r="AT12">
-        <v>8.174216372134278</v>
+        <v>3.43821767918568</v>
       </c>
       <c r="AU12">
-        <v>1.403174079267792E-06</v>
+        <v>2.482481569986953E-07</v>
       </c>
       <c r="AV12">
-        <v>0.001523772109189545</v>
+        <v>0.0006780256700575362</v>
       </c>
       <c r="AW12">
-        <v>7.726934887909138</v>
+        <v>3.43821767918568</v>
       </c>
       <c r="AX12">
-        <v>1.253815978001743E-06</v>
+        <v>2.482481569986953E-07</v>
       </c>
       <c r="AY12">
-        <v>0.001523772109189545</v>
+        <v>0.0006780256700575362</v>
       </c>
       <c r="AZ12">
-        <v>7.726934887909138</v>
+        <v>3.43821767918568</v>
       </c>
       <c r="BA12">
-        <v>1.253815978001743E-06</v>
+        <v>2.482481569986953E-07</v>
       </c>
       <c r="BB12">
-        <v>0.001310372791455558</v>
+        <v>0.001322911428789165</v>
       </c>
       <c r="BC12">
-        <v>6.644802839874889</v>
+        <v>6.708385336020864</v>
       </c>
       <c r="BD12">
-        <v>9.272215003969762E-07</v>
+        <v>9.450511101472816E-07</v>
       </c>
       <c r="BE12">
-        <v>0.0014</v>
+        <v>0.0016</v>
       </c>
       <c r="BF12">
-        <v>0.00045</v>
+        <v>0.0004</v>
       </c>
       <c r="BG12">
         <v>0.0008</v>
@@ -4079,22 +4079,22 @@
         <v>0</v>
       </c>
       <c r="BM12">
-        <v>49.16706217664119</v>
+        <v>50</v>
       </c>
       <c r="BN12">
-        <v>0</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="BO12">
-        <v>0</v>
+        <v>0.0176</v>
       </c>
       <c r="BP12">
-        <v>-0.02878118011118808</v>
+        <v>-0.00591041245565445</v>
       </c>
       <c r="BQ12">
-        <v>-30.8521200583499</v>
+        <v>-7.269260705004784</v>
       </c>
       <c r="BR12">
-        <v>-0.002070939947161825</v>
+        <v>0.001358848249350335</v>
       </c>
       <c r="BS12">
         <v>0.0005</v>
@@ -4103,79 +4103,79 @@
         <v>0</v>
       </c>
       <c r="BU12">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV12">
-        <v>0.0005</v>
+        <v>0.009025641025641027</v>
       </c>
       <c r="BW12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX12">
-        <v>-0.0005</v>
+        <v>0.0002256410256410261</v>
       </c>
       <c r="BY12">
-        <v>0.0005</v>
+        <v>0.01805128205128205</v>
       </c>
       <c r="BZ12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="CA12">
-        <v>-0.0005</v>
+        <v>0.0004512820512820523</v>
       </c>
       <c r="CB12">
-        <v>-0.01989625</v>
+        <v>-0.020475</v>
       </c>
       <c r="CC12">
-        <v>-52.49999999999999</v>
+        <v>-70</v>
       </c>
       <c r="CD12">
-        <v>-0.001103750000000001</v>
+        <v>0.0005250000000000012</v>
       </c>
       <c r="CE12">
-        <v>-0.01989625</v>
+        <v>-0.020475</v>
       </c>
       <c r="CF12">
-        <v>-52.49999999999999</v>
+        <v>-70</v>
       </c>
       <c r="CG12">
-        <v>-0.001103750000000001</v>
+        <v>0.0005250000000000012</v>
       </c>
       <c r="CH12">
-        <v>0.0009838709677419356</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CI12">
-        <v>5.000000000000001</v>
+        <v>80</v>
       </c>
       <c r="CJ12">
-        <v>-0.0005338709677419355</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CK12">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CL12">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CM12">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CN12">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CO12">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CP12">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CQ12">
-        <v>0.004313845136925377</v>
+        <v>0.002671122193860627</v>
       </c>
       <c r="CR12">
-        <v>40.5436005449005</v>
+        <v>20.32459026350374</v>
       </c>
       <c r="CS12">
-        <v>-0.0006649210878843328</v>
+        <v>0.0006386631675102529</v>
       </c>
     </row>
     <row r="13" spans="1:97">
@@ -4189,25 +4189,25 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.013339339178282</v>
+        <v>1.001356057240403</v>
       </c>
       <c r="E13">
-        <v>1.013095592411081</v>
+        <v>1.00126209419796</v>
       </c>
       <c r="F13">
-        <v>1.011523529025376</v>
+        <v>0.9908117640536036</v>
       </c>
       <c r="G13">
-        <v>1.012427205068146</v>
+        <v>0.9884100964358095</v>
       </c>
       <c r="H13">
-        <v>1.054212856824384</v>
+        <v>1.0435488165962</v>
       </c>
       <c r="I13">
-        <v>1.010202004925278</v>
+        <v>0.9993924087370296</v>
       </c>
       <c r="J13">
-        <v>1.012177972070383</v>
+        <v>1.000180759482536</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4225,133 +4225,133 @@
         <v>1</v>
       </c>
       <c r="P13">
-        <v>1.008768883847849</v>
+        <v>0.9987888537419755</v>
       </c>
       <c r="Q13">
-        <v>1.00884730178516</v>
+        <v>0.9987888519949405</v>
       </c>
       <c r="R13">
-        <v>1.010202004925278</v>
+        <v>0.9993924087370346</v>
       </c>
       <c r="S13">
-        <v>1.009037022693865</v>
+        <v>0.9982147962566703</v>
       </c>
       <c r="T13">
-        <v>1.00876888384907</v>
+        <v>0.9987888519949405</v>
       </c>
       <c r="U13">
-        <v>1.00884730178516</v>
+        <v>0.9987888519949405</v>
       </c>
       <c r="V13">
-        <v>1.008847301783939</v>
+        <v>0.9987888537419755</v>
       </c>
       <c r="W13">
-        <v>1.008847301783939</v>
+        <v>0.9987888537419755</v>
       </c>
       <c r="X13">
-        <v>0.02978469472803768</v>
+        <v>0.01188815637631544</v>
       </c>
       <c r="Y13">
-        <v>107.0948095473197</v>
+        <v>21.57252366102759</v>
       </c>
       <c r="Z13">
-        <v>0.0004817105257430218</v>
+        <v>1.954569863843632E-05</v>
       </c>
       <c r="AA13">
-        <v>0.0004070623271076649</v>
+        <v>0.000411873226611001</v>
       </c>
       <c r="AB13">
-        <v>1.196711813864116</v>
+        <v>0.7473946880536757</v>
       </c>
       <c r="AC13">
-        <v>1.202980098970793E-07</v>
+        <v>4.692230085750516E-08</v>
       </c>
       <c r="AD13">
-        <v>0.0004076949646689516</v>
+        <v>0.007043678275816523</v>
       </c>
       <c r="AE13">
-        <v>2.06739080412814</v>
+        <v>20.70752423988917</v>
       </c>
       <c r="AF13">
-        <v>8.975619947686761E-07</v>
+        <v>9.004832763057427E-05</v>
       </c>
       <c r="AG13">
-        <v>0.0004073310627809019</v>
+        <v>0.01412158642055387</v>
       </c>
       <c r="AH13">
-        <v>1.46461271433357</v>
+        <v>32.48841875495021</v>
       </c>
       <c r="AI13">
-        <v>4.504689846274298E-07</v>
+        <v>0.0002216544441713715</v>
       </c>
       <c r="AJ13">
-        <v>0.0358326149479237</v>
+        <v>0.03698915548881942</v>
       </c>
       <c r="AK13">
-        <v>65.02269227721536</v>
+        <v>67.12137750591214</v>
       </c>
       <c r="AL13">
-        <v>0.001775739214610522</v>
+        <v>0.001892217313682283</v>
       </c>
       <c r="AM13">
-        <v>0.003522051507934752</v>
+        <v>0.002204441928920594</v>
       </c>
       <c r="AN13">
-        <v>17.86006090382426</v>
+        <v>11.17856085317507</v>
       </c>
       <c r="AO13">
-        <v>1.339723457050978E-05</v>
+        <v>5.24832935542164E-06</v>
       </c>
       <c r="AP13">
-        <v>0.001303780357392645</v>
+        <v>0.001319419260604729</v>
       </c>
       <c r="AQ13">
-        <v>6.611373097691158</v>
+        <v>6.690676811225041</v>
       </c>
       <c r="AR13">
-        <v>1.835830677948897E-06</v>
+        <v>1.880136560075208E-06</v>
       </c>
       <c r="AS13">
-        <v>0.001608858298308452</v>
+        <v>0.0006775682035097139</v>
       </c>
       <c r="AT13">
-        <v>8.158400616424013</v>
+        <v>3.435897900389952</v>
       </c>
       <c r="AU13">
-        <v>1.397749512979229E-06</v>
+        <v>2.479132820199827E-07</v>
       </c>
       <c r="AV13">
-        <v>0.00152082432175925</v>
+        <v>0.0006775682035097139</v>
       </c>
       <c r="AW13">
-        <v>7.711986877376645</v>
+        <v>3.435897900389952</v>
       </c>
       <c r="AX13">
-        <v>1.248969573533357E-06</v>
+        <v>2.479132820199827E-07</v>
       </c>
       <c r="AY13">
-        <v>0.00152082432175925</v>
+        <v>0.0006775682035097139</v>
       </c>
       <c r="AZ13">
-        <v>7.711986877376645</v>
+        <v>3.435897900389952</v>
       </c>
       <c r="BA13">
-        <v>1.248969573533357E-06</v>
+        <v>2.479132820199827E-07</v>
       </c>
       <c r="BB13">
-        <v>0.001307838787320357</v>
+        <v>0.00132201782715999</v>
       </c>
       <c r="BC13">
-        <v>6.6319530936167</v>
+        <v>6.703853948707284</v>
       </c>
       <c r="BD13">
-        <v>9.236388385544352E-07</v>
+        <v>9.437748130775156E-07</v>
       </c>
       <c r="BE13">
         <v>0.0016</v>
       </c>
       <c r="BF13">
-        <v>0.00045</v>
+        <v>0.0004</v>
       </c>
       <c r="BG13">
         <v>0.0008</v>
@@ -4372,22 +4372,22 @@
         <v>0</v>
       </c>
       <c r="BM13">
-        <v>49.16706217664119</v>
+        <v>50</v>
       </c>
       <c r="BN13">
-        <v>0</v>
+        <v>0.00825</v>
       </c>
       <c r="BO13">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="BP13">
-        <v>-0.03392790097068225</v>
+        <v>-0.01265009439521787</v>
       </c>
       <c r="BQ13">
-        <v>-36.11202313566848</v>
+        <v>-14.41362358256613</v>
       </c>
       <c r="BR13">
-        <v>-0.002184122164986237</v>
+        <v>0.001763529187348262</v>
       </c>
       <c r="BS13">
         <v>0.0005</v>
@@ -4396,79 +4396,79 @@
         <v>0</v>
       </c>
       <c r="BU13">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV13">
-        <v>0.0005</v>
+        <v>0.008461538461538461</v>
       </c>
       <c r="BW13">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="BX13">
-        <v>-0.0005</v>
+        <v>0.0002115384615384609</v>
       </c>
       <c r="BY13">
-        <v>0.0005</v>
+        <v>0.01692307692307692</v>
       </c>
       <c r="BZ13">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="CA13">
-        <v>-0.0005</v>
+        <v>0.0004230769230769219</v>
       </c>
       <c r="CB13">
-        <v>-0.0229</v>
+        <v>-0.0234</v>
       </c>
       <c r="CC13">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="CD13">
-        <v>-0.0011</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="CE13">
-        <v>-0.0229</v>
+        <v>-0.0234</v>
       </c>
       <c r="CF13">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="CG13">
-        <v>-0.0011</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="CH13">
-        <v>0.0009838709677419356</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CI13">
-        <v>5.000000000000001</v>
+        <v>80</v>
       </c>
       <c r="CJ13">
-        <v>-0.0005338709677419355</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CK13">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CL13">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CM13">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CN13">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CO13">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CP13">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CQ13">
-        <v>0.004313825729740213</v>
+        <v>0.002671119860479477</v>
       </c>
       <c r="CR13">
-        <v>40.54339276671086</v>
+        <v>20.32456745428368</v>
       </c>
       <c r="CS13">
-        <v>-0.0006649203807362362</v>
+        <v>0.0006386631150511082</v>
       </c>
     </row>
     <row r="14" spans="1:97">
@@ -4482,25 +4482,25 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.012924543994505</v>
+        <v>1.002022403741091</v>
       </c>
       <c r="E14">
-        <v>1.012680697364307</v>
+        <v>1.00192850319594</v>
       </c>
       <c r="F14">
-        <v>1.002933391175253</v>
+        <v>0.9921947812468015</v>
       </c>
       <c r="G14">
-        <v>1.004563834709131</v>
+        <v>0.9899584048045057</v>
       </c>
       <c r="H14">
-        <v>1.058818313271275</v>
+        <v>1.049232146402859</v>
       </c>
       <c r="I14">
-        <v>1.009785913968375</v>
+        <v>1.000060067902871</v>
       </c>
       <c r="J14">
-        <v>1.011617281847685</v>
+        <v>1.000847889395268</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4518,133 +4518,133 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>1.008352200679837</v>
+        <v>0.9994569144211451</v>
       </c>
       <c r="Q14">
-        <v>1.008430651109083</v>
+        <v>0.99945691459356</v>
       </c>
       <c r="R14">
-        <v>1.009785913968375</v>
+        <v>1.000060067902871</v>
       </c>
       <c r="S14">
-        <v>1.008620450585603</v>
+        <v>0.9988832434743466</v>
       </c>
       <c r="T14">
-        <v>1.008352200681013</v>
+        <v>0.99945691459356</v>
       </c>
       <c r="U14">
-        <v>1.008430651109083</v>
+        <v>0.99945691459356</v>
       </c>
       <c r="V14">
-        <v>1.008430651107907</v>
+        <v>0.9994569144211451</v>
       </c>
       <c r="W14">
-        <v>1.008430651107907</v>
+        <v>0.9994569144211451</v>
       </c>
       <c r="X14">
-        <v>0.0288585208180466</v>
+        <v>0.01772982084664359</v>
       </c>
       <c r="Y14">
-        <v>103.764628747957</v>
+        <v>32.17294318924007</v>
       </c>
       <c r="Z14">
-        <v>0.0004522181235264572</v>
+        <v>4.347412748523932E-05</v>
       </c>
       <c r="AA14">
-        <v>0.000407229100454072</v>
+        <v>0.0004115992788955623</v>
       </c>
       <c r="AB14">
-        <v>1.197202106432582</v>
+        <v>0.7468975761898916</v>
       </c>
       <c r="AC14">
-        <v>1.203966022262585E-07</v>
+        <v>4.685990310279026E-08</v>
       </c>
       <c r="AD14">
-        <v>0.002243264632664808</v>
+        <v>0.006564936107108164</v>
       </c>
       <c r="AE14">
-        <v>11.37542789267199</v>
+        <v>19.30008274767589</v>
       </c>
       <c r="AF14">
-        <v>2.71740755456904E-05</v>
+        <v>7.822357075409903E-05</v>
       </c>
       <c r="AG14">
-        <v>0.0037336358337777</v>
+        <v>0.01315953339670337</v>
       </c>
       <c r="AH14">
-        <v>13.42478149225654</v>
+        <v>30.27509933229463</v>
       </c>
       <c r="AI14">
-        <v>3.784719920411472E-05</v>
+        <v>0.0001924821443118653</v>
       </c>
       <c r="AJ14">
-        <v>0.04023372241268751</v>
+        <v>0.04138739770911325</v>
       </c>
       <c r="AK14">
-        <v>73.00904372759631</v>
+        <v>75.10252961737403</v>
       </c>
       <c r="AL14">
-        <v>0.002238734595727598</v>
+        <v>0.002368963781069988</v>
       </c>
       <c r="AM14">
-        <v>0.003523506175919324</v>
+        <v>0.002202968297515871</v>
       </c>
       <c r="AN14">
-        <v>17.86743741684253</v>
+        <v>11.17108817806545</v>
       </c>
       <c r="AO14">
-        <v>1.340830343348094E-05</v>
+        <v>5.241314865448397E-06</v>
       </c>
       <c r="AP14">
-        <v>0.001467565851826646</v>
+        <v>0.001318539782248809</v>
       </c>
       <c r="AQ14">
-        <v>7.441917142593418</v>
+        <v>6.686217041978355</v>
       </c>
       <c r="AR14">
-        <v>2.326049491803645E-06</v>
+        <v>1.877630929962744E-06</v>
       </c>
       <c r="AS14">
-        <v>0.001609523129664723</v>
+        <v>0.0006771152995699632</v>
       </c>
       <c r="AT14">
-        <v>8.161771926720593</v>
+        <v>3.43360125823997</v>
       </c>
       <c r="AU14">
-        <v>1.398904940659845E-06</v>
+        <v>2.475819696122982E-07</v>
       </c>
       <c r="AV14">
-        <v>0.001521452676789966</v>
+        <v>0.0006771152995699632</v>
       </c>
       <c r="AW14">
-        <v>7.71517321894278</v>
+        <v>3.43360125823997</v>
       </c>
       <c r="AX14">
-        <v>1.250001853764162E-06</v>
+        <v>2.475819696122982E-07</v>
       </c>
       <c r="AY14">
-        <v>0.001521452676789966</v>
+        <v>0.0006771152995699632</v>
       </c>
       <c r="AZ14">
-        <v>7.71517321894278</v>
+        <v>3.43360125823997</v>
       </c>
       <c r="BA14">
-        <v>1.250001853764162E-06</v>
+        <v>2.475819696122982E-07</v>
       </c>
       <c r="BB14">
-        <v>0.001308378940115961</v>
+        <v>0.001321133140050317</v>
       </c>
       <c r="BC14">
-        <v>6.634692168217146</v>
+        <v>6.699367766258224</v>
       </c>
       <c r="BD14">
-        <v>9.24401943507144E-07</v>
+        <v>9.425120978189894E-07</v>
       </c>
       <c r="BE14">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="BF14">
-        <v>0.00045</v>
+        <v>0.0004</v>
       </c>
       <c r="BG14">
         <v>0.0008</v>
@@ -4665,22 +4665,22 @@
         <v>0</v>
       </c>
       <c r="BM14">
-        <v>49.16706217664119</v>
+        <v>50</v>
       </c>
       <c r="BN14">
-        <v>0.002088275233782495</v>
+        <v>0.007699999999999999</v>
       </c>
       <c r="BO14">
-        <v>0.003766946183376069</v>
+        <v>0.0154</v>
       </c>
       <c r="BP14">
-        <v>-0.03282681500670066</v>
+        <v>-0.01951221690817631</v>
       </c>
       <c r="BQ14">
-        <v>-34.98909688496092</v>
+        <v>-21.49626532644679</v>
       </c>
       <c r="BR14">
-        <v>-0.002162281878260258</v>
+        <v>0.001984048418270479</v>
       </c>
       <c r="BS14">
         <v>0.0005</v>
@@ -4689,79 +4689,79 @@
         <v>0</v>
       </c>
       <c r="BU14">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV14">
-        <v>0.002727792100890633</v>
+        <v>0.007897435897435898</v>
       </c>
       <c r="BW14">
-        <v>14.91625166987497</v>
+        <v>70</v>
       </c>
       <c r="BX14">
-        <v>-0.0006395168671081376</v>
+        <v>0.0001974358974358983</v>
       </c>
       <c r="BY14">
-        <v>0.004547452407161669</v>
+        <v>0.0157948717948718</v>
       </c>
       <c r="BZ14">
-        <v>10.46373939826686</v>
+        <v>70</v>
       </c>
       <c r="CA14">
-        <v>-0.0007805062237856001</v>
+        <v>0.0003948717948717966</v>
       </c>
       <c r="CB14">
-        <v>-0.025825</v>
+        <v>-0.026325</v>
       </c>
       <c r="CC14">
-        <v>-67.5</v>
+        <v>-90</v>
       </c>
       <c r="CD14">
-        <v>-0.001175000000000002</v>
+        <v>0.000675000000000002</v>
       </c>
       <c r="CE14">
-        <v>-0.025825</v>
+        <v>-0.026325</v>
       </c>
       <c r="CF14">
-        <v>-67.5</v>
+        <v>-90</v>
       </c>
       <c r="CG14">
-        <v>-0.001175000000000002</v>
+        <v>0.000675000000000002</v>
       </c>
       <c r="CH14">
-        <v>0.0009838709677419356</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CI14">
-        <v>5.000000000000001</v>
+        <v>80</v>
       </c>
       <c r="CJ14">
-        <v>-0.0005338709677419355</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CK14">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CL14">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CM14">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CN14">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CO14">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CP14">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CQ14">
-        <v>0.004313829863455411</v>
+        <v>0.00267111755192581</v>
       </c>
       <c r="CR14">
-        <v>40.5434370233008</v>
+        <v>20.32454488775887</v>
       </c>
       <c r="CS14">
-        <v>-0.0006649205313583395</v>
+        <v>0.000638663063149923</v>
       </c>
     </row>
     <row r="15" spans="1:97">
@@ -4775,25 +4775,25 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.013178728111689</v>
+        <v>1.004011481946422</v>
       </c>
       <c r="E15">
-        <v>1.012340513145407</v>
+        <v>1.003917767465314</v>
       </c>
       <c r="F15">
-        <v>0.9985653511105368</v>
+        <v>0.9997662293267811</v>
       </c>
       <c r="G15">
-        <v>0.9993122516070104</v>
+        <v>0.9988069307195052</v>
       </c>
       <c r="H15">
-        <v>1.064020725551765</v>
+        <v>1.056124427853358</v>
       </c>
       <c r="I15">
-        <v>1.010825394857909</v>
+        <v>1.003030327436803</v>
       </c>
       <c r="J15">
-        <v>1.011726371232447</v>
+        <v>1.003572234714103</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4811,133 +4811,133 @@
         <v>1</v>
       </c>
       <c r="P15">
-        <v>1.009393160119261</v>
+        <v>1.002801375668204</v>
       </c>
       <c r="Q15">
-        <v>1.009863193335821</v>
+        <v>1.002801376976618</v>
       </c>
       <c r="R15">
-        <v>1.010825394857909</v>
+        <v>1.003030327436802</v>
       </c>
       <c r="S15">
-        <v>1.010389111131532</v>
+        <v>1.002590650160316</v>
       </c>
       <c r="T15">
-        <v>1.009393160119652</v>
+        <v>1.002801376976618</v>
       </c>
       <c r="U15">
-        <v>1.009863193335821</v>
+        <v>1.002801376976618</v>
       </c>
       <c r="V15">
-        <v>1.00986319333543</v>
+        <v>1.002801375668204</v>
       </c>
       <c r="W15">
-        <v>1.00986319333543</v>
+        <v>1.002801375668204</v>
       </c>
       <c r="X15">
-        <v>0.02942607489504144</v>
+        <v>0.03516748648874941</v>
       </c>
       <c r="Y15">
-        <v>105.8053445027621</v>
+        <v>63.81573478364248</v>
       </c>
       <c r="Z15">
-        <v>0.0004701803788646208</v>
+        <v>0.0001710428162510005</v>
       </c>
       <c r="AA15">
-        <v>0.001399836964856998</v>
+        <v>0.0004107836944287216</v>
       </c>
       <c r="AB15">
-        <v>4.115343822728602</v>
+        <v>0.7454175977431461</v>
       </c>
       <c r="AC15">
-        <v>1.422628601458484E-06</v>
+        <v>4.667438118215617E-08</v>
       </c>
       <c r="AD15">
-        <v>0.003281070000983011</v>
+        <v>0.002835865156875147</v>
       </c>
       <c r="AE15">
-        <v>16.63806162835734</v>
+        <v>8.337085280948866</v>
       </c>
       <c r="AF15">
-        <v>5.813326989729389E-05</v>
+        <v>1.459646810618139E-05</v>
       </c>
       <c r="AG15">
-        <v>0.006192342276112235</v>
+        <v>0.005677177695844189</v>
       </c>
       <c r="AH15">
-        <v>22.26538572133783</v>
+        <v>13.06103442176968</v>
       </c>
       <c r="AI15">
-        <v>0.0001041069542771908</v>
+        <v>3.58240302349962E-05</v>
       </c>
       <c r="AJ15">
-        <v>0.04457168901456869</v>
+        <v>0.04568589228491052</v>
       </c>
       <c r="AK15">
-        <v>80.88081830706507</v>
+        <v>82.90267734489959</v>
       </c>
       <c r="AL15">
-        <v>0.002747516843408605</v>
+        <v>0.002886598642600061</v>
       </c>
       <c r="AM15">
-        <v>0.00264191197581715</v>
+        <v>0.001101469094921372</v>
       </c>
       <c r="AN15">
-        <v>13.39693888188052</v>
+        <v>5.585467752148595</v>
       </c>
       <c r="AO15">
-        <v>7.538074799003439E-06</v>
+        <v>1.310292900432233E-06</v>
       </c>
       <c r="AP15">
-        <v>0.001630452901757816</v>
+        <v>0.0004931101540952631</v>
       </c>
       <c r="AQ15">
-        <v>8.267905242330444</v>
+        <v>2.500524868700676</v>
       </c>
       <c r="AR15">
-        <v>2.871046798038745E-06</v>
+        <v>2.626102339975617E-07</v>
       </c>
       <c r="AS15">
-        <v>0.001607863272701967</v>
+        <v>0.000257025630202386</v>
       </c>
       <c r="AT15">
-        <v>8.153354915674706</v>
+        <v>1.303357829638949</v>
       </c>
       <c r="AU15">
-        <v>1.396021123999981E-06</v>
+        <v>3.567357427370472E-08</v>
       </c>
       <c r="AV15">
-        <v>0.00108019198737384</v>
+        <v>0.000257025630202386</v>
       </c>
       <c r="AW15">
-        <v>5.477573124315915</v>
+        <v>1.303357829638949</v>
       </c>
       <c r="AX15">
-        <v>6.300799539767608E-07</v>
+        <v>3.567357427370472E-08</v>
       </c>
       <c r="AY15">
-        <v>0.00108019198737384</v>
+        <v>0.000257025630202386</v>
       </c>
       <c r="AZ15">
-        <v>5.477573124315915</v>
+        <v>1.303357829638949</v>
       </c>
       <c r="BA15">
-        <v>6.300799539767608E-07</v>
+        <v>3.567357427370472E-08</v>
       </c>
       <c r="BB15">
-        <v>0.0004897832466855522</v>
+        <v>0.0004935929326536704</v>
       </c>
       <c r="BC15">
-        <v>2.483654368986246</v>
+        <v>2.502973002817054</v>
       </c>
       <c r="BD15">
-        <v>1.295393195162092E-07</v>
+        <v>1.315623509094395E-07</v>
       </c>
       <c r="BE15">
-        <v>0.002</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="BF15">
-        <v>0.00045</v>
+        <v>0.00015</v>
       </c>
       <c r="BG15">
         <v>0.0003</v>
@@ -4955,10 +4955,10 @@
         <v>0.03</v>
       </c>
       <c r="BL15">
-        <v>0.001132885628909418</v>
+        <v>0</v>
       </c>
       <c r="BM15">
-        <v>50.1111335340657</v>
+        <v>50</v>
       </c>
       <c r="BN15">
         <v>0.0033</v>
@@ -4967,94 +4967,94 @@
         <v>0.006599999999999999</v>
       </c>
       <c r="BP15">
-        <v>-0.0335014044292223</v>
+        <v>-0.0403522169525537</v>
       </c>
       <c r="BQ15">
-        <v>-35.67721950621684</v>
+        <v>-42.63831127853044</v>
       </c>
       <c r="BR15">
-        <v>-0.002175815076994533</v>
+        <v>0.002286094325976748</v>
       </c>
       <c r="BS15">
-        <v>0.001718156590225181</v>
+        <v>0.0005</v>
       </c>
       <c r="BT15">
-        <v>2.832214072273544</v>
+        <v>0</v>
       </c>
       <c r="BU15">
-        <v>-0.0005852709613157626</v>
+        <v>0.0005</v>
       </c>
       <c r="BV15">
-        <v>0.003972378804960541</v>
+        <v>0.0034375</v>
       </c>
       <c r="BW15">
-        <v>23.57142857142857</v>
+        <v>30</v>
       </c>
       <c r="BX15">
-        <v>-0.0006723788049605418</v>
+        <v>0.0001375</v>
       </c>
       <c r="BY15">
-        <v>0.007502652519893899</v>
+        <v>0.006874999999999999</v>
       </c>
       <c r="BZ15">
-        <v>18.33333333333333</v>
+        <v>30</v>
       </c>
       <c r="CA15">
-        <v>-0.0009026525198938999</v>
+        <v>0.0002750000000000001</v>
       </c>
       <c r="CB15">
-        <v>-0.02875</v>
+        <v>-0.02925</v>
       </c>
       <c r="CC15">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="CD15">
-        <v>-0.001250000000000001</v>
+        <v>0.0007500000000000007</v>
       </c>
       <c r="CE15">
-        <v>-0.02875</v>
+        <v>-0.02925</v>
       </c>
       <c r="CF15">
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="CG15">
-        <v>-0.001250000000000001</v>
+        <v>0.0007500000000000007</v>
       </c>
       <c r="CH15">
-        <v>0.0009838709677419356</v>
+        <v>0.00015625</v>
       </c>
       <c r="CI15">
-        <v>5.000000000000001</v>
+        <v>30</v>
       </c>
       <c r="CJ15">
-        <v>-0.0005338709677419355</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CK15">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CL15">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CM15">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CN15">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CO15">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CP15">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CQ15">
-        <v>0.003237823382057328</v>
+        <v>0.001339507186761715</v>
       </c>
       <c r="CR15">
-        <v>28.99152592505218</v>
+        <v>7.689885830737306</v>
       </c>
       <c r="CS15">
-        <v>-0.0006285860488026321</v>
+        <v>0.0005705186036879843</v>
       </c>
     </row>
     <row r="16" spans="1:97">
@@ -5068,25 +5068,25 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.012618839304314</v>
+        <v>1.003827690004111</v>
       </c>
       <c r="E16">
-        <v>1.011822885729632</v>
+        <v>1.003733958361509</v>
       </c>
       <c r="F16">
-        <v>1.002194412589023</v>
+        <v>1.000956015760835</v>
       </c>
       <c r="G16">
-        <v>1.003017343845255</v>
+        <v>1.000308204592866</v>
       </c>
       <c r="H16">
-        <v>1.058525312036537</v>
+        <v>1.05095982434498</v>
       </c>
       <c r="I16">
-        <v>1.010264196554673</v>
+        <v>1.002846355431788</v>
       </c>
       <c r="J16">
-        <v>1.011311181479655</v>
+        <v>1.003388362279072</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -5104,133 +5104,133 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1.008831163951695</v>
+        <v>1.002617361721932</v>
       </c>
       <c r="Q16">
-        <v>1.009301459512565</v>
+        <v>1.002617362951489</v>
       </c>
       <c r="R16">
-        <v>1.010264196554673</v>
+        <v>1.002846355431787</v>
       </c>
       <c r="S16">
-        <v>1.009827670264618</v>
+        <v>1.002406597425779</v>
       </c>
       <c r="T16">
-        <v>1.008831163952067</v>
+        <v>1.002617362951489</v>
       </c>
       <c r="U16">
-        <v>1.009301459512565</v>
+        <v>1.002617362951489</v>
       </c>
       <c r="V16">
-        <v>1.009301459512194</v>
+        <v>1.002617361721932</v>
       </c>
       <c r="W16">
-        <v>1.009301459512194</v>
+        <v>1.002617361721932</v>
       </c>
       <c r="X16">
-        <v>0.0281759292179256</v>
+        <v>0.03355623639855979</v>
       </c>
       <c r="Y16">
-        <v>101.3102803626186</v>
+        <v>60.89192308448804</v>
       </c>
       <c r="Z16">
-        <v>0.000431078462100401</v>
+        <v>0.0001557287044709477</v>
       </c>
       <c r="AA16">
-        <v>0.001329259534808172</v>
+        <v>0.000410858919322503</v>
       </c>
       <c r="AB16">
-        <v>3.907855095064398</v>
+        <v>0.7455541025761605</v>
       </c>
       <c r="AC16">
-        <v>1.282791841297629E-06</v>
+        <v>4.669147726896368E-08</v>
       </c>
       <c r="AD16">
-        <v>0.002340545499530373</v>
+        <v>0.001918303021762452</v>
       </c>
       <c r="AE16">
-        <v>11.86873192388265</v>
+        <v>5.639568527566483</v>
       </c>
       <c r="AF16">
-        <v>2.958202747100833E-05</v>
+        <v>6.678993967194555E-06</v>
       </c>
       <c r="AG16">
-        <v>0.004287732808328836</v>
+        <v>0.003839090673991944</v>
       </c>
       <c r="AH16">
-        <v>15.41711045524033</v>
+        <v>8.832292756664826</v>
       </c>
       <c r="AI16">
-        <v>4.991433190570677E-05</v>
+        <v>1.638197302128181E-05</v>
       </c>
       <c r="AJ16">
-        <v>0.04024485915975358</v>
+        <v>0.04131936076882368</v>
       </c>
       <c r="AK16">
-        <v>73.02925272653482</v>
+        <v>74.9790682111004</v>
       </c>
       <c r="AL16">
-        <v>0.00223997413659436</v>
+        <v>0.002361181481318038</v>
       </c>
       <c r="AM16">
-        <v>0.002643382049293493</v>
+        <v>0.00110167123790908</v>
       </c>
       <c r="AN16">
-        <v>13.40439351500029</v>
+        <v>5.586492804185342</v>
       </c>
       <c r="AO16">
-        <v>7.546466151208981E-06</v>
+        <v>1.31077387775097E-06</v>
       </c>
       <c r="AP16">
-        <v>0.001468010049867468</v>
+        <v>0.0004932005172767265</v>
       </c>
       <c r="AQ16">
-        <v>7.444169637778271</v>
+        <v>2.500983093664384</v>
       </c>
       <c r="AR16">
-        <v>2.327457787032776E-06</v>
+        <v>2.62706490261372E-07</v>
       </c>
       <c r="AS16">
-        <v>0.001608758975584702</v>
+        <v>0.0002570728030545856</v>
       </c>
       <c r="AT16">
-        <v>8.157896958288605</v>
+        <v>1.303597039659414</v>
       </c>
       <c r="AU16">
-        <v>1.397576938423238E-06</v>
+        <v>3.568667007798512E-08</v>
       </c>
       <c r="AV16">
-        <v>0.001080793175815683</v>
+        <v>0.0002570728030545856</v>
       </c>
       <c r="AW16">
-        <v>5.480621706133019</v>
+        <v>1.303597039659414</v>
       </c>
       <c r="AX16">
-        <v>6.307815000005084E-07</v>
+        <v>3.568667007798512E-08</v>
       </c>
       <c r="AY16">
-        <v>0.001080793175815683</v>
+        <v>0.0002570728030545856</v>
       </c>
       <c r="AZ16">
-        <v>5.480621706133019</v>
+        <v>1.303597039659414</v>
       </c>
       <c r="BA16">
-        <v>6.307815000005084E-07</v>
+        <v>3.568667007798512E-08</v>
       </c>
       <c r="BB16">
-        <v>0.0004900555548610278</v>
+        <v>0.0004936835616748357</v>
       </c>
       <c r="BC16">
-        <v>2.485035223464849</v>
+        <v>2.503432575834093</v>
       </c>
       <c r="BD16">
-        <v>1.296834012991179E-07</v>
+        <v>1.31610667896678E-07</v>
       </c>
       <c r="BE16">
-        <v>0.0018</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="BF16">
-        <v>0.00045</v>
+        <v>0.00015</v>
       </c>
       <c r="BG16">
         <v>0.0003</v>
@@ -5248,10 +5248,10 @@
         <v>0.027</v>
       </c>
       <c r="BL16">
-        <v>0.001051547083935776</v>
+        <v>0</v>
       </c>
       <c r="BM16">
-        <v>50.98742277067885</v>
+        <v>50</v>
       </c>
       <c r="BN16">
         <v>0.0022</v>
@@ -5260,94 +5260,94 @@
         <v>0.0044</v>
       </c>
       <c r="BP16">
-        <v>-0.03201612012566863</v>
+        <v>-0.03842473725071329</v>
       </c>
       <c r="BQ16">
-        <v>-34.1614985544199</v>
+        <v>-40.68477440885053</v>
       </c>
       <c r="BR16">
-        <v>-0.002145378428751274</v>
+        <v>0.002260037158137246</v>
       </c>
       <c r="BS16">
-        <v>0.001630695789178253</v>
+        <v>0.0005</v>
       </c>
       <c r="BT16">
-        <v>2.628867709839439</v>
+        <v>0</v>
       </c>
       <c r="BU16">
-        <v>-0.0005791487052424777</v>
+        <v>0.0005</v>
       </c>
       <c r="BV16">
-        <v>0.002843987823439878</v>
+        <v>0.002328042328042328</v>
       </c>
       <c r="BW16">
-        <v>15.71428571428571</v>
+        <v>20</v>
       </c>
       <c r="BX16">
-        <v>-0.0006439878234398783</v>
+        <v>0.0001280423280423278</v>
       </c>
       <c r="BY16">
-        <v>0.005214285714285715</v>
+        <v>0.004656084656084656</v>
       </c>
       <c r="BZ16">
-        <v>12.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="CA16">
-        <v>-0.0008142857142857144</v>
+        <v>0.0002560846560846555</v>
       </c>
       <c r="CB16">
-        <v>-0.025825</v>
+        <v>-0.026325</v>
       </c>
       <c r="CC16">
-        <v>-67.5</v>
+        <v>-90</v>
       </c>
       <c r="CD16">
-        <v>-0.001175000000000002</v>
+        <v>0.000675000000000002</v>
       </c>
       <c r="CE16">
-        <v>-0.025825</v>
+        <v>-0.026325</v>
       </c>
       <c r="CF16">
-        <v>-67.5</v>
+        <v>-90</v>
       </c>
       <c r="CG16">
-        <v>-0.001175000000000002</v>
+        <v>0.000675000000000002</v>
       </c>
       <c r="CH16">
-        <v>0.0009838709677419356</v>
+        <v>0.00015625</v>
       </c>
       <c r="CI16">
-        <v>5.000000000000001</v>
+        <v>30</v>
       </c>
       <c r="CJ16">
-        <v>-0.0005338709677419355</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CK16">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CL16">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CM16">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CN16">
-        <v>0.0006612903225806452</v>
+        <v>0.00015625</v>
       </c>
       <c r="CO16">
-        <v>1.666666666666667</v>
+        <v>30</v>
       </c>
       <c r="CP16">
-        <v>-0.0005112903225806452</v>
+        <v>6.250000000000016E-06</v>
       </c>
       <c r="CQ16">
-        <v>0.003237826444825205</v>
+        <v>0.001339507282399706</v>
       </c>
       <c r="CR16">
-        <v>28.99156040269944</v>
+        <v>7.689886706781306</v>
       </c>
       <c r="CS16">
-        <v>-0.000628586008582256</v>
+        <v>0.0005705186117215754</v>
       </c>
     </row>
     <row r="17" spans="1:97">
@@ -5361,25 +5361,25 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1.013339339178282</v>
+        <v>1.001356057240403</v>
       </c>
       <c r="E17">
-        <v>1.013095592411081</v>
+        <v>1.00126209419796</v>
       </c>
       <c r="F17">
-        <v>1.011523529025376</v>
+        <v>0.9908117640536036</v>
       </c>
       <c r="G17">
-        <v>1.012427205068146</v>
+        <v>0.9884100964358095</v>
       </c>
       <c r="H17">
-        <v>1.054212856824384</v>
+        <v>1.0435488165962</v>
       </c>
       <c r="I17">
-        <v>1.010202004925278</v>
+        <v>0.9993924087370296</v>
       </c>
       <c r="J17">
-        <v>1.012177972070383</v>
+        <v>1.000180759482536</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5397,133 +5397,133 @@
         <v>1</v>
       </c>
       <c r="P17">
-        <v>1.008768883847849</v>
+        <v>0.9987888537419755</v>
       </c>
       <c r="Q17">
-        <v>1.00884730178516</v>
+        <v>0.9987888519949405</v>
       </c>
       <c r="R17">
-        <v>1.010202004925278</v>
+        <v>0.9993924087370346</v>
       </c>
       <c r="S17">
-        <v>1.009037022693865</v>
+        <v>0.9982147962566703</v>
       </c>
       <c r="T17">
-        <v>1.00876888384907</v>
+        <v>0.9987888519949405</v>
       </c>
       <c r="U17">
-        <v>1.00884730178516</v>
+        <v>0.9987888519949405</v>
       </c>
       <c r="V17">
-        <v>1.008847301783939</v>
+        <v>0.9987888537419755</v>
       </c>
       <c r="W17">
-        <v>1.008847301783939</v>
+        <v>0.9987888537419755</v>
       </c>
       <c r="X17">
-        <v>0.02978469472803768</v>
+        <v>0.01188815637631544</v>
       </c>
       <c r="Y17">
-        <v>107.0948095473197</v>
+        <v>21.57252366102759</v>
       </c>
       <c r="Z17">
-        <v>0.0004817105257430218</v>
+        <v>1.954569863843632E-05</v>
       </c>
       <c r="AA17">
-        <v>0.0004070623271076649</v>
+        <v>0.000411873226611001</v>
       </c>
       <c r="AB17">
-        <v>1.196711813864116</v>
+        <v>0.7473946880536757</v>
       </c>
       <c r="AC17">
-        <v>1.202980098970793E-07</v>
+        <v>4.692230085750516E-08</v>
       </c>
       <c r="AD17">
-        <v>0.0004076949646689516</v>
+        <v>0.007043678275816523</v>
       </c>
       <c r="AE17">
-        <v>2.06739080412814</v>
+        <v>20.70752423988917</v>
       </c>
       <c r="AF17">
-        <v>8.975619947686761E-07</v>
+        <v>9.004832763057427E-05</v>
       </c>
       <c r="AG17">
-        <v>0.0004073310627809019</v>
+        <v>0.01412158642055387</v>
       </c>
       <c r="AH17">
-        <v>1.46461271433357</v>
+        <v>32.48841875495021</v>
       </c>
       <c r="AI17">
-        <v>4.504689846274298E-07</v>
+        <v>0.0002216544441713715</v>
       </c>
       <c r="AJ17">
-        <v>0.0358326149479237</v>
+        <v>0.03698915548881942</v>
       </c>
       <c r="AK17">
-        <v>65.02269227721536</v>
+        <v>67.12137750591214</v>
       </c>
       <c r="AL17">
-        <v>0.001775739214610522</v>
+        <v>0.001892217313682283</v>
       </c>
       <c r="AM17">
-        <v>0.003522051507934752</v>
+        <v>0.002204441928920594</v>
       </c>
       <c r="AN17">
-        <v>17.86006090382426</v>
+        <v>11.17856085317507</v>
       </c>
       <c r="AO17">
-        <v>1.339723457050978E-05</v>
+        <v>5.24832935542164E-06</v>
       </c>
       <c r="AP17">
-        <v>0.001303780357392645</v>
+        <v>0.001319419260604729</v>
       </c>
       <c r="AQ17">
-        <v>6.611373097691158</v>
+        <v>6.690676811225041</v>
       </c>
       <c r="AR17">
-        <v>1.835830677948897E-06</v>
+        <v>1.880136560075208E-06</v>
       </c>
       <c r="AS17">
-        <v>0.001608858298308452</v>
+        <v>0.0006775682035097139</v>
       </c>
       <c r="AT17">
-        <v>8.158400616424013</v>
+        <v>3.435897900389952</v>
       </c>
       <c r="AU17">
-        <v>1.397749512979229E-06</v>
+        <v>2.479132820199827E-07</v>
       </c>
       <c r="AV17">
-        <v>0.00152082432175925</v>
+        <v>0.0006775682035097139</v>
       </c>
       <c r="AW17">
-        <v>7.711986877376645</v>
+        <v>3.435897900389952</v>
       </c>
       <c r="AX17">
-        <v>1.248969573533357E-06</v>
+        <v>2.479132820199827E-07</v>
       </c>
       <c r="AY17">
-        <v>0.00152082432175925</v>
+        <v>0.0006775682035097139</v>
       </c>
       <c r="AZ17">
-        <v>7.711986877376645</v>
+        <v>3.435897900389952</v>
       </c>
       <c r="BA17">
-        <v>1.248969573533357E-06</v>
+        <v>2.479132820199827E-07</v>
       </c>
       <c r="BB17">
-        <v>0.001307838787320357</v>
+        <v>0.00132201782715999</v>
       </c>
       <c r="BC17">
-        <v>6.6319530936167</v>
+        <v>6.703853948707284</v>
       </c>
       <c r="BD17">
-        <v>9.236388385544352E-07</v>
+        <v>9.437748130775156E-07</v>
       </c>
       <c r="BE17">
         <v>0.0016</v>
       </c>
       <c r="BF17">
-        <v>0.00045</v>
+        <v>0.0004</v>
       </c>
       <c r="BG17">
         <v>0.0008</v>
@@ -5544,22 +5544,22 @@
         <v>0</v>
       </c>
       <c r="BM17">
-        <v>50.98742277067885</v>
+        <v>50</v>
       </c>
       <c r="BN17">
-        <v>0</v>
+        <v>0.00825</v>
       </c>
       <c r="BO17">
-        <v>0</v>
+        <v>0.0165</v>
       </c>
       <c r="BP17">
-        <v>-0.03392790097068225</v>
+        <v>-0.01265009439521787</v>
       </c>
       <c r="BQ17">
-        <v>-36.11202313566848</v>
+        <v>-14.41362358256613</v>
       </c>
       <c r="BR17">
-        <v>-0.002184122164986237</v>
+        <v>0.001763529187348262</v>
       </c>
       <c r="BS17">
         <v>0.0005</v>
@@ -5568,79 +5568,79 @@
         <v>0</v>
       </c>
       <c r="BU17">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV17">
-        <v>0.0005</v>
+        <v>0.008461538461538461</v>
       </c>
       <c r="BW17">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="BX17">
-        <v>-0.0005</v>
+        <v>0.0002115384615384609</v>
       </c>
       <c r="BY17">
-        <v>0.0005</v>
+        <v>0.01692307692307692</v>
       </c>
       <c r="BZ17">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
       <c r="CA17">
-        <v>-0.0005</v>
+        <v>0.0004230769230769219</v>
       </c>
       <c r="CB17">
-        <v>-0.0229</v>
+        <v>-0.0234</v>
       </c>
       <c r="CC17">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="CD17">
-        <v>-0.0011</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="CE17">
-        <v>-0.0229</v>
+        <v>-0.0234</v>
       </c>
       <c r="CF17">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="CG17">
-        <v>-0.0011</v>
+        <v>0.0005999999999999998</v>
       </c>
       <c r="CH17">
-        <v>0.0009838709677419356</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CI17">
-        <v>5.000000000000001</v>
+        <v>80</v>
       </c>
       <c r="CJ17">
-        <v>-0.0005338709677419355</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CK17">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CL17">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CM17">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CN17">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CO17">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CP17">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CQ17">
-        <v>0.004313825729740213</v>
+        <v>0.002671119860479477</v>
       </c>
       <c r="CR17">
-        <v>40.54339276671086</v>
+        <v>20.32456745428368</v>
       </c>
       <c r="CS17">
-        <v>-0.0006649203807362362</v>
+        <v>0.0006386631150511082</v>
       </c>
     </row>
     <row r="18" spans="1:97">
@@ -5654,25 +5654,25 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.011364928281792</v>
+        <v>1.001009812902005</v>
       </c>
       <c r="E18">
-        <v>1.011120705436602</v>
+        <v>1.000915817352108</v>
       </c>
       <c r="F18">
-        <v>1.009229393487561</v>
+        <v>0.9911720498696512</v>
       </c>
       <c r="G18">
-        <v>1.010451010260646</v>
+        <v>0.988933308817901</v>
       </c>
       <c r="H18">
-        <v>1.047117767968231</v>
+        <v>1.038121489117183</v>
       </c>
       <c r="I18">
-        <v>1.0082214165587</v>
+        <v>0.9990454816213384</v>
       </c>
       <c r="J18">
-        <v>1.010346890379788</v>
+        <v>0.9998341076574262</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -5690,133 +5690,133 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>1.006785472169965</v>
+        <v>0.9984417177824494</v>
       </c>
       <c r="Q18">
-        <v>1.006864045010514</v>
+        <v>0.9984417150354037</v>
       </c>
       <c r="R18">
-        <v>1.0082214165587</v>
+        <v>0.9990454816213464</v>
       </c>
       <c r="S18">
-        <v>1.007054140485848</v>
+        <v>0.9978674592384449</v>
       </c>
       <c r="T18">
-        <v>1.006785472170964</v>
+        <v>0.9984417150354037</v>
       </c>
       <c r="U18">
-        <v>1.006864045010514</v>
+        <v>0.9984417150354037</v>
       </c>
       <c r="V18">
-        <v>1.006864045009515</v>
+        <v>0.9984417177824494</v>
       </c>
       <c r="W18">
-        <v>1.006864045009515</v>
+        <v>0.9984417177824494</v>
       </c>
       <c r="X18">
-        <v>0.0253761385744155</v>
+        <v>0.008852733743225278</v>
       </c>
       <c r="Y18">
-        <v>91.24326277264721</v>
+        <v>16.06437550913969</v>
       </c>
       <c r="Z18">
-        <v>0.0003496639860587313</v>
+        <v>1.083869474094272E-05</v>
       </c>
       <c r="AA18">
-        <v>0.0004078573875571379</v>
+        <v>0.0004120157182779223</v>
       </c>
       <c r="AB18">
-        <v>1.199049191138454</v>
+        <v>0.7476532567298316</v>
       </c>
       <c r="AC18">
-        <v>1.207683928727051E-07</v>
+        <v>4.695477295304715E-08</v>
       </c>
       <c r="AD18">
-        <v>0.0004794811732327957</v>
+        <v>0.006571710073499586</v>
       </c>
       <c r="AE18">
-        <v>2.431413321719509</v>
+        <v>19.31999735305078</v>
       </c>
       <c r="AF18">
-        <v>1.24147185561732E-06</v>
+        <v>7.838508252159745E-05</v>
       </c>
       <c r="AG18">
-        <v>0.0004081277026164024</v>
+        <v>0.01317317413948441</v>
       </c>
       <c r="AH18">
-        <v>1.467477138234494</v>
+        <v>30.30648151205837</v>
       </c>
       <c r="AI18">
-        <v>4.522327217605518E-07</v>
+        <v>0.0001928813925445548</v>
       </c>
       <c r="AJ18">
-        <v>0.03134346666395105</v>
+        <v>0.03253471882220754</v>
       </c>
       <c r="AK18">
-        <v>56.87657991896962</v>
+        <v>59.03825365178123</v>
       </c>
       <c r="AL18">
-        <v>0.001358677044177151</v>
+        <v>0.001463916465585864</v>
       </c>
       <c r="AM18">
-        <v>0.003528986493525863</v>
+        <v>0.002205208432137068</v>
       </c>
       <c r="AN18">
-        <v>17.89522769929711</v>
+        <v>11.18244773390307</v>
       </c>
       <c r="AO18">
-        <v>1.345004532520792E-05</v>
+        <v>5.251979767501892E-06</v>
       </c>
       <c r="AP18">
-        <v>0.001142875332602528</v>
+        <v>0.001319876715588037</v>
       </c>
       <c r="AQ18">
-        <v>5.79543569983977</v>
+        <v>6.692996531377977</v>
       </c>
       <c r="AR18">
-        <v>1.410657147941398E-06</v>
+        <v>1.88144050789949E-06</v>
       </c>
       <c r="AS18">
-        <v>0.001612027819889899</v>
+        <v>0.0006778037795700669</v>
       </c>
       <c r="AT18">
-        <v>8.174473024324097</v>
+        <v>3.437092489048269</v>
       </c>
       <c r="AU18">
-        <v>1.403262193733386E-06</v>
+        <v>2.480857003436874E-07</v>
       </c>
       <c r="AV18">
-        <v>0.001523819944763364</v>
+        <v>0.0006778037795700669</v>
       </c>
       <c r="AW18">
-        <v>7.72717745854158</v>
+        <v>3.437092489048269</v>
       </c>
       <c r="AX18">
-        <v>1.253894700991675E-06</v>
+        <v>2.480857003436874E-07</v>
       </c>
       <c r="AY18">
-        <v>0.001523819944763364</v>
+        <v>0.0006778037795700669</v>
       </c>
       <c r="AZ18">
-        <v>7.72717745854158</v>
+        <v>3.437092489048269</v>
       </c>
       <c r="BA18">
-        <v>1.253894700991675E-06</v>
+        <v>2.480857003436874E-07</v>
       </c>
       <c r="BB18">
-        <v>0.001310413912265824</v>
+        <v>0.001322477994210388</v>
       </c>
       <c r="BC18">
-        <v>6.645011360441412</v>
+        <v>6.706187421550465</v>
       </c>
       <c r="BD18">
-        <v>9.272796955881553E-07</v>
+        <v>9.444319443921564E-07</v>
       </c>
       <c r="BE18">
-        <v>0.0014</v>
+        <v>0.0016</v>
       </c>
       <c r="BF18">
-        <v>0.00045</v>
+        <v>0.0004</v>
       </c>
       <c r="BG18">
         <v>0.0008</v>
@@ -5837,22 +5837,22 @@
         <v>0</v>
       </c>
       <c r="BM18">
-        <v>50.98742277067885</v>
+        <v>50</v>
       </c>
       <c r="BN18">
-        <v>8.063606215475964E-05</v>
+        <v>0.007699999999999999</v>
       </c>
       <c r="BO18">
-        <v>0</v>
+        <v>0.0154</v>
       </c>
       <c r="BP18">
-        <v>-0.02869805366953729</v>
+        <v>-0.009143840673082814</v>
       </c>
       <c r="BQ18">
-        <v>-30.76693289897593</v>
+        <v>-10.73336923537537</v>
       </c>
       <c r="BR18">
-        <v>-0.002068879229438634</v>
+        <v>0.001589528562292553</v>
       </c>
       <c r="BS18">
         <v>0.0005</v>
@@ -5861,79 +5861,79 @@
         <v>0</v>
       </c>
       <c r="BU18">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV18">
-        <v>0.000586705443177161</v>
+        <v>0.007897435897435898</v>
       </c>
       <c r="BW18">
-        <v>0.5759718725339974</v>
+        <v>70</v>
       </c>
       <c r="BX18">
-        <v>-0.0005060693810224013</v>
+        <v>0.0001974358974358983</v>
       </c>
       <c r="BY18">
-        <v>0.0005</v>
+        <v>0.0157948717948718</v>
       </c>
       <c r="BZ18">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CA18">
-        <v>-0.0005</v>
+        <v>0.0003948717948717966</v>
       </c>
       <c r="CB18">
-        <v>-0.01989625</v>
+        <v>-0.020475</v>
       </c>
       <c r="CC18">
-        <v>-52.49999999999999</v>
+        <v>-70</v>
       </c>
       <c r="CD18">
-        <v>-0.001103750000000001</v>
+        <v>0.0005250000000000012</v>
       </c>
       <c r="CE18">
-        <v>-0.01989625</v>
+        <v>-0.020475</v>
       </c>
       <c r="CF18">
-        <v>-52.49999999999999</v>
+        <v>-70</v>
       </c>
       <c r="CG18">
-        <v>-0.001103750000000001</v>
+        <v>0.0005250000000000012</v>
       </c>
       <c r="CH18">
-        <v>0.0009838709677419356</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CI18">
-        <v>5.000000000000001</v>
+        <v>80</v>
       </c>
       <c r="CJ18">
-        <v>-0.0005338709677419355</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CK18">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CL18">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CM18">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CN18">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CO18">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CP18">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CQ18">
-        <v>0.004313845452167623</v>
+        <v>0.002671121061875613</v>
       </c>
       <c r="CR18">
-        <v>40.54360391996313</v>
+        <v>20.32457919814654</v>
       </c>
       <c r="CS18">
-        <v>-0.0006649210993709418</v>
+        <v>0.0006386631420609592</v>
       </c>
     </row>
     <row r="19" spans="1:97">
@@ -5947,25 +5947,25 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.007478040238878</v>
+        <v>1.000125309344794</v>
       </c>
       <c r="E19">
-        <v>1.007232874714887</v>
+        <v>1.00003123065028</v>
       </c>
       <c r="F19">
-        <v>1.00565162774851</v>
+        <v>0.9909885521653879</v>
       </c>
       <c r="G19">
-        <v>1.006560589866737</v>
+        <v>0.9889111615532508</v>
       </c>
       <c r="H19">
-        <v>1.032902072595993</v>
+        <v>1.026788782465936</v>
       </c>
       <c r="I19">
-        <v>1.004322295679841</v>
+        <v>0.9981592317020366</v>
       </c>
       <c r="J19">
-        <v>1.006748271041667</v>
+        <v>0.9989485618635335</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5983,133 +5983,133 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <v>1.002880760448661</v>
+        <v>0.997554928391636</v>
       </c>
       <c r="Q19">
-        <v>1.00295964004252</v>
+        <v>0.9975549283916204</v>
       </c>
       <c r="R19">
-        <v>1.004322295679841</v>
+        <v>0.9981592317020366</v>
       </c>
       <c r="S19">
-        <v>1.003150477264904</v>
+        <v>0.9969801608957674</v>
       </c>
       <c r="T19">
-        <v>1.002880760449201</v>
+        <v>0.9975549283916204</v>
       </c>
       <c r="U19">
-        <v>1.00295964004252</v>
+        <v>0.9975549283916204</v>
       </c>
       <c r="V19">
-        <v>1.00295964004198</v>
+        <v>0.997554928391636</v>
       </c>
       <c r="W19">
-        <v>1.00295964004198</v>
+        <v>0.997554928391636</v>
       </c>
       <c r="X19">
-        <v>0.01669731481463464</v>
+        <v>0.001098550298571563</v>
       </c>
       <c r="Y19">
-        <v>60.03740398727767</v>
+        <v>1.993454793039066</v>
       </c>
       <c r="Z19">
-        <v>0.000151388574856328</v>
+        <v>1.669022044992717E-07</v>
       </c>
       <c r="AA19">
-        <v>0.0004094316813659149</v>
+        <v>0.000412380170519358</v>
       </c>
       <c r="AB19">
-        <v>1.203677416041611</v>
+        <v>0.7483146002008301</v>
       </c>
       <c r="AC19">
-        <v>1.217025030386589E-07</v>
+        <v>4.703787823340851E-08</v>
       </c>
       <c r="AD19">
-        <v>0.0004100754555974779</v>
+        <v>0.006103432151958969</v>
       </c>
       <c r="AE19">
-        <v>2.07946209634766</v>
+        <v>17.94331942546853</v>
       </c>
       <c r="AF19">
-        <v>9.080741481307629E-07</v>
+        <v>6.761216952092409E-05</v>
       </c>
       <c r="AG19">
-        <v>0.0004097051420183469</v>
+        <v>0.01223250707780248</v>
       </c>
       <c r="AH19">
-        <v>1.473149030253742</v>
+        <v>28.14236308380373</v>
       </c>
       <c r="AI19">
-        <v>4.557352937208841E-07</v>
+        <v>0.0001663184459875337</v>
       </c>
       <c r="AJ19">
-        <v>0.02228850400799609</v>
+        <v>0.02337508539873157</v>
       </c>
       <c r="AK19">
-        <v>40.44523514506684</v>
+        <v>42.41697088097734</v>
       </c>
       <c r="AL19">
-        <v>0.0006870431592946973</v>
+        <v>0.0007556637558614222</v>
       </c>
       <c r="AM19">
-        <v>0.003542719387381603</v>
+        <v>0.00220716894279322</v>
       </c>
       <c r="AN19">
-        <v>17.96486618132859</v>
+        <v>11.19238933743799</v>
       </c>
       <c r="AO19">
-        <v>1.355492951034785E-05</v>
+        <v>5.261322321393428E-06</v>
       </c>
       <c r="AP19">
-        <v>0.0008192575269979184</v>
+        <v>0.001321046757088264</v>
       </c>
       <c r="AQ19">
-        <v>4.154393907963919</v>
+        <v>6.698929724690729</v>
       </c>
       <c r="AR19">
-        <v>7.248775271862396E-07</v>
+        <v>1.884777697166388E-06</v>
       </c>
       <c r="AS19">
-        <v>0.001618304242832555</v>
+        <v>0.0006784063201630854</v>
       </c>
       <c r="AT19">
-        <v>8.206300297650866</v>
+        <v>3.440147927523286</v>
       </c>
       <c r="AU19">
-        <v>1.414210656079749E-06</v>
+        <v>2.485269730280416E-07</v>
       </c>
       <c r="AV19">
-        <v>0.00152975199809517</v>
+        <v>0.0006784063201630854</v>
       </c>
       <c r="AW19">
-        <v>7.757258459217494</v>
+        <v>3.440147927523286</v>
       </c>
       <c r="AX19">
-        <v>1.263676234865133E-06</v>
+        <v>2.485269730280416E-07</v>
       </c>
       <c r="AY19">
-        <v>0.00152975199809517</v>
+        <v>0.0006784063201630854</v>
       </c>
       <c r="AZ19">
-        <v>7.757258459217494</v>
+        <v>3.440147927523286</v>
       </c>
       <c r="BA19">
-        <v>1.263676234865133E-06</v>
+        <v>2.485269730280416E-07</v>
       </c>
       <c r="BB19">
-        <v>0.0013155132614273</v>
+        <v>0.001323654981042338</v>
       </c>
       <c r="BC19">
-        <v>6.670869780282418</v>
+        <v>6.712155834123157</v>
       </c>
       <c r="BD19">
-        <v>9.345105761352597E-07</v>
+        <v>9.461137547725701E-07</v>
       </c>
       <c r="BE19">
-        <v>0.001</v>
+        <v>0.0016</v>
       </c>
       <c r="BF19">
-        <v>0.00045</v>
+        <v>0.0004</v>
       </c>
       <c r="BG19">
         <v>0.0008</v>
@@ -6130,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="BM19">
-        <v>50.98742277067885</v>
+        <v>50</v>
       </c>
       <c r="BN19">
-        <v>0</v>
+        <v>0.00715</v>
       </c>
       <c r="BO19">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="BP19">
-        <v>-0.01828839747740101</v>
+        <v>-0.0003886869502653685</v>
       </c>
       <c r="BQ19">
-        <v>-20.24441832505085</v>
+        <v>-1.331921451898246</v>
       </c>
       <c r="BR19">
-        <v>-0.001956020847649842</v>
+        <v>0.0009432345016328771</v>
       </c>
       <c r="BS19">
         <v>0.0005</v>
@@ -6154,79 +6154,79 @@
         <v>0</v>
       </c>
       <c r="BU19">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV19">
-        <v>0.0005</v>
+        <v>0.007333333333333333</v>
       </c>
       <c r="BW19">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BX19">
-        <v>-0.0005</v>
+        <v>0.0001833333333333331</v>
       </c>
       <c r="BY19">
-        <v>0.0005</v>
+        <v>0.01466666666666667</v>
       </c>
       <c r="BZ19">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="CA19">
-        <v>-0.0005</v>
+        <v>0.0003666666666666662</v>
       </c>
       <c r="CB19">
-        <v>-0.01395625</v>
+        <v>-0.01455</v>
       </c>
       <c r="CC19">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="CD19">
-        <v>-0.001043750000000001</v>
+        <v>0.0004500000000000007</v>
       </c>
       <c r="CE19">
-        <v>-0.01395625</v>
+        <v>-0.01455</v>
       </c>
       <c r="CF19">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="CG19">
-        <v>-0.001043750000000001</v>
+        <v>0.0004500000000000007</v>
       </c>
       <c r="CH19">
-        <v>0.0009838709677419356</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CI19">
-        <v>5.000000000000001</v>
+        <v>80</v>
       </c>
       <c r="CJ19">
-        <v>-0.0005338709677419355</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CK19">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CL19">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CM19">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CN19">
-        <v>0.0009301075268817204</v>
+        <v>0.0004102564102564103</v>
       </c>
       <c r="CO19">
-        <v>4.444444444444446</v>
+        <v>80</v>
       </c>
       <c r="CP19">
-        <v>-0.0005301075268817205</v>
+        <v>1.025641025641027E-05</v>
       </c>
       <c r="CQ19">
-        <v>0.0043138846218157</v>
+        <v>0.002671124136630587</v>
       </c>
       <c r="CR19">
-        <v>40.54402328008135</v>
+        <v>20.32460925443087</v>
       </c>
       <c r="CS19">
-        <v>-0.0006649225266083785</v>
+        <v>0.0006386632111874992</v>
       </c>
     </row>
     <row r="20" spans="1:97">
@@ -6240,25 +6240,25 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1.001609793827635</v>
+        <v>0.9987187103087259</v>
       </c>
       <c r="E20">
-        <v>1.001473466507594</v>
+        <v>0.9986244990884535</v>
       </c>
       <c r="F20">
-        <v>0.999772641441439</v>
+        <v>0.9902787352909411</v>
       </c>
       <c r="G20">
-        <v>1.000686958389426</v>
+        <v>0.988361431720817</v>
       </c>
       <c r="H20">
-        <v>1.011146852978374</v>
+        <v>1.009289372630329</v>
       </c>
       <c r="I20">
-        <v>0.9985948161443008</v>
+        <v>0.9969429247518872</v>
       </c>
       <c r="J20">
-        <v>1.001316302599881</v>
+        <v>0.9976877550590943</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -6276,133 +6276,133 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0.9971449889235036</v>
+        <v>0.9964135536635081</v>
       </c>
       <c r="Q20">
-        <v>0.9973036454237508</v>
+        <v>0.9964135536634932</v>
       </c>
       <c r="R20">
-        <v>0.9985948161443008</v>
+        <v>0.9969429247518872</v>
       </c>
       <c r="S20">
-        <v>0.9975637327220604</v>
+        <v>0.9959101293247294</v>
       </c>
       <c r="T20">
-        <v>0.9971449889233562</v>
+        <v>0.9964135536634932</v>
       </c>
       <c r="U20">
-        <v>0.9973036454237508</v>
+        <v>0.9964135536634932</v>
       </c>
       <c r="V20">
-        <v>0.9973036454238982</v>
+        <v>0.9964135536635081</v>
       </c>
       <c r="W20">
-        <v>0.9973036454238982</v>
+        <v>0.9964135536635081</v>
       </c>
       <c r="X20">
-        <v>0.003594422264129105</v>
+        <v>0.01123269118691661</v>
       </c>
       <c r="Y20">
-        <v>12.92422068866085</v>
+        <v>20.38310136040432</v>
       </c>
       <c r="Z20">
-        <v>7.015490177187007E-06</v>
+        <v>1.744977448487825E-05</v>
       </c>
       <c r="AA20">
-        <v>0.0002276695472995704</v>
+        <v>0.0004129610777605441</v>
       </c>
       <c r="AB20">
-        <v>0.6693197055261491</v>
+        <v>0.7493687279233016</v>
       </c>
       <c r="AC20">
-        <v>3.763106492924882E-08</v>
+        <v>4.717049319257014E-08</v>
       </c>
       <c r="AD20">
-        <v>0.0004124868318326504</v>
+        <v>0.005637975692446618</v>
       </c>
       <c r="AE20">
-        <v>2.091690005657104</v>
+        <v>16.57493623978878</v>
       </c>
       <c r="AF20">
-        <v>9.187850867508522E-07</v>
+        <v>5.769298738414388E-05</v>
       </c>
       <c r="AG20">
-        <v>0.0004121099470356973</v>
+        <v>0.01129782538882806</v>
       </c>
       <c r="AH20">
-        <v>1.481795824779695</v>
+        <v>25.99201472989733</v>
       </c>
       <c r="AI20">
-        <v>4.611009619302168E-07</v>
+        <v>0.0001418728142410317</v>
       </c>
       <c r="AJ20">
-        <v>0.008360860233340085</v>
+        <v>0.009266989839095496</v>
       </c>
       <c r="AK20">
-        <v>15.17181045579205</v>
+        <v>16.81609420689246</v>
       </c>
       <c r="AL20">
-        <v>9.667720965272214E-05</v>
+        <v>0.000118768030237533</v>
       </c>
       <c r="AM20">
-        <v>0.003384690899865501</v>
+        <v>0.001993542190235384</v>
       </c>
       <c r="AN20">
-        <v>17.16351548977331</v>
+        <v>10.10910398434944</v>
       </c>
       <c r="AO20">
-        <v>1.237262308664312E-05</v>
+        <v>4.292147301388459E-06</v>
       </c>
       <c r="AP20">
-        <v>0.000329480743178246</v>
+        <v>0.001157376676744788</v>
       </c>
       <c r="AQ20">
-        <v>1.670772311689249</v>
+        <v>5.868970936046452</v>
       </c>
       <c r="AR20">
-        <v>1.172421649352933E-07</v>
+        <v>1.446682433622415E-06</v>
       </c>
       <c r="AS20">
-        <v>0.001627613042787652</v>
+        <v>0.0005942854951940689</v>
       </c>
       <c r="AT20">
-        <v>8.253504528981665</v>
+        <v>3.013577488720264</v>
       </c>
       <c r="AU20">
-        <v>1.430527077208232E-06</v>
+        <v>1.90714634890933E-07</v>
       </c>
       <c r="AV20">
-        <v>0.001449501205987472</v>
+        <v>0.0005942854951940689</v>
       </c>
       <c r="AW20">
-        <v>7.350312668846567</v>
+        <v>3.013577488720264</v>
       </c>
       <c r="AX20">
-        <v>1.134569022925858E-06</v>
+        <v>1.90714634890933E-07</v>
       </c>
       <c r="AY20">
-        <v>0.001449501205987472</v>
+        <v>0.0005942854951940689</v>
       </c>
       <c r="AZ20">
-        <v>7.350312668846567</v>
+        <v>3.013577488720264</v>
       </c>
       <c r="BA20">
-        <v>1.134569022925858E-06</v>
+        <v>1.90714634890933E-07</v>
       </c>
       <c r="BB20">
-        <v>0.001157520566586708</v>
+        <v>0.001159442507003235</v>
       </c>
       <c r="BC20">
-        <v>5.869700590719114</v>
+        <v>5.879446607441289</v>
       </c>
       <c r="BD20">
-        <v>7.235210855183758E-07</v>
+        <v>7.25925740604756E-07</v>
       </c>
       <c r="BE20">
-        <v>0.0004</v>
+        <v>0.0014</v>
       </c>
       <c r="BF20">
-        <v>0.00045</v>
+        <v>0.00035</v>
       </c>
       <c r="BG20">
         <v>0.0007</v>
@@ -6420,106 +6420,106 @@
         <v>0.006</v>
       </c>
       <c r="BL20">
-        <v>-0.0002403856084922315</v>
+        <v>0</v>
       </c>
       <c r="BM20">
-        <v>50.78710143026866</v>
+        <v>50</v>
       </c>
       <c r="BN20">
-        <v>0</v>
+        <v>0.006599999999999999</v>
       </c>
       <c r="BO20">
-        <v>0</v>
+        <v>0.0132</v>
       </c>
       <c r="BP20">
-        <v>-0.003202945012448255</v>
+        <v>0.01540901350112279</v>
       </c>
       <c r="BQ20">
-        <v>-4.358005389729306</v>
+        <v>13.61891428903438</v>
       </c>
       <c r="BR20">
-        <v>-0.001155060377281051</v>
+        <v>0.001790099212088407</v>
       </c>
       <c r="BS20">
-        <v>0.0002764413841022247</v>
+        <v>0.0005</v>
       </c>
       <c r="BT20">
-        <v>-0.6009640212305788</v>
+        <v>0</v>
       </c>
       <c r="BU20">
-        <v>-0.0005168269925944562</v>
+        <v>0.0005</v>
       </c>
       <c r="BV20">
-        <v>0.0005</v>
+        <v>0.006769230769230769</v>
       </c>
       <c r="BW20">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BX20">
-        <v>-0.0005</v>
+        <v>0.0001692307692307696</v>
       </c>
       <c r="BY20">
-        <v>0.0005</v>
+        <v>0.01353846153846154</v>
       </c>
       <c r="BZ20">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="CA20">
-        <v>-0.0005</v>
+        <v>0.0003384615384615392</v>
       </c>
       <c r="CB20">
-        <v>-0.005124999999999999</v>
+        <v>-0.005670000000000001</v>
       </c>
       <c r="CC20">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="CD20">
-        <v>-0.0008750000000000008</v>
+        <v>0.0003299999999999996</v>
       </c>
       <c r="CE20">
-        <v>-0.005124999999999999</v>
+        <v>-0.005670000000000001</v>
       </c>
       <c r="CF20">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="CG20">
-        <v>-0.0008750000000000008</v>
+        <v>0.0003299999999999996</v>
       </c>
       <c r="CH20">
-        <v>0.0009838709677419356</v>
+        <v>0.000358974358974359</v>
       </c>
       <c r="CI20">
-        <v>5.000000000000001</v>
+        <v>70</v>
       </c>
       <c r="CJ20">
-        <v>-0.0005338709677419355</v>
+        <v>8.974358974358999E-06</v>
       </c>
       <c r="CK20">
-        <v>0.0008763440860215054</v>
+        <v>0.000358974358974359</v>
       </c>
       <c r="CL20">
-        <v>3.888888888888889</v>
+        <v>70</v>
       </c>
       <c r="CM20">
-        <v>-0.0005263440860215054</v>
+        <v>8.974358974358999E-06</v>
       </c>
       <c r="CN20">
-        <v>0.0008763440860215054</v>
+        <v>0.000358974358974359</v>
       </c>
       <c r="CO20">
-        <v>3.888888888888889</v>
+        <v>70</v>
       </c>
       <c r="CP20">
-        <v>-0.0005263440860215054</v>
+        <v>8.974358974358999E-06</v>
       </c>
       <c r="CQ20">
-        <v>0.004097953143973369</v>
+        <v>0.00240965237476629</v>
       </c>
       <c r="CR20">
-        <v>38.23313695548361</v>
+        <v>17.78221146568355</v>
       </c>
       <c r="CS20">
-        <v>-0.0006569708179798447</v>
+        <v>0.0006314312281979354</v>
       </c>
     </row>
     <row r="21" spans="1:97">
@@ -6533,25 +6533,25 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9997329247292863</v>
+        <v>0.9985444194089168</v>
       </c>
       <c r="E21">
-        <v>0.9996396335394879</v>
+        <v>0.9984501917414463</v>
       </c>
       <c r="F21">
-        <v>0.9978923106541282</v>
+        <v>0.9914834426212111</v>
       </c>
       <c r="G21">
-        <v>0.9988083535940371</v>
+        <v>0.9898821921856635</v>
       </c>
       <c r="H21">
-        <v>1.004024591801336</v>
+        <v>1.003774434164582</v>
       </c>
       <c r="I21">
-        <v>0.9968720029449392</v>
+        <v>0.9969633821434075</v>
       </c>
       <c r="J21">
-        <v>0.9995859250856421</v>
+        <v>0.9976607195340003</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -6569,133 +6569,133 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>0.9954196627894234</v>
+        <v>0.9965096792656347</v>
       </c>
       <c r="Q21">
-        <v>0.9956580420523955</v>
+        <v>0.9965096792656264</v>
       </c>
       <c r="R21">
-        <v>0.9968720029449393</v>
+        <v>0.9969633821434075</v>
       </c>
       <c r="S21">
-        <v>0.9959868178836383</v>
+        <v>0.9960782783603042</v>
       </c>
       <c r="T21">
-        <v>0.9954196627891576</v>
+        <v>0.9965096792656264</v>
       </c>
       <c r="U21">
-        <v>0.9956580420523955</v>
+        <v>0.9965096792656264</v>
       </c>
       <c r="V21">
-        <v>0.9956580420526611</v>
+        <v>0.9965096792656347</v>
       </c>
       <c r="W21">
-        <v>0.9956580420526611</v>
+        <v>0.9965096792656347</v>
       </c>
       <c r="X21">
-        <v>0.0005963380420348615</v>
+        <v>0.01276064842217688</v>
       </c>
       <c r="Y21">
-        <v>2.144212308391608</v>
+        <v>23.15576791754684</v>
       </c>
       <c r="Z21">
-        <v>1.931011497852738E-07</v>
+        <v>2.251996268975466E-05</v>
       </c>
       <c r="AA21">
-        <v>0.00015579828710841</v>
+        <v>0.0004130331716425262</v>
       </c>
       <c r="AB21">
-        <v>0.4580272807046433</v>
+        <v>0.749499551149851</v>
       </c>
       <c r="AC21">
-        <v>1.762227514902196E-08</v>
+        <v>4.718696448261384E-08</v>
       </c>
       <c r="AD21">
-        <v>0.0004132640679092782</v>
+        <v>0.004716793048572666</v>
       </c>
       <c r="AE21">
-        <v>2.095631311919646</v>
+        <v>13.86677564805963</v>
       </c>
       <c r="AF21">
-        <v>9.22250825054617E-07</v>
+        <v>4.038036804345987E-05</v>
       </c>
       <c r="AG21">
-        <v>0.0004128850559942303</v>
+        <v>0.009448846028040293</v>
       </c>
       <c r="AH21">
-        <v>1.484582831564571</v>
+        <v>21.73821392072611</v>
       </c>
       <c r="AI21">
-        <v>4.628370985930354E-07</v>
+        <v>9.923548833728167E-05</v>
       </c>
       <c r="AJ21">
-        <v>0.0037623787364952</v>
+        <v>0.004585000648448028</v>
       </c>
       <c r="AK21">
-        <v>6.827299519418448</v>
+        <v>8.320048276916053</v>
       </c>
       <c r="AL21">
-        <v>1.957704786569731E-05</v>
+        <v>2.907374539868907E-05</v>
       </c>
       <c r="AM21">
-        <v>0.003211743815628582</v>
+        <v>0.001774912787745674</v>
       </c>
       <c r="AN21">
-        <v>16.28651370525898</v>
+        <v>9.00045056601185</v>
       </c>
       <c r="AO21">
-        <v>1.114052220420672E-05</v>
+        <v>3.402340636431394E-06</v>
       </c>
       <c r="AP21">
-        <v>0.0001650255518891034</v>
+        <v>0.0009920640346281412</v>
       </c>
       <c r="AQ21">
-        <v>0.8368322839079838</v>
+        <v>5.030682838974672</v>
       </c>
       <c r="AR21">
-        <v>2.941210739844098E-08</v>
+        <v>1.062926332706963E-06</v>
       </c>
       <c r="AS21">
-        <v>0.001630434127574592</v>
+        <v>0.0005093384306479724</v>
       </c>
       <c r="AT21">
-        <v>8.267810039845459</v>
+        <v>2.582817250553275</v>
       </c>
       <c r="AU21">
-        <v>1.435490339954338E-06</v>
+        <v>1.400898439449282E-07</v>
       </c>
       <c r="AV21">
-        <v>0.00136282348240854</v>
+        <v>0.0005093384306479724</v>
       </c>
       <c r="AW21">
-        <v>6.910776387609065</v>
+        <v>2.582817250553275</v>
       </c>
       <c r="AX21">
-        <v>1.002935435870204E-06</v>
+        <v>1.400898439449282E-07</v>
       </c>
       <c r="AY21">
-        <v>0.00136282348240854</v>
+        <v>0.0005093384306479724</v>
       </c>
       <c r="AZ21">
-        <v>6.910776387609065</v>
+        <v>2.582817250553275</v>
       </c>
       <c r="BA21">
-        <v>1.002935435870204E-06</v>
+        <v>1.400898439449282E-07</v>
       </c>
       <c r="BB21">
-        <v>0.0009937313427704096</v>
+        <v>0.0009936400977911476</v>
       </c>
       <c r="BC21">
-        <v>5.03913763439696</v>
+        <v>5.038674937902286</v>
       </c>
       <c r="BD21">
-        <v>5.332510700662568E-07</v>
+        <v>5.331531477268574E-07</v>
       </c>
       <c r="BE21">
-        <v>0.0002</v>
+        <v>0.0012</v>
       </c>
       <c r="BF21">
-        <v>0.00045</v>
+        <v>0.0003</v>
       </c>
       <c r="BG21">
         <v>0.0005999999999999999</v>
@@ -6713,106 +6713,106 @@
         <v>0.003</v>
       </c>
       <c r="BL21">
-        <v>-0.0003345942864978295</v>
+        <v>0</v>
       </c>
       <c r="BM21">
-        <v>50.50827285818713</v>
+        <v>50</v>
       </c>
       <c r="BN21">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="BO21">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="BP21">
-        <v>0.001627443299270034</v>
+        <v>0.01734045546622573</v>
       </c>
       <c r="BQ21">
-        <v>0.7230222683211315</v>
+        <v>15.47146398331786</v>
       </c>
       <c r="BR21">
-        <v>-0.0009044210309489023</v>
+        <v>0.00186899148290786</v>
       </c>
       <c r="BS21">
-        <v>0.0001888273135570186</v>
+        <v>0.0005</v>
       </c>
       <c r="BT21">
-        <v>-0.8364857162445737</v>
+        <v>0</v>
       </c>
       <c r="BU21">
-        <v>-0.0005234216000548481</v>
+        <v>0.0005</v>
       </c>
       <c r="BV21">
-        <v>0.0005</v>
+        <v>0.005670103092783505</v>
       </c>
       <c r="BW21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BX21">
-        <v>-0.0005</v>
+        <v>0.0001701030927835053</v>
       </c>
       <c r="BY21">
-        <v>0.0005</v>
+        <v>0.01134020618556701</v>
       </c>
       <c r="BZ21">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CA21">
-        <v>-0.0005</v>
+        <v>0.0003402061855670106</v>
       </c>
       <c r="CB21">
-        <v>-0.00229</v>
+        <v>-0.00279</v>
       </c>
       <c r="CC21">
-        <v>-7.5</v>
+        <v>-10</v>
       </c>
       <c r="CD21">
-        <v>-0.0007099999999999997</v>
+        <v>0.0002099999999999997</v>
       </c>
       <c r="CE21">
-        <v>-0.00229</v>
+        <v>-0.00279</v>
       </c>
       <c r="CF21">
-        <v>-7.5</v>
+        <v>-10</v>
       </c>
       <c r="CG21">
-        <v>-0.0007099999999999997</v>
+        <v>0.0002099999999999997</v>
       </c>
       <c r="CH21">
-        <v>0.0009838709677419356</v>
+        <v>0.0003076923076923076</v>
       </c>
       <c r="CI21">
-        <v>5.000000000000001</v>
+        <v>60</v>
       </c>
       <c r="CJ21">
-        <v>-0.0005338709677419355</v>
+        <v>7.692307692307675E-06</v>
       </c>
       <c r="CK21">
-        <v>0.0008225806451612903</v>
+        <v>0.0003076923076923076</v>
       </c>
       <c r="CL21">
-        <v>3.333333333333333</v>
+        <v>60</v>
       </c>
       <c r="CM21">
-        <v>-0.0005225806451612904</v>
+        <v>7.692307692307675E-06</v>
       </c>
       <c r="CN21">
-        <v>0.0008225806451612903</v>
+        <v>0.0003076923076923076</v>
       </c>
       <c r="CO21">
-        <v>3.333333333333333</v>
+        <v>60</v>
       </c>
       <c r="CP21">
-        <v>-0.0005225806451612904</v>
+        <v>7.692307692307675E-06</v>
       </c>
       <c r="CQ21">
-        <v>0.003881852161238229</v>
+        <v>0.002145432686564547</v>
       </c>
       <c r="CR21">
-        <v>35.92229855940309</v>
+        <v>15.24030345756484</v>
       </c>
       <c r="CS21">
-        <v>-0.0006488452908919515</v>
+        <v>0.000621402340808063</v>
       </c>
     </row>
     <row r="22" spans="1:97">
@@ -6826,25 +6826,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.9953428214808774</v>
+        <v>0.999155050397708</v>
       </c>
       <c r="E22">
-        <v>0.9950946654168442</v>
+        <v>0.9990608803283634</v>
       </c>
       <c r="F22">
-        <v>0.9848469345203027</v>
+        <v>0.9962698688309901</v>
       </c>
       <c r="G22">
-        <v>0.9857579213608018</v>
+        <v>0.9956189890276557</v>
       </c>
       <c r="H22">
-        <v>0.9943967037765875</v>
+        <v>0.999155050397708</v>
       </c>
       <c r="I22">
-        <v>0.9930998718824857</v>
+        <v>0.9983713017871586</v>
       </c>
       <c r="J22">
-        <v>0.9953428214808774</v>
+        <v>0.9988608376917796</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6862,133 +6862,133 @@
         <v>1</v>
       </c>
       <c r="P22">
-        <v>0.9916419990320029</v>
+        <v>0.9982155333759344</v>
       </c>
       <c r="Q22">
-        <v>0.9922001617285631</v>
+        <v>0.9982155330552704</v>
       </c>
       <c r="R22">
-        <v>0.9930998718824857</v>
+        <v>0.9983713017871586</v>
       </c>
       <c r="S22">
-        <v>0.9928038642201429</v>
+        <v>0.9980768579788851</v>
       </c>
       <c r="T22">
-        <v>0.9916419990317678</v>
+        <v>0.9982155330552704</v>
       </c>
       <c r="U22">
-        <v>0.9922001617285631</v>
+        <v>0.9982155330552704</v>
       </c>
       <c r="V22">
-        <v>0.9922001617287981</v>
+        <v>0.9982155333759344</v>
       </c>
       <c r="W22">
-        <v>0.9922001617287981</v>
+        <v>0.9982155333759344</v>
       </c>
       <c r="X22">
-        <v>0.01039876403411999</v>
+        <v>0.007407425514847223</v>
       </c>
       <c r="Y22">
-        <v>37.39013154005122</v>
+        <v>13.44168575244363</v>
       </c>
       <c r="Z22">
-        <v>5.87169213364571E-05</v>
+        <v>7.588514466432342E-06</v>
       </c>
       <c r="AA22">
-        <v>0.0004144259473526266</v>
+        <v>0.0004127806986989632</v>
       </c>
       <c r="AB22">
-        <v>1.218359927072156</v>
+        <v>0.7490414079040546</v>
       </c>
       <c r="AC22">
-        <v>1.246896765992513E-07</v>
+        <v>4.712929458337584E-08</v>
       </c>
       <c r="AD22">
-        <v>0.002356590118583433</v>
+        <v>0.001927326029659314</v>
       </c>
       <c r="AE22">
-        <v>11.9500929922318</v>
+        <v>5.666095030825794</v>
       </c>
       <c r="AF22">
-        <v>2.998899172982706E-05</v>
+        <v>6.741972908653159E-06</v>
       </c>
       <c r="AG22">
-        <v>0.004280321839930276</v>
+        <v>0.003857171899350947</v>
       </c>
       <c r="AH22">
-        <v>15.39046333810678</v>
+        <v>8.873890804049282</v>
       </c>
       <c r="AI22">
-        <v>4.974193596993769E-05</v>
+        <v>1.653664698045981E-05</v>
       </c>
       <c r="AJ22">
-        <v>0.0008294336613444697</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>1.505109515572504</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>9.514489546240314E-07</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>0.002517992466908685</v>
+        <v>0.0008798561941512158</v>
       </c>
       <c r="AN22">
-        <v>12.76855228069337</v>
+        <v>4.461685236216837</v>
       </c>
       <c r="AO22">
-        <v>6.847508948481379E-06</v>
+        <v>8.360786761770541E-07</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.0003302906929909947</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1.674879506871416</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>1.178192972266321E-07</v>
       </c>
       <c r="AS22">
-        <v>0.001636645272123238</v>
+        <v>0.0001748699541691056</v>
       </c>
       <c r="AT22">
-        <v>8.299306291297592</v>
+        <v>0.886752514741202</v>
       </c>
       <c r="AU22">
-        <v>1.446448183252229E-06</v>
+        <v>1.651293047040384E-08</v>
       </c>
       <c r="AV22">
-        <v>0.00101003758247749</v>
+        <v>0.0001748699541691056</v>
       </c>
       <c r="AW22">
-        <v>5.121825361599332</v>
+        <v>0.886752514741202</v>
       </c>
       <c r="AX22">
-        <v>5.508949957292071E-07</v>
+        <v>1.651293047040384E-08</v>
       </c>
       <c r="AY22">
-        <v>0.00101003758247749</v>
+        <v>0.0001748699541691056</v>
       </c>
       <c r="AZ22">
-        <v>5.121825361599332</v>
+        <v>0.886752514741202</v>
       </c>
       <c r="BA22">
-        <v>5.508949957292071E-07</v>
+        <v>1.651293047040384E-08</v>
       </c>
       <c r="BB22">
-        <v>0.0003323057568751891</v>
+        <v>0.0003305501343819412</v>
       </c>
       <c r="BC22">
-        <v>1.685097745763076</v>
+        <v>1.676195114843883</v>
       </c>
       <c r="BD22">
-        <v>5.963064266830244E-08</v>
+        <v>5.900223132355889E-08</v>
       </c>
       <c r="BE22">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="BF22">
-        <v>0.00045</v>
+        <v>0.0001</v>
       </c>
       <c r="BG22">
         <v>0.0002</v>
@@ -7009,22 +7009,22 @@
         <v>0</v>
       </c>
       <c r="BM22">
-        <v>50.50827285818713</v>
+        <v>50</v>
       </c>
       <c r="BN22">
-        <v>0.002171059960935514</v>
+        <v>0.0022</v>
       </c>
       <c r="BO22">
-        <v>0.004306185718524308</v>
+        <v>0.0044</v>
       </c>
       <c r="BP22">
-        <v>0.014350024376256</v>
+        <v>0.01050701790391901</v>
       </c>
       <c r="BQ22">
-        <v>12.60783135011159</v>
+        <v>8.981026650644678</v>
       </c>
       <c r="BR22">
-        <v>-0.001742193026144413</v>
+        <v>0.001525991253274329</v>
       </c>
       <c r="BS22">
         <v>0.0005</v>
@@ -7033,79 +7033,79 @@
         <v>0</v>
       </c>
       <c r="BU22">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV22">
-        <v>0.002813918126730909</v>
+        <v>0.002328042328042328</v>
       </c>
       <c r="BW22">
-        <v>15.50757114953939</v>
+        <v>20</v>
       </c>
       <c r="BX22">
-        <v>-0.0006428581657953944</v>
+        <v>0.0001280423280423278</v>
       </c>
       <c r="BY22">
-        <v>0.0051157035328405</v>
+        <v>0.004656084656084656</v>
       </c>
       <c r="BZ22">
-        <v>11.96162699590086</v>
+        <v>20</v>
       </c>
       <c r="CA22">
-        <v>-0.0008095178143161918</v>
+        <v>0.0002560846560846555</v>
       </c>
       <c r="CB22">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC22">
         <v>0</v>
       </c>
       <c r="CD22">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE22">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF22">
         <v>0</v>
       </c>
       <c r="CG22">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH22">
-        <v>0.0009838709677419356</v>
+        <v>0.0001058201058201058</v>
       </c>
       <c r="CI22">
-        <v>5.000000000000001</v>
+        <v>20</v>
       </c>
       <c r="CJ22">
-        <v>-0.0005338709677419355</v>
+        <v>5.82010582010582E-06</v>
       </c>
       <c r="CK22">
-        <v>0.0006075268817204301</v>
+        <v>0.0001058201058201058</v>
       </c>
       <c r="CL22">
-        <v>1.111111111111111</v>
+        <v>20</v>
       </c>
       <c r="CM22">
-        <v>-0.0005075268817204301</v>
+        <v>5.82010582010582E-06</v>
       </c>
       <c r="CN22">
-        <v>0.0006075268817204301</v>
+        <v>0.0001058201058201058</v>
       </c>
       <c r="CO22">
-        <v>1.111111111111111</v>
+        <v>20</v>
       </c>
       <c r="CP22">
-        <v>-0.0005075268817204301</v>
+        <v>5.82010582010582E-06</v>
       </c>
       <c r="CQ22">
-        <v>0.003031838193924251</v>
+        <v>0.001065031504894162</v>
       </c>
       <c r="CR22">
-        <v>26.6836955555575</v>
+        <v>5.175688584830521</v>
       </c>
       <c r="CS22">
-        <v>-0.000630305593924076</v>
+        <v>0.0005474626464111096</v>
       </c>
     </row>
     <row r="23" spans="1:97">
@@ -7119,25 +7119,25 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E23">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F23">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G23">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H23">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I23">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J23">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -7155,133 +7155,133 @@
         <v>1</v>
       </c>
       <c r="P23">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q23">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R23">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S23">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T23">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U23">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V23">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W23">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X23">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y23">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z23">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA23">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB23">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC23">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD23">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE23">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF23">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG23">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH23">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI23">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ23">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL23">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN23">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO23">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS23">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT23">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU23">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV23">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW23">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX23">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY23">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ23">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA23">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB23">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC23">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD23">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE23">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF23">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG23">
         <v>0.0001</v>
@@ -7302,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="BM23">
-        <v>50.50827285818713</v>
+        <v>50</v>
       </c>
       <c r="BN23">
         <v>0.0011</v>
@@ -7311,13 +7311,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP23">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ23">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR23">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS23">
         <v>0.0005</v>
@@ -7326,79 +7326,79 @@
         <v>0</v>
       </c>
       <c r="BU23">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV23">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW23">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX23">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY23">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ23">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA23">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB23">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC23">
         <v>0</v>
       </c>
       <c r="CD23">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE23">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF23">
         <v>0</v>
       </c>
       <c r="CG23">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH23">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI23">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ23">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK23">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL23">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM23">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN23">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO23">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP23">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ23">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR23">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS23">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="24" spans="1:97">
@@ -7412,25 +7412,25 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E24">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F24">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G24">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H24">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I24">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J24">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -7448,133 +7448,133 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q24">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R24">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S24">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T24">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U24">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V24">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W24">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X24">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y24">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z24">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA24">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB24">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC24">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD24">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE24">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF24">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG24">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH24">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI24">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ24">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL24">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN24">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO24">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS24">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT24">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU24">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV24">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW24">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX24">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY24">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ24">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA24">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB24">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC24">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD24">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF24">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG24">
         <v>0.0001</v>
@@ -7595,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="BM24">
-        <v>50.50827285818713</v>
+        <v>50</v>
       </c>
       <c r="BN24">
         <v>0.0011</v>
@@ -7604,13 +7604,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP24">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ24">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR24">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS24">
         <v>0.0005</v>
@@ -7619,79 +7619,79 @@
         <v>0</v>
       </c>
       <c r="BU24">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV24">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW24">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX24">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY24">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ24">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA24">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB24">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC24">
         <v>0</v>
       </c>
       <c r="CD24">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE24">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF24">
         <v>0</v>
       </c>
       <c r="CG24">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH24">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI24">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ24">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK24">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL24">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM24">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN24">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO24">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP24">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ24">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR24">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS24">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
     <row r="25" spans="1:97">
@@ -7705,25 +7705,25 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.9968219539084716</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="E25">
-        <v>0.9965741662729634</v>
+        <v>0.999431451072086</v>
       </c>
       <c r="F25">
-        <v>0.9905814841963414</v>
+        <v>0.9980623604234673</v>
       </c>
       <c r="G25">
-        <v>0.9914839260591521</v>
+        <v>0.99773284506205</v>
       </c>
       <c r="H25">
-        <v>0.9958772428679039</v>
+        <v>0.9995255862251318</v>
       </c>
       <c r="I25">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="J25">
-        <v>0.9968219539084716</v>
+        <v>0.9993785560787157</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -7741,133 +7741,133 @@
         <v>1</v>
       </c>
       <c r="P25">
-        <v>0.994001275610338</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="Q25">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="R25">
-        <v>0.994978831600882</v>
+        <v>0.9989480371809815</v>
       </c>
       <c r="S25">
-        <v>0.994831129371658</v>
+        <v>0.9988009220028986</v>
       </c>
       <c r="T25">
-        <v>0.9940012756102738</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="U25">
-        <v>0.9941603587945871</v>
+        <v>0.9988689483857999</v>
       </c>
       <c r="V25">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="W25">
-        <v>0.9941603587946513</v>
+        <v>0.9988689484382286</v>
       </c>
       <c r="X25">
-        <v>0.007096088599495425</v>
+        <v>0.0041590465171199</v>
       </c>
       <c r="Y25">
-        <v>25.51492516653159</v>
+        <v>7.547102053320327</v>
       </c>
       <c r="Z25">
-        <v>2.734247906265551E-05</v>
+        <v>2.392267474935796E-06</v>
       </c>
       <c r="AA25">
-        <v>0.0004138106638169896</v>
+        <v>0.0004126276482190121</v>
       </c>
       <c r="AB25">
-        <v>1.216551071211667</v>
+        <v>0.748763678961436</v>
       </c>
       <c r="AC25">
-        <v>1.243197067449112E-07</v>
+        <v>4.709435194236427E-08</v>
       </c>
       <c r="AD25">
-        <v>0.001401142115398712</v>
+        <v>0.0009774473840221108</v>
       </c>
       <c r="AE25">
-        <v>7.105087321851213</v>
+        <v>2.873571819335797</v>
       </c>
       <c r="AF25">
-        <v>1.060127582873729E-05</v>
+        <v>1.734057150184955E-06</v>
       </c>
       <c r="AG25">
-        <v>0.002383799194499916</v>
+        <v>0.001955540391807852</v>
       </c>
       <c r="AH25">
-        <v>8.571265311432057</v>
+        <v>4.498957358558661</v>
       </c>
       <c r="AI25">
-        <v>1.542798369818122E-05</v>
+        <v>4.250529635967375E-06</v>
       </c>
       <c r="AJ25">
-        <v>0.0008282004804874462</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>1.50287175705265</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>9.486218776216283E-07</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.002069136145292728</v>
+        <v>0.0006483712979924676</v>
       </c>
       <c r="AN25">
-        <v>10.49243530084027</v>
+        <v>3.287842566853109</v>
       </c>
       <c r="AO25">
-        <v>4.623830338777377E-06</v>
+        <v>4.540161672652188E-07</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.0001650597950793737</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.8370059285756981</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>2.942431482779004E-08</v>
       </c>
       <c r="AS25">
-        <v>0.001097429305632986</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AT25">
-        <v>5.564982281516875</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AU25">
-        <v>6.503495836655522E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AV25">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AW25">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="AX25">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="AY25">
-        <v>0.00091883846257539</v>
+        <v>8.878710008762317E-05</v>
       </c>
       <c r="AZ25">
-        <v>4.659361416322798</v>
+        <v>0.4502327724243681</v>
       </c>
       <c r="BA25">
-        <v>4.55902624966315E-07</v>
+        <v>4.256900536666567E-09</v>
       </c>
       <c r="BB25">
-        <v>0.0001658142923936932</v>
+        <v>0.0001651552537987879</v>
       </c>
       <c r="BC25">
-        <v>0.8408319282679688</v>
+        <v>0.8374899926328813</v>
       </c>
       <c r="BD25">
-        <v>1.484696496347197E-08</v>
+        <v>1.472917924297745E-08</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="BF25">
-        <v>0.00015</v>
+        <v>5E-05</v>
       </c>
       <c r="BG25">
         <v>0.0001</v>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="BM25">
-        <v>50.50827285818713</v>
+        <v>50</v>
       </c>
       <c r="BN25">
         <v>0.0011</v>
@@ -7897,13 +7897,13 @@
         <v>0.0022</v>
       </c>
       <c r="BP25">
-        <v>0.01010113298319845</v>
+        <v>0.006272124678966278</v>
       </c>
       <c r="BQ25">
-        <v>8.60355367437456</v>
+        <v>5.042575951438638</v>
       </c>
       <c r="BR25">
-        <v>-0.001497579308823891</v>
+        <v>0.001229548727527639</v>
       </c>
       <c r="BS25">
         <v>0.0005</v>
@@ -7912,79 +7912,79 @@
         <v>0</v>
       </c>
       <c r="BU25">
-        <v>-0.0005</v>
+        <v>0.0005</v>
       </c>
       <c r="BV25">
-        <v>0.001682795698924731</v>
+        <v>0.001182795698924731</v>
       </c>
       <c r="BW25">
-        <v>7.857142857142857</v>
+        <v>10</v>
       </c>
       <c r="BX25">
-        <v>-0.0005827956989247311</v>
+        <v>8.279569892473112E-05</v>
       </c>
       <c r="BY25">
-        <v>0.002865591397849462</v>
+        <v>0.002365591397849462</v>
       </c>
       <c r="BZ25">
-        <v>6.111111111111112</v>
+        <v>10</v>
       </c>
       <c r="CA25">
-        <v>-0.0006655913978494622</v>
+        <v>0.0001655913978494622</v>
       </c>
       <c r="CB25">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CC25">
         <v>0</v>
       </c>
       <c r="CD25">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CE25">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="CF25">
         <v>0</v>
       </c>
       <c r="CG25">
-        <v>-0.0005</v>
+        <v>0</v>
       </c>
       <c r="CH25">
-        <v>0.0006612903225806452</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CI25">
-        <v>1.666666666666667</v>
+        <v>10</v>
       </c>
       <c r="CJ25">
-        <v>-0.0005112903225806452</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CK25">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CL25">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CM25">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CN25">
-        <v>0.0005537634408602151</v>
+        <v>5.376344086021505E-05</v>
       </c>
       <c r="CO25">
-        <v>0.5555555555555557</v>
+        <v>10</v>
       </c>
       <c r="CP25">
-        <v>-0.000503763440860215</v>
+        <v>3.763440860215051E-06</v>
       </c>
       <c r="CQ25">
-        <v>0.002496098067087648</v>
+        <v>0.0007852814655693211</v>
       </c>
       <c r="CR25">
-        <v>20.78215784555152</v>
+        <v>2.613178224614981</v>
       </c>
       <c r="CS25">
-        <v>-0.0006257038609880109</v>
+        <v>0.000523963643107823</v>
       </c>
     </row>
   </sheetData>
